--- a/Results/Raw_output/output_Medium_react.xlsx
+++ b/Results/Raw_output/output_Medium_react.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,86 +424,72 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Move to location (9, 4) and remove the construction materials.</t>
+          <t>Move to location (9, 5) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool to determine the best suited robot to move to location (9, 4) and remove the construction materials. The robot should have a tool property such as a front loader or gripper capable of handling construction materials.
-        Move the selected robot to location (9, 4) using the move_robot function.
-        Grab or remove the construction materials at location (9, 4) using the grab_or_remove_item function.
-        Change the robot's status to idle using the robot_status_change function after the construction materials have been successfully removed.
-    current step:
-       Use the robot_selection_tool to determine the best suited robot to move to location (9, 4) and remove the construction materials. The robot should have a tool property such as a front loader or gripper capable of handling construction materials.
+        Select a robot equipped with a gripper tool property using the robot_selection_tool with 'gripper' as the desired_robot_tool_property and (9, 5) as the item_position.
+        Move the selected robot to location (9, 5) using the move_robot function with the robot's name and the desired_position (9, 5).
+        Grab or remove the toolkit at location (9, 5) using the grab_or_remove_item function with the robot's name and 'toolkit' as the item_name.
+        Change the robot's status to 'idle' using the robot_status_change function with the robot's name and 'idle' as the status.
+    current step:
+       Select a robot equipped with a gripper tool property using the robot_selection_tool with 'gripper' as the desired_robot_tool_property and (9, 5) as the item_position.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user has requested the selection of a robot with specific tool properties to move to a location and remove construction materials. Since no specific robot has been identified, the robot_selection_tool should be used to determine the best suited robot for this task. The Robot_selector is responsible for selecting the correct robot using the robot_selection_tool.
+   reason: The Robot_selector is responsible for selecting the correct robot for a task when no specific robot is mentioned in the objective. Since the user request involves selecting a robot with a 'gripper' tool property and an item position is provided, the Robot_selector should use the robot_selection_tool to determine the best suited robot for the task.
 ---
 Robot_selector:
-   past steps: ('Use the robot_selection_tool to determine the best suited robot to move to location (9, 4) and remove the construction materials. The robot should have a tool property such as a front loader or gripper capable of handling construction materials.', 'Robot29 with the front loader tool property has been selected to move to location (9, 4) and remove the construction materials.')
----
-replanner:
-    plan:
-        Move Robot29 to location (9, 4) using the move_robot function.
-        Grab or remove the construction materials at location (9, 4) using the grab_or_remove_item function.
-        Change Robot29's status to idle using the robot_status_change function after the construction materials have been successfully removed.
-    current step:
-        Move Robot29 to location (9, 4) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to move a specific robot, Robot29, to a specific location, which is (9, 4). The Controller is responsible for controlling the robots with a set of tools including the move_robot function. Thus, the Controller is the correct worker to perform the current step of moving Robot29 to the desired position.
----
-Controller:
-   past steps: ('Move Robot29 to location (9, 4) using the move_robot function.', 'The robot has been successfully moved to location (9, 4).')
----
-replanner:
-    plan:
-        Grab or remove the construction materials at location (9, 4) using the grab_or_remove_item function.
-        Change Robot29's status to idle using the robot_status_change function after the construction materials have been successfully removed.
-    current step:
-        Grab or remove the construction materials at location (9, 4) using the grab_or_remove_item function.
----
-supervisor:
-   next agent: Robot_selector
-   reason: Since no specific robot has been mentioned for the task, the Robot_selector should be used first to determine the best suited robot to grab or remove the construction materials at location (9, 4) using the robot_selection_tool.
----
-Robot_selector:
-   past steps: ('Grab or remove the construction materials at location (9, 4) using the grab_or_remove_item function.', "It looks like I'm unable to resolve the issue with the request. I apologize for the inconvenience.")
----
-replanner:
-    plan:
-        Verify if Robot29 has successfully grabbed or removed the construction materials using the grab_or_remove_item function.
-        If the construction materials have been successfully removed, change Robot29's status to idle using the robot_status_change function.
-    current step:
-        Verify if Robot29 has successfully grabbed or removed the construction materials using the grab_or_remove_item function.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for the 'grab_or_remove_item' function, which is needed to verify if Robot29 has successfully grabbed or removed the construction materials. The Controller's tools are designed to interact directly with the robots and their actions.
----
-Controller:
-   past steps: ('Verify if Robot29 has successfully grabbed or removed the construction materials using the grab_or_remove_item function.', 'Robot29 has successfully grabbed or removed the construction materials.')
----
-replanner:
-    plan:
-        Change Robot29's status to idle using the robot_status_change function.
-    current step:
-        Change Robot29's status to idle using the robot_status_change function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to change Robot29's status to idle, which is a specific action that falls under the responsibility of the Controller. The Controller has the tool 'robot_status_change' which is used to change the current status of a robot. Since the request directly involves this tool, the Controller is the correct worker to perform the current_step.
----
-Controller:
-   past steps: ("Change Robot29's status to idle using the robot_status_change function.", 'The status of Robot29 has been changed to idle.')
+   past steps: ("Select a robot equipped with a gripper tool property using the robot_selection_tool with 'gripper' as the desired_robot_tool_property and (9, 5) as the item_position.", 'Robot42 is the best suited to solve the task with its gripper tool property, located at position (9, 5).')
+---
+replanner:
+    plan:
+        Move Robot42 to location (9, 5) using the move_robot function with 'Robot42' as the robot name and the desired_position (9, 5).
+        Grab or remove the toolkit at location (9, 5) using the grab_or_remove_item function with 'Robot42' as the robot name and 'toolkit' as the item_name.
+        Change Robot42's status to 'idle' using the robot_status_change function with 'Robot42' as the robot name and 'idle' as the status.
+    current step:
+        Move Robot42 to location (9, 5) using the move_robot function with 'Robot42' as the robot name and the desired_position (9, 5).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request is to move a specific robot, Robot42, to a certain location (9, 5). As the Controller is responsible for controlling the robots and has the 'move_robot' tool, which is required for this task, the Controller should act next to perform the current_step.
+---
+Controller:
+   past steps: ("Move Robot42 to location (9, 5) using the move_robot function with 'Robot42' as the robot name and the desired_position (9, 5).", 'Robot42 has been successfully moved to the position (9, 5).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with 'Robot42' as the robot name and 'toolkit' as the item_name to remove the toolkit at location (9, 5).
+        Change Robot42's status to 'idle' using the robot_status_change function with 'Robot42' as the robot name and 'idle' as the status.
+    current step:
+        Use the grab_or_remove_item function with 'Robot42' as the robot name and 'toolkit' as the item_name to remove the toolkit at location (9, 5).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the use of 'grab_or_remove_item' function with 'Robot42' and 'toolkit' specified, which is a task directly under the Controller's responsibilities. The Controller has the tools necessary to execute this action.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with 'Robot42' as the robot name and 'toolkit' as the item_name to remove the toolkit at location (9, 5).", 'The toolkit at location (9, 5) has been successfully removed by Robot42.')
+---
+replanner:
+    plan:
+        Change Robot42's status to 'idle' using the robot_status_change function with 'Robot42' as the robot name and 'idle' as the status.
+    current step:
+        Change Robot42's status to 'idle' using the robot_status_change function with 'Robot42' as the robot name and 'idle' as the status.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifically asks for changing a robot's status to 'idle', which falls under the responsibilities of the Controller. The Controller has the required tool 'robot_status_change' to perform this action on Robot42.
+---
+Controller:
+   past steps: ("Change Robot42's status to 'idle' using the robot_status_change function with 'Robot42' as the robot name and 'idle' as the status.", "Robot42's status has been changed to 'idle'.")
 ---
 replanner:
     response:
-        The construction materials at location (9, 4) have been successfully removed by Robot29 equipped with a front loader. The robot has been set to idle status, completing the task.
+        The toolkit at location (9, 5) has been successfully removed by Robot42, and Robot42's status has been changed to 'idle'. The task is complete.
 ---
 </t>
         </is>
@@ -512,72 +498,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move to location (12, 12) and remove the tree branches.</t>
+          <t>Move to location (3, 8) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool to determine the best suited robot to move to location (12, 12) and remove the tree branches. The robot should have a tool property such as a saw or gripper.
-        Move the selected robot to location (12, 12) using the move_robot function.
-        Use the grab_or_remove_item function to remove the tree branches from location (12, 12).
-        Set the robot's status to idle using the robot_status_change function after the tree branches have been removed.
-    current step:
-       Use the robot_selection_tool to determine the best suited robot to move to location (12, 12) and remove the tree branches. The robot should have a tool property such as a saw or gripper.
+        Use robot_selection_tool with the tool property 'mop' or 'vacuum' to determine the best suited robot to clean the liquid spill at location (3, 8).
+        Move the selected robot to location (3, 8) using move_robot.
+        Remove the liquid spill by using grab_or_remove_item with the selected robot.
+        Change the robot's status to 'idle' using robot_status_change after the liquid spill is removed.
+    current step:
+       Use robot_selection_tool with the tool property 'mop' or 'vacuum' to determine the best suited robot to clean the liquid spill at location (3, 8).
 ---
 supervisor:
    next agent: Robot_selector
-   reason: Since the objective requires selecting the most appropriate robot with proper tool properties such as a saw or gripper to move to a specific location and remove tree branches, and no specific robot has been mentioned, the Robot_selector should use the robot_selection_tool to determine the best suited robot for the task based on the desired robot tool property and the item position.
+   reason: The user request involves selecting the best suited robot to clean a liquid spill using specific tool properties ('mop' or 'vacuum'). The Robot_selector is responsible for determining the most appropriate robot when no specific robot is mentioned in the objective. The robot_selection_tool should be used for this purpose as it selects a robot based on the desired robot tool property and the item position, which in this case relates to the cleaning task at a specific location.
 ---
 Robot_selector:
-   past steps: ('Use the robot_selection_tool to determine the best suited robot to move to location (12, 12) and remove the tree branches. The robot should have a tool property such as a saw or gripper.', 'Robot14 with the saw tool property has been selected to move to location (12, 12) and remove the tree branches.')
----
-replanner:
-    plan:
-        Move Robot14 to location (12, 12) using the move_robot function.
-        Use the grab_or_remove_item function with Robot14 to remove the tree branches from location (12, 12).
-        Set Robot14's status to idle using the robot_status_change function after the tree branches have been removed.
-    current step:
-        Move Robot14 to location (12, 12) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically mentions moving Robot14 to a location, which is a task for the Controller using the 'move_robot' function. Since the robot is already specified, there's no need for the Robot_selector to act. The Controller is the appropriate worker to carry out this action.
----
-Controller:
-   past steps: ('Move Robot14 to location (12, 12) using the move_robot function.', 'Robot14 has been moved to the desired position (12, 12)')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot14 to remove the tree branches from location (12, 12).
-        Set Robot14's status to idle using the robot_status_change function after the tree branches have been removed.
-    current step:
-        Use the grab_or_remove_item function with Robot14 to remove the tree branches from location (12, 12).
----
-supervisor:
-   next agent: Controller
-   reason: The user has specified a direct action for a specific robot (Robot14) to perform, which is to use the 'grab_or_remove_item' function to remove tree branches from a specific location. Since the Controller is responsible for controlling the robots and using the tools like 'move_robot' and 'grab_or_remove_item', and because the robot and action have been specified, the Controller is the correct worker to act next to execute this task.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function with Robot14 to remove the tree branches from location (12, 12).', 'The tree branches have been successfully removed by Robot14 from location (12, 12).')
----
-replanner:
-    plan:
-        Set Robot14's status to idle using the robot_status_change function after the tree branches have been removed.
-    current step:
-        Set Robot14's status to idle using the robot_status_change function after the tree branches have been removed.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots and using the robot_status_change function to set a robot's status. Since the task involves setting Robot14's status to idle after the completion of an objective, the Controller is the correct worker to perform this action.
----
-Controller:
-   past steps: ("Set Robot14's status to idle using the robot_status_change function after the tree branches have been removed.", "Robot14's status has been changed to idle after the tree branches have been removed.")
+   past steps: ("Use robot_selection_tool with the tool property 'mop' or 'vacuum' to determine the best suited robot to clean the liquid spill at location (3, 8).", 'Robot6 is the best suited to clean the liquid spill at location (3, 8) using its mop tool property.')
+---
+replanner:
+    plan:
+        Move Robot6 to location (3, 8) using move_robot.
+        Remove the liquid spill by using grab_or_remove_item with Robot6.
+        Change Robot6's status to 'idle' using robot_status_change after the liquid spill is removed.
+    current step:
+        Move Robot6 to location (3, 8) using move_robot.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request is to move a specific robot, Robot6, to a specific location (3, 8). The Controller is responsible for controlling the robots with a set of tools, including the 'move_robot' tool which is specifically used to move a selected robot to a given position. Since the robot name and desired position are both provided, the Controller is the appropriate worker to carry out this action without the need for robot selection or further assistance from the misc_agent.
+---
+Controller:
+   past steps: ('Move Robot6 to location (3, 8) using move_robot.', 'Robot6 has been moved to the desired position (3, 8).')
+---
+replanner:
+    plan:
+        Remove the liquid spill by using grab_or_remove_item with Robot6.
+        Change Robot6's status to 'idle' using robot_status_change after the liquid spill is removed.
+    current step:
+        Remove the liquid spill by using grab_or_remove_item with Robot6.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action 'grab_or_remove_item' and the robot to use, 'Robot6'. Since the Controller is responsible for controlling the robots and executing actions such as 'grab_or_remove_item', it is the appropriate worker to perform the current_step.
+---
+Controller:
+   past steps: ('Remove the liquid spill by using grab_or_remove_item with Robot6.', 'The liquid spill has been successfully handled by Robot6.')
+---
+replanner:
+    plan:
+        Change Robot6's status to 'idle' using robot_status_change after the liquid spill is removed.
+    current step:
+        Change Robot6's status to 'idle' using robot_status_change after the liquid spill is removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to change Robot6's status to 'idle' after the completion of a task, such as removing a liquid spill. Since the specific task of changing the robot's status has been mentioned, the Controller is the correct worker to act next.
+---
+Controller:
+   past steps: ("Change Robot6's status to 'idle' using robot_status_change after the liquid spill is removed.", "Robot6 has removed the liquid spill and its status is now set to 'idle'.")
 ---
 replanner:
     response:
-        The tree branches at location (12, 12) have been successfully removed by Robot14, which is equipped with a saw tool property. Robot14's status has been set to idle upon completion of the task.
+        The liquid spill at location (3, 8) has been successfully cleaned by Robot6, and the robot's status is now set to 'idle'. No further actions are required.
 ---
 </t>
         </is>
@@ -586,72 +572,620 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move to location (10, 3) and remove the screws.</t>
+          <t>Move to location (1, 4) and remove the large debris.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool to determine the best suited robot with a screwdriver tool property to move to location (10, 3).
-        Move the selected robot to location (10, 3) using the move_robot function.
-        Use the grab_or_remove_item function to remove the screws with the selected robot.
-        Change the robot's status to idle using the robot_status_change function after the screws are removed.
-    current step:
-       Use the robot_selection_tool to determine the best suited robot with a screwdriver tool property to move to location (10, 3).
+        Use the robot_selection_tool to select the best suited robot based on the 'front loader' or 'gripper' tool property and proximity to location (1, 4).
+        Move the selected robot to location (1, 4) using the move_robot function.
+        Use the grab_or_remove_item function to have the robot remove the large debris at location (1, 4).
+        Change the robot's status to idle using the robot_status_change function after the removal of the large debris is complete.
+    current step:
+       Use the robot_selection_tool to select the best suited robot based on the 'front loader' or 'gripper' tool property and proximity to location (1, 4).
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request involves selecting the correct robot with a specific tool property (screwdriver) to move to a certain location. Since no specific robot is mentioned and the task involves determining the best suited robot, the Robot_selector should be used. The Robot_selector has the tool 'robot_selection_tool' which is designed for this exact purpose - to determine the best suited robot based on the desired robot tool property and the item's position.
+   reason: The user request specifies the need to select the best suited robot based on certain tool properties ('front loader' or 'gripper') and proximity to a location. The Robot_selector is responsible for selecting the correct robot using the robot_selection_tool, which is designed for determining the best suited robot based on tool properties and other criteria such as location. Therefore, the Robot_selector should use the robot_selection_tool to fulfill this request.
 ---
 Robot_selector:
-   past steps: ('Use the robot_selection_tool to determine the best suited robot with a screwdriver tool property to move to location (10, 3).', 'The best suited robot with a screwdriver tool property to move to location (10, 3) is Robot45.')
----
-replanner:
-    plan:
-        Move Robot45 to location (10, 3) using the move_robot function.
-        Use the grab_or_remove_item function to remove the screws with Robot45.
-        Change Robot45's status to idle using the robot_status_change function after the screws are removed.
-    current step:
-        Move Robot45 to location (10, 3) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving moving a robot to a designated location. The Controller is responsible for controlling the robots with tools that include 'move_robot'. Since the specific robot 'Robot45' and the desired position (10, 3) are provided, the Controller is the appropriate worker to execute the move_robot function.
----
-Controller:
-   past steps: ('Move Robot45 to location (10, 3) using the move_robot function.', 'The robot has been successfully moved to location (10, 3).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function to remove the screws with Robot45.
-        Change Robot45's status to idle using the robot_status_change function after the screws are removed.
-    current step:
-        Use the grab_or_remove_item function to remove the screws with Robot45.
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to use the grab_or_remove_item function with a specified robot, Robot45, to remove screws. Since the Controller is responsible for controlling the robots and using the tools such as move_robot, grab_or_remove_item, and robot_status_change, and the specific robot is already determined, the Controller should act next to execute the requested function.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function to remove the screws with Robot45.', 'The screws have been removed by Robot45.')
----
-replanner:
-    plan:
-        Change Robot45's status to idle using the robot_status_change function after the screws are removed.
-    current step:
-        Change Robot45's status to idle using the robot_status_change function after the screws are removed.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically mentions an action to be performed on a named robot, Robot45, which falls under the responsibilities of the Controller. The Controller has the tool necessary for this task, which is the robot_status_change function. The task is to change the robot's status to idle, which is explicitly one of the functionalities of the Controller's toolset. There is no need for robot selection as the robot is already specified, and the task is not a generic question for the misc_agent.
----
-Controller:
-   past steps: ("Change Robot45's status to idle using the robot_status_change function after the screws are removed.", 'Robot45 has successfully removed the screws and changed its status to idle.')
+   past steps: ("Use the robot_selection_tool to select the best suited robot based on the 'front loader' or 'gripper' tool property and proximity to location (1, 4).", "The best suited robots for the task based on the desired tool properties and proximity to location (1, 4) are:\n\n- Robot39 with the 'front loader' tool property.\n- Robot2 with the 'gripper' tool property.")
+---
+replanner:
+    plan:
+        Move Robot39 or Robot2 to location (1, 4) using the move_robot function.
+        Use the grab_or_remove_item function to have the robot remove the large debris at location (1, 4).
+        Change the robot's status to idle using the robot_status_change function after the removal of the large debris is complete.
+    current step:
+        Move Robot39 or Robot2 to location (1, 4) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The user has specified a clear action involving the movement of a robot to a specific location. Since the Controller is responsible for controlling the robots with tools that include the 'move_robot' function, it is the appropriate worker to carry out this task.
+---
+Controller:
+   past steps: ('Move Robot39 or Robot2 to location (1, 4) using the move_robot function.', 'Robot39 has been moved to the desired position (1, 4).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function to have Robot39 remove the large debris at location (1, 4).
+        Change Robot39's status to idle using the robot_status_change function after the removal of the large debris is complete.
+    current step:
+        Use the grab_or_remove_item function to have Robot39 remove the large debris at location (1, 4).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifically mentions using the 'grab_or_remove_item' function to have Robot39 remove the large debris at a given location. This function is within the set of tools controlled by the Controller. Since the specific robot (Robot39) and the action (remove the large debris) are already identified, there is no need for robot selection or miscellaneous actions at this point.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function to have Robot39 remove the large debris at location (1, 4).', 'Robot39 has successfully grabbed or removed the large debris.')
+---
+replanner:
+    plan:
+        Change Robot39's status to idle using the robot_status_change function after the removal of the large debris is complete.
+    current step:
+        Change Robot39's status to idle using the robot_status_change function after the removal of the large debris is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving a specific robot (Robot39) and the use of the 'robot_status_change' function to change its status to idle after completing a task. The Controller is responsible for controlling the robots with tools that include 'robot_status_change', and since the specific robot and action are clearly identified, there is no need to select or identify a robot, which means the Robot_selector's role is not required at this step. The misc_agent is also not needed as the request doesn't involve answering generic questions.
+---
+Controller:
+   past steps: ("Change Robot39's status to idle using the robot_status_change function after the removal of the large debris is complete.", "Robot39's status has been changed to idle.")
 ---
 replanner:
     response:
-        Robot45 equipped with a screwdriver has successfully moved to location (10, 3), removed the screws, and changed its status to idle. The task is complete.
+        The task has been successfully completed. Robot39 equipped with a front loader has moved to location (1, 4) and removed the large debris. The robot's status has been set to idle.
+---
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Move to location (6, 5) and remove the dust.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">planner:
+    plan:
+        Use the robot_selection_tool to determine the best suited robot with a cleaning tool property to move to location (6, 5).
+        Move the selected robot to location (6, 5) using the move_robot function.
+        Grab or remove the dust at location (6, 5) using grab_or_remove_item function with the selected robot.
+        Set the robot's status to idle using robot_status_change function after the dust has been removed.
+    current step:
+       Use the robot_selection_tool to determine the best suited robot with a cleaning tool property to move to location (6, 5).
+---
+supervisor:
+   next agent: Robot_selector
+   reason: The task requires selecting the best suited robot with a specific tool property, in this case a cleaning tool, to move to a specified location. The Robot_selector is responsible for this task using the robot_selection_tool, which is designed to select the best robot for the job when no specific robot is mentioned in the objective.
+---
+Robot_selector:
+   past steps: ('Use the robot_selection_tool to determine the best suited robot with a cleaning tool property to move to location (6, 5).', 'There is no robot available with a specific "cleaning" tool property to move to location (6, 5). However, I can select a robot based on more specific cleaning needs such as vacuuming dust, mopping liquid spills, or sweeping small debris. Please provide more details about the type of cleaning required for an accurate robot selection.')
+---
+replanner:
+    plan:
+        Specify the cleaning requirement as removing dust with a vacuum to the robot_selection_tool.
+        Move the selected robot with vacuuming capabilities to location (6, 5) using the move_robot function.
+        Remove the dust at location (6, 5) using the grab_or_remove_item function with the selected robot.
+        Set the robot's status to idle using the robot_status_change function after the dust has been removed.
+    current step:
+        Specify the cleaning requirement as removing dust with a vacuum to the robot_selection_tool.
+---
+supervisor:
+   next agent: Robot_selector
+   reason: The user request involves finding a robot equipped with the appropriate tool (a vacuum) for a specific task (removing dust). This falls under the responsibility of the Robot_selector, who will use the robot_selection_tool to determine the best suited robot for the objective.
+---
+Robot_selector:
+   past steps: ('Specify the cleaning requirement as removing dust with a vacuum to the robot_selection_tool.', 'Robot40 is the best suited to solve the task of removing dust with a vacuum.')
+---
+replanner:
+    plan:
+        Move Robot40 with vacuuming capabilities to location (6, 5) using the move_robot function.
+        Remove the dust at location (6, 5) using the grab_or_remove_item function with Robot40.
+        Set Robot40's status to idle using the robot_status_change function after the dust has been removed.
+    current step:
+        Move Robot40 with vacuuming capabilities to location (6, 5) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The user has specified a particular robot ('Robot40') with a desired capability ('vacuuming capabilities') and a specific task ('move to location (6, 5)'). The Controller is responsible for controlling the robots with tools including the 'move_robot' function that is requested to be used. Since the robot has been specified and its task is to move to a certain location, the Controller is the appropriate worker to execute this task.
+---
+Controller:
+   past steps: ('Move Robot40 with vacuuming capabilities to location (6, 5) using the move_robot function.', 'Robot40 with vacuuming capabilities has been moved to the location (6, 5).')
+---
+replanner:
+    plan:
+        Remove the dust at location (6, 5) using the grab_or_remove_item function with Robot40.
+        Set Robot40's status to idle using the robot_status_change function after the dust has been removed.
+    current step:
+        Remove the dust at location (6, 5) using the grab_or_remove_item function with Robot40.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies an action (remove dust) and the location (6, 5) as well as the robot to be used (Robot40) and the function (grab_or_remove_item). Since all the information needed to perform the task is provided, including the specific robot and function to use, the Controller is the appropriate worker to execute the current_step using the provided tools.
+---
+Controller:
+   past steps: ('Remove the dust at location (6, 5) using the grab_or_remove_item function with Robot40.', 'The dust at location (6, 5) has been removed by Robot40.')
+---
+replanner:
+    plan:
+        Set Robot40's status to idle using the robot_status_change function.
+    current step:
+        Set Robot40's status to idle using the robot_status_change function.
+---
+supervisor:
+   next agent: Controller
+   reason: Since the task is to set Robot40's status to idle using the robot_status_change function, the Controller is the appropriate worker for this job. The Controller is responsible for controlling robots and has access to the robot_status_change tool, which is needed to change the status of a robot.
+---
+Controller:
+   past steps: ("Set Robot40's status to idle using the robot_status_change function.", "Robot40's status has been set to idle.")
+---
+replanner:
+    response:
+        The dust at location (6, 5) has been successfully removed by Robot40, which is now set to idle status.
+---
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Move to location (9, 5) and remove the grass.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">planner:
+    plan:
+        Use the robot_selection_tool with the 'lawnmower' tool property and the item_position (9, 5) to select the most suitable robot for grass removal.
+        Use the move_robot function with the robot selected in step 1 to move it to location (9, 5).
+        Use the grab_or_remove_item function with the robot from step 1 to remove the grass at location (9, 5).
+        Use the robot_status_change function with the robot from step 1 to set its status to 'idle' after the grass removal is complete.
+    current step:
+       Use the robot_selection_tool with the 'lawnmower' tool property and the item_position (9, 5) to select the most suitable robot for grass removal.
+---
+supervisor:
+   next agent: Robot_selector
+   reason: The user request specifies the need to use the 'robot_selection_tool' with a specific tool property ('lawnmower') and a given item position (9, 5) to select the most suitable robot for the task of grass removal. The Robot_selector is the appropriate worker for this task as they are responsible for selecting the correct robot based on the required properties and position.
+---
+Robot_selector:
+   past steps: ("Use the robot_selection_tool with the 'lawnmower' tool property and the item_position (9, 5) to select the most suitable robot for grass removal.", 'The most suitable robot for grass removal at the position (9, 5) is Robot11, which is equipped with a lawnmower.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot11 to move it to location (9, 5).
+        Use the grab_or_remove_item function with Robot11 to remove the grass at location (9, 5).
+        Use the robot_status_change function with Robot11 to set its status to 'idle' after the grass removal is complete.
+    current step:
+        Use the move_robot function with Robot11 to move it to location (9, 5).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifically mentions the use of the 'move_robot' function with 'Robot11' to move it to location (9, 5). The Controller is responsible for controlling the robots and has the tool 'move_robot' to perform this task. Since the robot name and desired position are provided, no robot selection is necessary, and the Controller is the correct worker to act next to execute the move operation.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot11 to move it to location (9, 5).', 'Robot11 has been successfully moved to the location (9, 5).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot11 to remove the grass at location (9, 5).
+        Use the robot_status_change function with Robot11 to set its status to 'idle' after the grass removal is complete.
+    current step:
+        Use the grab_or_remove_item function with Robot11 to remove the grass at location (9, 5).
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots' actions, including using tools like grab_or_remove_item. Since the user request specifically mentions the action of removing an item ('grass') at a certain location with a designated robot ('Robot11'), the Controller is the appropriate worker to carry out this task.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function with Robot11 to remove the grass at location (9, 5).', 'Robot11 has successfully removed the grass.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot11 to set its status to 'idle' after the grass removal is complete.
+    current step:
+        Use the robot_status_change function with Robot11 to set its status to 'idle' after the grass removal is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifically mentions the use of the 'robot_status_change' function to set Robot11's status to 'idle' after completing a task. Since the Controller is responsible for controlling the robots and has access to the 'robot_status_change' tool, it is the appropriate worker to perform the current_step.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot11 to set its status to 'idle' after the grass removal is complete.", "Robot11's status has been successfully changed to idle after completing the grass removal task.")
+---
+replanner:
+    response:
+        Robot11, equipped with a lawnmower, has successfully removed the grass at location (9, 5) and is now set to idle status.
+---
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Move to location (5, 12) and remove the small debris.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">planner:
+    plan:
+        Use the robot_selection_tool to determine the best-suited robot with the tool property capable of removing small debris, such as a vacuum, broom, or front loader.
+        Move the selected robot to location (5, 12) using the move_robot tool.
+        Remove the small debris at location (5, 12) by using the grab_or_remove_item tool with the selected robot.
+        Change the robot's status to idle using the robot_status_change tool after the objective is complete.
+    current step:
+       Use the robot_selection_tool to determine the best-suited robot with the tool property capable of removing small debris, such as a vacuum, broom, or front loader.
+---
+supervisor:
+   next agent: Robot_selector
+   reason: Since the user request specifies the need to determine the best-suited robot for a task (removing small debris) and no particular robot has been specified, the Robot_selector should be used. The 'robot_selection_tool' is designed to select the appropriate robot based on a desired tool property and the item position, which in this case relates to a tool that can handle small debris removal.
+---
+Robot_selector:
+   past steps: ('Use the robot_selection_tool to determine the best-suited robot with the tool property capable of removing small debris, such as a vacuum, broom, or front loader.', 'The best-suited robot for removing small debris using a vacuum is Robot40.')
+---
+replanner:
+    plan:
+        Move Robot40 to location (5, 12) using the move_robot tool.
+        Remove the small debris at location (5, 12) by using the grab_or_remove_item tool with Robot40.
+        Change Robot40's status to idle using the robot_status_change tool after the small debris has been removed.
+    current step:
+        Move Robot40 to location (5, 12) using the move_robot tool.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action to move a particular robot, Robot40, to a specific location (5, 12). The Controller is responsible for controlling the robots with tools including 'move_robot'. Since the robot is specified and the desired action is directly related to controlling the robot's movement, the Controller is the correct worker to carry out this current_step.
+---
+Controller:
+   past steps: ('Move Robot40 to location (5, 12) using the move_robot tool.', 'Robot40 has been successfully moved to the desired position (5, 12).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item tool with Robot40 to remove the small debris at location (5, 12).
+        Change Robot40's status to idle using the robot_status_change tool after the small debris has been removed.
+    current step:
+        Use the grab_or_remove_item tool with Robot40 to remove the small debris at location (5, 12).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a clear action involving a particular robot (Robot40) and a task (remove the small debris at location (5, 12)). The Controller is responsible for controlling the robots with tools like 'grab_or_remove_item', which is exactly the tool needed to perform the task. There is no need to select a robot as it has already been specified, and the task does not involve answering generic questions, so the misc_agent is not needed.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item tool with Robot40 to remove the small debris at location (5, 12).', 'Robot40 has successfully grabbed or removed the small debris.')
+---
+replanner:
+    plan:
+        Change Robot40's status to idle using the robot_status_change tool after the small debris has been removed.
+    current step:
+        Change Robot40's status to idle using the robot_status_change tool after the small debris has been removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request involves using the 'robot_status_change' tool to change Robot40's status to idle after a task is completed. The 'robot_status_change' tool is within the Controller's set of tools, making the Controller the correct worker to perform this current_step.
+---
+Controller:
+   past steps: ("Change Robot40's status to idle using the robot_status_change tool after the small debris has been removed.", 'Robot40 has removed the small debris and its status is now set to idle.')
+---
+replanner:
+    response:
+        The small debris at location (5, 12) has been successfully removed by Robot40, and its status has been set to idle. The task is now complete.
+---
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Move to location (11, 12) and remove the vehicle.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">planner:
+    plan:
+        Use the robot_selection_tool with the 'tow hook' tool property to determine the best-suited robot for removing a vehicle at location (11, 12).
+        Use the move_robot function to move the selected robot to location (11, 12).
+        Use the grab_or_remove_item function to remove the vehicle from location (11, 12).
+        Use the robot_status_change function to set the robot's status to idle after the removal of the vehicle is complete.
+    current step:
+       Use the robot_selection_tool with the 'tow hook' tool property to determine the best-suited robot for removing a vehicle at location (11, 12).
+---
+supervisor:
+   next agent: Robot_selector
+   reason: The request specifies the need to use the robot_selection_tool with the 'tow hook' tool property to determine the best-suited robot for a task. This falls under the responsibilities of the Robot_selector, who is equipped with the tools to select the correct robot based on the desired properties and the location of the item.
+---
+Robot_selector:
+   past steps: ("Use the robot_selection_tool with the 'tow hook' tool property to determine the best-suited robot for removing a vehicle at location (11, 12).", 'The best-suited robot to remove a vehicle at location (11, 12) is Robot23, as it is equipped with a tow hook.')
+---
+replanner:
+    plan:
+        Use the move_robot function to move Robot23 to location (11, 12).
+        Use the grab_or_remove_item function to remove the vehicle from location (11, 12) with Robot23.
+        Use the robot_status_change function to set Robot23's status to idle after the removal of the vehicle is complete.
+    current step:
+        Use the move_robot function to move Robot23 to location (11, 12).
+---
+supervisor:
+   next agent: Controller
+   reason: The user has requested to move a specific robot, Robot23, to a new location. The Controller is responsible for controlling the robots and has the 'move_robot' tool that is needed to fulfill this request. Therefore, the Controller is the appropriate worker to act next to carry out the move_robot function.
+---
+Controller:
+   past steps: ('Use the move_robot function to move Robot23 to location (11, 12).', 'Robot23 has been successfully moved to the location (11, 12).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function to have Robot23 remove the vehicle from location (11, 12).
+        Use the robot_status_change function to set Robot23's status to idle after the removal of the vehicle is complete.
+    current step:
+        Use the grab_or_remove_item function to have Robot23 remove the vehicle from location (11, 12).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the use of the 'grab_or_remove_item' function to have a specific robot, Robot23, remove the vehicle from a specific location. Since the Controller is responsible for controlling the robots with tools that include 'grab_or_remove_item', and the specific robot is already identified, the Controller is the correct worker to perform the current_step.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function to have Robot23 remove the vehicle from location (11, 12).', 'The vehicle at location (11, 12) has been removed by Robot23.')
+---
+replanner:
+    plan:
+        Set Robot23's status to idle after the removal of the vehicle is complete.
+    current step:
+        Set Robot23's status to idle after the removal of the vehicle is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: Since the request explicitly mentions Robot23, which implies that the robot is already known, the Controller is responsible for performing actions on specified robots. The task involves setting the robot's status to 'idle', which is one of the functionalities of the Controller's 'robot_status_change' tool. Therefore, the Controller should act next to change Robot23's status to idle after it has completed the removal of the vehicle.
+---
+Controller:
+   past steps: ("Set Robot23's status to idle after the removal of the vehicle is complete.", 'Robot23 has successfully grabbed/removed the vehicle and its status has been changed to idle.')
+---
+replanner:
+    response:
+        The vehicle at location (11, 12) has been successfully removed by Robot23.
+---
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Move to location (12, 1) and remove the construction materials.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">planner:
+    plan:
+        Use robot_selection_tool to determine the best suited robot with the appropriate tool property, such as a front loader, to move to location (12, 1) and remove the construction materials.
+        Move the selected robot to location (12, 1) using the move_robot function.
+        Remove the construction materials from the location using the grab_or_remove_item function.
+        Change the robot's status to idle using the robot_status_change function after the task is complete.
+    current step:
+       Use robot_selection_tool to determine the best suited robot with the appropriate tool property, such as a front loader, to move to location (12, 1) and remove the construction materials.
+---
+supervisor:
+   next agent: Robot_selector
+   reason: The request involves selecting the best suited robot with the appropriate tool property, which is a task for the Robot_selector using the robot_selection_tool, as no specific robot has been mentioned in the objective.
+---
+Robot_selector:
+   past steps: ('Use robot_selection_tool to determine the best suited robot with the appropriate tool property, such as a front loader, to move to location (12, 1) and remove the construction materials.', 'The best suited robot to move to location (12, 1) and remove the construction materials with a front loader is Robot29.')
+---
+replanner:
+    plan:
+        Move Robot29 to location (12, 1) using the move_robot function.
+        Remove the construction materials from location (12, 1) using the grab_or_remove_item function.
+        Change Robot29's status to idle using the robot_status_change function after the task is complete.
+    current step:
+        Move Robot29 to location (12, 1) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The user has requested a specific action that involves moving a robot (Robot29) to a new position (12, 1). The Controller is responsible for controlling the robots with the tool 'move_robot', which is used to move a selected robot to a given position. Since the robot's name and the desired position are provided, the Controller is the appropriate worker to carry out this task.
+---
+Controller:
+   past steps: ('Move Robot29 to location (12, 1) using the move_robot function.', 'Robot29 has been moved to the desired position (12, 1).')
+---
+replanner:
+    plan:
+        Remove the construction materials from location (12, 1) using the grab_or_remove_item function.
+        Change Robot29's status to idle using the robot_status_change function after the task is complete.
+    current step:
+        Remove the construction materials from location (12, 1) using the grab_or_remove_item function.
+---
+supervisor:
+   next agent: Robot_selector
+   reason: Since the user request specifies an action (remove construction materials) and a location ((12, 1)) but does not specify which robot to use, the Robot_selector should act next. The Robot_selector can use the robot_selection_tool to determine the best suited robot to perform the task of removing construction materials from the specified location.
+---
+Robot_selector:
+   past steps: ('Remove the construction materials from location (12, 1) using the grab_or_remove_item function.', 'Robot32 with a gripper tool has been selected to remove the construction materials from location (12, 1).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot29 to remove the construction materials from location (12, 1).
+        Change Robot29's status to idle using the robot_status_change function after the task is complete.
+    current step:
+        Use the grab_or_remove_item function with Robot29 to remove the construction materials from location (12, 1).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the use of the 'grab_or_remove_item' function with a particular robot, Robot29, to remove construction materials from a specific location. The Controller is responsible for this action because the 'grab_or_remove_item' is one of the tools under the Controller's responsibility.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function with Robot29 to remove the construction materials from location (12, 1).', 'Robot29 has successfully removed the construction materials from location (12, 1).')
+---
+replanner:
+    plan:
+        Change Robot29's status to idle using the robot_status_change function after the task is complete.
+    current step:
+        Change Robot29's status to idle using the robot_status_change function after the task is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots, which includes the capability to change a robot's status using the robot_status_change tool. The user request specifically asks to change Robot29's status to idle, which falls under the Controller's set of tools.
+---
+Controller:
+   past steps: ("Change Robot29's status to idle using the robot_status_change function after the task is complete.", 'The status of Robot29 has been changed to idle.')
+---
+replanner:
+    response:
+        The construction materials at location (12, 1) have been successfully removed and Robot29's status has been set to idle. The task is complete.
+---
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Move to location (8, 12) and remove the tree branches.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">planner:
+    plan:
+        Use robot_selection_tool(desired_robot_tool_property='saw', item_position=(8, 12)) to select the best suited robot equipped with a saw for removing tree branches.
+        Use move_robot(robot_name, desired_position=(8, 12)) to move the selected robot to the location of the tree branches.
+        Use grab_or_remove_item(robot_name, item_name='tree branches') to remove the tree branches from the location.
+        Use robot_status_change(robot_name, status='idle') to set the robot's status to idle after the tree branches are removed.
+    current step:
+       Use robot_selection_tool(desired_robot_tool_property='saw', item_position=(8, 12)) to select the best suited robot equipped with a saw for removing tree branches.
+---
+supervisor:
+   next agent: Robot_selector
+   reason: The Robot_selector is responsible for selecting the correct robot for the task. Since the objective specifies the need for a robot with a saw to remove tree branches and the position of the item, the robot_selection_tool should be used to determine the best suited robot for this task.
+---
+Robot_selector:
+   past steps: ("Use robot_selection_tool(desired_robot_tool_property='saw', item_position=(8, 12)) to select the best suited robot equipped with a saw for removing tree branches.", 'The best suited robot equipped with a saw for removing tree branches at position (8, 12) is Robot14.')
+---
+replanner:
+    plan:
+        Use move_robot(robot_name='Robot14', desired_position=(8, 12)) to move Robot14 to the location of the tree branches.
+        Use grab_or_remove_item(robot_name='Robot14', item_name='tree branches') to remove the tree branches from the location.
+        Use robot_status_change(robot_name='Robot14', status='idle') to set Robot14's status to idle after the tree branches are removed.
+    current step:
+        Use move_robot(robot_name='Robot14', desired_position=(8, 12)) to move Robot14 to the location of the tree branches.
+---
+supervisor:
+   next agent: Controller
+   reason: The user requested a specific action to move a robot, which falls under the responsibility of the Controller. The 'move_robot' tool is used to move a specified robot to a given position, and the user has provided both the robot name ('Robot14') and the desired position ((8, 12)). Therefore, the Controller is the correct worker to carry out this action.
+---
+Controller:
+   past steps: ("Use move_robot(robot_name='Robot14', desired_position=(8, 12)) to move Robot14 to the location of the tree branches.", 'Robot14 has been successfully moved to the location at coordinates (8, 12).')
+---
+replanner:
+    plan:
+        Use grab_or_remove_item(robot_name='Robot14', item_name='tree branches') to remove the tree branches from the location.
+        Use robot_status_change(robot_name='Robot14', status='idle') to set Robot14's status to idle after the tree branches are removed.
+    current step:
+        Use grab_or_remove_item(robot_name='Robot14', item_name='tree branches') to remove the tree branches from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user has specified a direct action involving a specific robot, Robot14, and an item, 'tree branches'. Since the Controller is responsible for controlling the robots and their interactions with items, and the action 'grab_or_remove_item' is one of the tools the Controller has, the Controller should perform the current step of removing the tree branches using Robot14.
+---
+Controller:
+   past steps: ("Use grab_or_remove_item(robot_name='Robot14', item_name='tree branches') to remove the tree branches from the location.", 'The tree branches have been successfully removed from the location by Robot14.')
+---
+replanner:
+    plan:
+        Use robot_status_change(robot_name='Robot14', status='idle') to set Robot14's status to idle after the tree branches are removed.
+    current step:
+        Use robot_status_change(robot_name='Robot14', status='idle') to set Robot14's status to idle after the tree branches are removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots with tools including 'robot_status_change'. Since the request involves setting Robot14's status to 'idle' after completing a task, the Controller is the appropriate worker to perform this current_step.
+---
+Controller:
+   past steps: ("Use robot_status_change(robot_name='Robot14', status='idle') to set Robot14's status to idle after the tree branches are removed.", 'Robot14 has successfully removed the tree branches and is now set to idle status.')
+---
+replanner:
+    response:
+        The tree branches at location (8, 12) have been successfully removed by Robot14 equipped with a saw. Robot14 is now set to idle status.
+---
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Move to location (3, 5) and remove the screws.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">planner:
+    plan:
+        Select a robot equipped with a screwdriver using robot_selection_tool('screwdriver', (3, 5)).
+        Move the selected robot to location (3, 5) using move_robot(robot_name, (3, 5)).
+        Remove the screws using grab_or_remove_item(robot_name, 'screws').
+        Set the robot status to idle using robot_status_change(robot_name, 'idle').
+    current step:
+       Select a robot equipped with a screwdriver using robot_selection_tool('screwdriver', (3, 5)).
+---
+supervisor:
+   next agent: Robot_selector
+   reason: The user request requires the selection of a robot that is equipped with a screwdriver and is needed at the position (3, 5). The Robot_selector is responsible for selecting the correct robot with the desired properties, in this case using the tool robot_selection_tool. Since the request is to find the appropriate robot with a specific tool property (screwdriver) and not to control an already selected robot, the Robot_selector is the suitable worker to act next.
+---
+Robot_selector:
+   past steps: ("Select a robot equipped with a screwdriver using robot_selection_tool('screwdriver', (3, 5)).", 'The best-suited robot to solve the task, equipped with a screwdriver and located at position (3, 5), is Robot45.')
+---
+replanner:
+    plan:
+        Move Robot45 to location (3, 5) using move_robot('Robot45', (3, 5)).
+        Remove the screws using grab_or_remove_item('Robot45', 'screws').
+        Set Robot45 status to idle using robot_status_change('Robot45', 'idle').
+    current step:
+        Move Robot45 to location (3, 5) using move_robot('Robot45', (3, 5)).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action to move a specific robot, Robot45, to a new location. Since the Controller is responsible for controlling robots and the move_robot tool is specifically designed to move a selected robot to a given position, the Controller is the appropriate worker to carry out this action.
+---
+Controller:
+   past steps: ("Move Robot45 to location (3, 5) using move_robot('Robot45', (3, 5)).", 'Robot45 has been successfully moved to the location (3, 5).')
+---
+replanner:
+    plan:
+        Remove the screws using grab_or_remove_item('Robot45', 'screws').
+        Set Robot45 status to idle using robot_status_change('Robot45', 'idle').
+    current step:
+        Remove the screws using grab_or_remove_item('Robot45', 'screws').
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action to remove screws using the tool 'grab_or_remove_item' and identifies the robot 'Robot45' to perform the action. The Controller is responsible for controlling the robots and using the tools 'move_robot', 'grab_or_remove_item', and 'robot_status_change'. Since the tool and robot are specified, the Controller is the appropriate worker to execute the current_step.
+---
+Controller:
+   past steps: ("Remove the screws using grab_or_remove_item('Robot45', 'screws').", 'The screws have been successfully grabbed/removed by Robot45.')
+---
+replanner:
+    plan:
+        Set Robot45 status to idle using robot_status_change('Robot45', 'idle').
+    current step:
+        Set Robot45 status to idle using robot_status_change('Robot45', 'idle').
+---
+supervisor:
+   next agent: Controller
+   reason: The user request is to set the status of a specific robot (Robot45) to idle. This task falls under the responsibilities of the Controller, who has the tool 'robot_status_change' to change the current status of the robot. Therefore, the Controller is the correct worker to perform the current_step of setting Robot45's status to idle.
+---
+Controller:
+   past steps: ("Set Robot45 status to idle using robot_status_change('Robot45', 'idle').", "Robot45's status has been successfully changed to idle.")
+---
+replanner:
+    response:
+        The screws at location (3, 5) have been successfully removed by Robot45, which is now set to idle status.
 ---
 </t>
         </is>

--- a/Results/Raw_output/output_Medium_react.xlsx
+++ b/Results/Raw_output/output_Medium_react.xlsx
@@ -431,65 +431,65 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Select a robot equipped with a gripper tool property using the robot_selection_tool with 'gripper' as the desired_robot_tool_property and (9, 5) as the item_position.
-        Move the selected robot to location (9, 5) using the move_robot function with the robot's name and the desired_position (9, 5).
-        Grab or remove the toolkit at location (9, 5) using the grab_or_remove_item function with the robot's name and 'toolkit' as the item_name.
-        Change the robot's status to 'idle' using the robot_status_change function with the robot's name and 'idle' as the status.
-    current step:
-       Select a robot equipped with a gripper tool property using the robot_selection_tool with 'gripper' as the desired_robot_tool_property and (9, 5) as the item_position.
+        Use the robot_selection_tool with the 'gripper' property and the item position (9, 5) to select the best suited robot for the task.
+        Move the selected robot to location (9, 5) using the move_robot tool.
+        Use the grab_or_remove_item tool to remove the toolkit at the robot's location.
+        Change the robot's status to idle using the robot_status_change tool.
+    current step:
+       Use the robot_selection_tool with the 'gripper' property and the item position (9, 5) to select the best suited robot for the task.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The Robot_selector is responsible for selecting the correct robot for a task when no specific robot is mentioned in the objective. Since the user request involves selecting a robot with a 'gripper' tool property and an item position is provided, the Robot_selector should use the robot_selection_tool to determine the best suited robot for the task.
+   reason: The user request specifies the need to use the 'robot_selection_tool' with a specific property ('gripper') and an item position (9, 5), which is a task that falls under the responsibilities of the Robot_selector. The Robot_selector has the necessary tools to select the best suited robot for the task based on the given criteria.
 ---
 Robot_selector:
-   past steps: ("Select a robot equipped with a gripper tool property using the robot_selection_tool with 'gripper' as the desired_robot_tool_property and (9, 5) as the item_position.", 'Robot42 is the best suited to solve the task with its gripper tool property, located at position (9, 5).')
----
-replanner:
-    plan:
-        Move Robot42 to location (9, 5) using the move_robot function with 'Robot42' as the robot name and the desired_position (9, 5).
-        Grab or remove the toolkit at location (9, 5) using the grab_or_remove_item function with 'Robot42' as the robot name and 'toolkit' as the item_name.
-        Change Robot42's status to 'idle' using the robot_status_change function with 'Robot42' as the robot name and 'idle' as the status.
-    current step:
-        Move Robot42 to location (9, 5) using the move_robot function with 'Robot42' as the robot name and the desired_position (9, 5).
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to move a specific robot, Robot42, to a certain location (9, 5). As the Controller is responsible for controlling the robots and has the 'move_robot' tool, which is required for this task, the Controller should act next to perform the current_step.
----
-Controller:
-   past steps: ("Move Robot42 to location (9, 5) using the move_robot function with 'Robot42' as the robot name and the desired_position (9, 5).", 'Robot42 has been successfully moved to the position (9, 5).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with 'Robot42' as the robot name and 'toolkit' as the item_name to remove the toolkit at location (9, 5).
-        Change Robot42's status to 'idle' using the robot_status_change function with 'Robot42' as the robot name and 'idle' as the status.
-    current step:
-        Use the grab_or_remove_item function with 'Robot42' as the robot name and 'toolkit' as the item_name to remove the toolkit at location (9, 5).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the use of 'grab_or_remove_item' function with 'Robot42' and 'toolkit' specified, which is a task directly under the Controller's responsibilities. The Controller has the tools necessary to execute this action.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with 'Robot42' as the robot name and 'toolkit' as the item_name to remove the toolkit at location (9, 5).", 'The toolkit at location (9, 5) has been successfully removed by Robot42.')
----
-replanner:
-    plan:
-        Change Robot42's status to 'idle' using the robot_status_change function with 'Robot42' as the robot name and 'idle' as the status.
-    current step:
-        Change Robot42's status to 'idle' using the robot_status_change function with 'Robot42' as the robot name and 'idle' as the status.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically asks for changing a robot's status to 'idle', which falls under the responsibilities of the Controller. The Controller has the required tool 'robot_status_change' to perform this action on Robot42.
----
-Controller:
-   past steps: ("Change Robot42's status to 'idle' using the robot_status_change function with 'Robot42' as the robot name and 'idle' as the status.", "Robot42's status has been changed to 'idle'.")
+   past steps: ("Use the robot_selection_tool with the 'gripper' property and the item position (9, 5) to select the best suited robot for the task.", "The best suited robot to solve the task with the 'gripper' tool property at the item position (9, 5) is Robot42.")
+---
+replanner:
+    plan:
+        Move Robot42 to location (9, 5) using the move_robot tool.
+        Use the grab_or_remove_item tool to remove the toolkit at Robot42's location.
+        Change Robot42's status to idle using the robot_status_change tool.
+    current step:
+        Move Robot42 to location (9, 5) using the move_robot tool.
+---
+supervisor:
+   next agent: Controller
+   reason: The user has specified a robot by name (Robot42) and provided a specific task (move to location (9, 5)) that falls within the Controller's responsibility and requires the use of the 'move_robot' tool.
+---
+Controller:
+   past steps: ('Move Robot42 to location (9, 5) using the move_robot tool.', 'Robot42 has been moved to the desired position (9, 5).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item tool to remove the toolkit at Robot42's location.
+        Change Robot42's status to idle using the robot_status_change tool.
+    current step:
+        Use the grab_or_remove_item tool to remove the toolkit at Robot42's location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifically mentions the use of the 'grab_or_remove_item' tool to remove the toolkit at a robot's location. The Controller is responsible for controlling the robots with a set of tools including 'grab_or_remove_item'. Therefore, the Controller is the correct worker to perform the current step of removing the toolkit.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item tool to remove the toolkit at Robot42's location.", "The toolkit at Robot42's location has been removed.")
+---
+replanner:
+    plan:
+        Change Robot42's status to idle using the robot_status_change tool.
+    current step:
+        Change Robot42's status to idle using the robot_status_change tool.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifically mentions the need to change a robot's status to idle using the robot_status_change tool, which is a tool controlled by the Controller. Therefore, the Controller is the appropriate worker to perform the current_step, as they are responsible for using this tool to adjust the robot's status.
+---
+Controller:
+   past steps: ("Change Robot42's status to idle using the robot_status_change tool.", "Robot42's status has been changed to idle.")
 ---
 replanner:
     response:
-        The toolkit at location (9, 5) has been successfully removed by Robot42, and Robot42's status has been changed to 'idle'. The task is complete.
+        The toolkit at location (9, 5) has been successfully removed by Robot42 equipped with a gripper. Robot42's status is now set to idle.
 ---
 </t>
         </is>
@@ -505,65 +505,65 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use robot_selection_tool with the tool property 'mop' or 'vacuum' to determine the best suited robot to clean the liquid spill at location (3, 8).
-        Move the selected robot to location (3, 8) using move_robot.
-        Remove the liquid spill by using grab_or_remove_item with the selected robot.
-        Change the robot's status to 'idle' using robot_status_change after the liquid spill is removed.
-    current step:
-       Use robot_selection_tool with the tool property 'mop' or 'vacuum' to determine the best suited robot to clean the liquid spill at location (3, 8).
+        Use the robot_selection_tool with the 'mop' or 'vacuum' tool property and the item position (3, 8) to select the most suitable robot for cleaning the liquid spill.
+        Use the move_robot function with the selected robot name and the position (3, 8) to move it to the location of the liquid spill.
+        Use the grab_or_remove_item function with the selected robot name and the item name 'liquid spill' to clean up the spill.
+        Use the robot_status_change function with the selected robot name and the status 'idle' to set the robot's status after the task is complete.
+    current step:
+       Use the robot_selection_tool with the 'mop' or 'vacuum' tool property and the item position (3, 8) to select the most suitable robot for cleaning the liquid spill.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request involves selecting the best suited robot to clean a liquid spill using specific tool properties ('mop' or 'vacuum'). The Robot_selector is responsible for determining the most appropriate robot when no specific robot is mentioned in the objective. The robot_selection_tool should be used for this purpose as it selects a robot based on the desired robot tool property and the item position, which in this case relates to the cleaning task at a specific location.
+   reason: The user request requires the selection of the most suitable robot for cleaning a liquid spill at a specific location (3, 8), and requires a robot with either a 'mop' or 'vacuum' tool property. This task falls under the responsibilities of the Robot_selector, who uses the robot_selection_tool to determine the best suited robot for the objective when no specific robot is named.
 ---
 Robot_selector:
-   past steps: ("Use robot_selection_tool with the tool property 'mop' or 'vacuum' to determine the best suited robot to clean the liquid spill at location (3, 8).", 'Robot6 is the best suited to clean the liquid spill at location (3, 8) using its mop tool property.')
----
-replanner:
-    plan:
-        Move Robot6 to location (3, 8) using move_robot.
-        Remove the liquid spill by using grab_or_remove_item with Robot6.
-        Change Robot6's status to 'idle' using robot_status_change after the liquid spill is removed.
-    current step:
-        Move Robot6 to location (3, 8) using move_robot.
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to move a specific robot, Robot6, to a specific location (3, 8). The Controller is responsible for controlling the robots with a set of tools, including the 'move_robot' tool which is specifically used to move a selected robot to a given position. Since the robot name and desired position are both provided, the Controller is the appropriate worker to carry out this action without the need for robot selection or further assistance from the misc_agent.
----
-Controller:
-   past steps: ('Move Robot6 to location (3, 8) using move_robot.', 'Robot6 has been moved to the desired position (3, 8).')
----
-replanner:
-    plan:
-        Remove the liquid spill by using grab_or_remove_item with Robot6.
-        Change Robot6's status to 'idle' using robot_status_change after the liquid spill is removed.
-    current step:
-        Remove the liquid spill by using grab_or_remove_item with Robot6.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action 'grab_or_remove_item' and the robot to use, 'Robot6'. Since the Controller is responsible for controlling the robots and executing actions such as 'grab_or_remove_item', it is the appropriate worker to perform the current_step.
----
-Controller:
-   past steps: ('Remove the liquid spill by using grab_or_remove_item with Robot6.', 'The liquid spill has been successfully handled by Robot6.')
----
-replanner:
-    plan:
-        Change Robot6's status to 'idle' using robot_status_change after the liquid spill is removed.
-    current step:
-        Change Robot6's status to 'idle' using robot_status_change after the liquid spill is removed.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to change Robot6's status to 'idle' after the completion of a task, such as removing a liquid spill. Since the specific task of changing the robot's status has been mentioned, the Controller is the correct worker to act next.
----
-Controller:
-   past steps: ("Change Robot6's status to 'idle' using robot_status_change after the liquid spill is removed.", "Robot6 has removed the liquid spill and its status is now set to 'idle'.")
+   past steps: ("Use the robot_selection_tool with the 'mop' or 'vacuum' tool property and the item position (3, 8) to select the most suitable robot for cleaning the liquid spill.", "The most suitable robot to clean the liquid spill at position (3, 8) with the 'mop' tool property is Robot6.")
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot6 and the position (3, 8) to move it to the location of the liquid spill.
+        Use the grab_or_remove_item function with Robot6 and the item name 'liquid spill' to clean up the spill.
+        Use the robot_status_change function with Robot6 and the status 'idle' to set the robot's status after the task is complete.
+    current step:
+        Use the move_robot function with Robot6 and the position (3, 8) to move it to the location of the liquid spill.
+---
+supervisor:
+   next agent: Controller
+   reason: The user has specified a clear action for a specific robot, Robot6, to move to a certain position (3, 8), which is related to the liquid spill location. The Controller is responsible for controlling robots and has the 'move_robot' function needed to perform this task. Therefore, the Controller should be the one to act next to execute the movement of Robot6 to the designated position.
+---
+Controller:
+   past steps: ('Use the move_robot function with Robot6 and the position (3, 8) to move it to the location of the liquid spill.', 'Robot6 is now at the location of the liquid spill.')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot6 and the item name 'liquid spill' to clean up the spill.
+        Use the robot_status_change function with Robot6 and the status 'idle' to set the robot's status after the task is complete.
+    current step:
+        Use the grab_or_remove_item function with Robot6 and the item name 'liquid spill' to clean up the spill.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifically mentions using the 'grab_or_remove_item' function with 'Robot6' to clean up a 'liquid spill'. The Controller is responsible for directly controlling the robots with a set of tools, which includes 'grab_or_remove_item'. Since the specific robot (Robot6) and the item ('liquid spill') are both identified, the Controller is the appropriate worker to carry out this action.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot6 and the item name 'liquid spill' to clean up the spill.", 'Robot6 has successfully handled the liquid spill.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot6 and the status 'idle' to set the robot's status after the task is complete.
+    current step:
+        Use the robot_status_change function with Robot6 and the status 'idle' to set the robot's status after the task is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the use of the 'robot_status_change' function to set Robot6's status to 'idle', which is a function within the Controller's set of tools. Therefore, the Controller is the appropriate worker to perform the current_step.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot6 and the status 'idle' to set the robot's status after the task is complete.", "Robot6's status has been successfully changed to idle.")
 ---
 replanner:
     response:
-        The liquid spill at location (3, 8) has been successfully cleaned by Robot6, and the robot's status is now set to 'idle'. No further actions are required.
+        The liquid spill at location (3, 8) has been successfully cleaned by Robot6, which is now set to idle status. The task is complete.
 ---
 </t>
         </is>
@@ -579,65 +579,65 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool to select the best suited robot based on the 'front loader' or 'gripper' tool property and proximity to location (1, 4).
+        Use the robot_selection_tool to select the best suited robot with a 'front loader' or 'gripper' tool property to remove large debris at location (1, 4).
         Move the selected robot to location (1, 4) using the move_robot function.
-        Use the grab_or_remove_item function to have the robot remove the large debris at location (1, 4).
-        Change the robot's status to idle using the robot_status_change function after the removal of the large debris is complete.
-    current step:
-       Use the robot_selection_tool to select the best suited robot based on the 'front loader' or 'gripper' tool property and proximity to location (1, 4).
+        Use the grab_or_remove_item function to have the robot remove the large debris at its current location.
+        Set the robot's status to 'idle' using the robot_status_change function after the removal of the large debris is complete.
+    current step:
+       Use the robot_selection_tool to select the best suited robot with a 'front loader' or 'gripper' tool property to remove large debris at location (1, 4).
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the need to select the best suited robot based on certain tool properties ('front loader' or 'gripper') and proximity to a location. The Robot_selector is responsible for selecting the correct robot using the robot_selection_tool, which is designed for determining the best suited robot based on tool properties and other criteria such as location. Therefore, the Robot_selector should use the robot_selection_tool to fulfill this request.
+   reason: The user request specifies the need to select the best suited robot with a certain tool property ('front loader' or 'gripper') to perform a task (remove large debris) at a specific location ((1, 4)). This task directly aligns with the responsibility of the Robot_selector, who uses the robot_selection_tool to determine the best suited robot for a given objective when no robot is specified.
 ---
 Robot_selector:
-   past steps: ("Use the robot_selection_tool to select the best suited robot based on the 'front loader' or 'gripper' tool property and proximity to location (1, 4).", "The best suited robots for the task based on the desired tool properties and proximity to location (1, 4) are:\n\n- Robot39 with the 'front loader' tool property.\n- Robot2 with the 'gripper' tool property.")
----
-replanner:
-    plan:
-        Move Robot39 or Robot2 to location (1, 4) using the move_robot function.
-        Use the grab_or_remove_item function to have the robot remove the large debris at location (1, 4).
-        Change the robot's status to idle using the robot_status_change function after the removal of the large debris is complete.
-    current step:
-        Move Robot39 or Robot2 to location (1, 4) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user has specified a clear action involving the movement of a robot to a specific location. Since the Controller is responsible for controlling the robots with tools that include the 'move_robot' function, it is the appropriate worker to carry out this task.
----
-Controller:
-   past steps: ('Move Robot39 or Robot2 to location (1, 4) using the move_robot function.', 'Robot39 has been moved to the desired position (1, 4).')
----
-replanner:
-    plan:
+   past steps: ("Use the robot_selection_tool to select the best suited robot with a 'front loader' or 'gripper' tool property to remove large debris at location (1, 4).", 'The best-suited robots for removing large debris at location (1, 4) are Robot39 with a front loader and Robot2 with a gripper.')
+---
+replanner:
+    plan:
+        Move Robot39 with a front loader to location (1, 4) using the move_robot function.
         Use the grab_or_remove_item function to have Robot39 remove the large debris at location (1, 4).
-        Change Robot39's status to idle using the robot_status_change function after the removal of the large debris is complete.
-    current step:
+        Set Robot39's status to 'idle' using the robot_status_change function after the removal of the large debris is complete.
+    current step:
+        Move Robot39 with a front loader to location (1, 4) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a particular robot (Robot39) equipped with a specific tool (front loader) and an action to be performed (move to location (1, 4)). Since the robot and its required equipment are already identified, the Controller is the appropriate worker to carry out the action using the move_robot function.
+---
+Controller:
+   past steps: ('Move Robot39 with a front loader to location (1, 4) using the move_robot function.', 'Robot39 has been moved to the desired position (1, 4).')
+---
+replanner:
+    plan:
         Use the grab_or_remove_item function to have Robot39 remove the large debris at location (1, 4).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically mentions using the 'grab_or_remove_item' function to have Robot39 remove the large debris at a given location. This function is within the set of tools controlled by the Controller. Since the specific robot (Robot39) and the action (remove the large debris) are already identified, there is no need for robot selection or miscellaneous actions at this point.
+        Set Robot39's status to 'idle' using the robot_status_change function after the removal of the large debris is complete.
+    current step:
+        Use the grab_or_remove_item function to have Robot39 remove the large debris at location (1, 4).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies an action to be performed by a specific robot, Robot39, and the action to be taken is to remove an item, which is a functionality of the Controller. Since the robot is already specified, there is no need for the Robot_selector to intervene, and the nature of the task is not a generic question, so the misc_agent is not required. The Controller should use the grab_or_remove_item function to have Robot39 remove the large debris at the specified location.
 ---
 Controller:
    past steps: ('Use the grab_or_remove_item function to have Robot39 remove the large debris at location (1, 4).', 'Robot39 has successfully grabbed or removed the large debris.')
 ---
 replanner:
     plan:
-        Change Robot39's status to idle using the robot_status_change function after the removal of the large debris is complete.
-    current step:
-        Change Robot39's status to idle using the robot_status_change function after the removal of the large debris is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving a specific robot (Robot39) and the use of the 'robot_status_change' function to change its status to idle after completing a task. The Controller is responsible for controlling the robots with tools that include 'robot_status_change', and since the specific robot and action are clearly identified, there is no need to select or identify a robot, which means the Robot_selector's role is not required at this step. The misc_agent is also not needed as the request doesn't involve answering generic questions.
----
-Controller:
-   past steps: ("Change Robot39's status to idle using the robot_status_change function after the removal of the large debris is complete.", "Robot39's status has been changed to idle.")
+        Set Robot39's status to 'idle' using the robot_status_change function after the removal of the large debris is complete.
+    current step:
+        Set Robot39's status to 'idle' using the robot_status_change function after the removal of the large debris is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The task involves using the 'robot_status_change' function to set Robot39's status to 'idle' after completing a specific task (removal of large debris). The Controller is responsible for controlling the robots and using the set of tools provided, one of which is 'robot_status_change'. Therefore, the Controller is the correct worker to act next to carry out this specific instruction.
+---
+Controller:
+   past steps: ("Set Robot39's status to 'idle' using the robot_status_change function after the removal of the large debris is complete.", "Robot39's status is now set to 'idle' after the completion of the large debris removal.")
 ---
 replanner:
     response:
-        The task has been successfully completed. Robot39 equipped with a front loader has moved to location (1, 4) and removed the large debris. The robot's status has been set to idle.
+        The large debris at location (1, 4) has been successfully removed by Robot39 equipped with a front loader. Robot39's status is now set to 'idle' after the completion of the task.
 ---
 </t>
         </is>
@@ -653,81 +653,65 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool to determine the best suited robot with a cleaning tool property to move to location (6, 5).
-        Move the selected robot to location (6, 5) using the move_robot function.
-        Grab or remove the dust at location (6, 5) using grab_or_remove_item function with the selected robot.
-        Set the robot's status to idle using robot_status_change function after the dust has been removed.
-    current step:
-       Use the robot_selection_tool to determine the best suited robot with a cleaning tool property to move to location (6, 5).
+        Use the robot_selector's robot_selection_tool with the desired_robot_tool_property as 'vacuum' to identify the best-suited robot for cleaning dust at position (6, 5).
+        Use the Controller's move_robot function to move the selected robot to location (6, 5).
+        Use the Controller's grab_or_remove_item function to have the robot remove the dust from location (6, 5).
+        Use the Controller's robot_status_change function to set the robot's status to 'idle' after the dust removal is complete.
+    current step:
+       Use the robot_selector's robot_selection_tool with the desired_robot_tool_property as 'vacuum' to identify the best-suited robot for cleaning dust at position (6, 5).
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The task requires selecting the best suited robot with a specific tool property, in this case a cleaning tool, to move to a specified location. The Robot_selector is responsible for this task using the robot_selection_tool, which is designed to select the best robot for the job when no specific robot is mentioned in the objective.
+   reason: The user request specifies the need to identify a robot with a 'vacuum' tool property to clean dust at a specific position. The Robot_selector is responsible for selecting the correct robot and has the 'robot_selection_tool' which is required for this task. Therefore, the Robot_selector should act next using the 'robot_selection_tool' with the desired property 'vacuum' to find the best-suited robot for the cleaning objective at position (6, 5).
 ---
 Robot_selector:
-   past steps: ('Use the robot_selection_tool to determine the best suited robot with a cleaning tool property to move to location (6, 5).', 'There is no robot available with a specific "cleaning" tool property to move to location (6, 5). However, I can select a robot based on more specific cleaning needs such as vacuuming dust, mopping liquid spills, or sweeping small debris. Please provide more details about the type of cleaning required for an accurate robot selection.')
----
-replanner:
-    plan:
-        Specify the cleaning requirement as removing dust with a vacuum to the robot_selection_tool.
-        Move the selected robot with vacuuming capabilities to location (6, 5) using the move_robot function.
-        Remove the dust at location (6, 5) using the grab_or_remove_item function with the selected robot.
-        Set the robot's status to idle using the robot_status_change function after the dust has been removed.
-    current step:
-        Specify the cleaning requirement as removing dust with a vacuum to the robot_selection_tool.
----
-supervisor:
-   next agent: Robot_selector
-   reason: The user request involves finding a robot equipped with the appropriate tool (a vacuum) for a specific task (removing dust). This falls under the responsibility of the Robot_selector, who will use the robot_selection_tool to determine the best suited robot for the objective.
----
-Robot_selector:
-   past steps: ('Specify the cleaning requirement as removing dust with a vacuum to the robot_selection_tool.', 'Robot40 is the best suited to solve the task of removing dust with a vacuum.')
----
-replanner:
-    plan:
-        Move Robot40 with vacuuming capabilities to location (6, 5) using the move_robot function.
-        Remove the dust at location (6, 5) using the grab_or_remove_item function with Robot40.
-        Set Robot40's status to idle using the robot_status_change function after the dust has been removed.
-    current step:
-        Move Robot40 with vacuuming capabilities to location (6, 5) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user has specified a particular robot ('Robot40') with a desired capability ('vacuuming capabilities') and a specific task ('move to location (6, 5)'). The Controller is responsible for controlling the robots with tools including the 'move_robot' function that is requested to be used. Since the robot has been specified and its task is to move to a certain location, the Controller is the appropriate worker to execute this task.
----
-Controller:
-   past steps: ('Move Robot40 with vacuuming capabilities to location (6, 5) using the move_robot function.', 'Robot40 with vacuuming capabilities has been moved to the location (6, 5).')
----
-replanner:
-    plan:
-        Remove the dust at location (6, 5) using the grab_or_remove_item function with Robot40.
-        Set Robot40's status to idle using the robot_status_change function after the dust has been removed.
-    current step:
-        Remove the dust at location (6, 5) using the grab_or_remove_item function with Robot40.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies an action (remove dust) and the location (6, 5) as well as the robot to be used (Robot40) and the function (grab_or_remove_item). Since all the information needed to perform the task is provided, including the specific robot and function to use, the Controller is the appropriate worker to execute the current_step using the provided tools.
----
-Controller:
-   past steps: ('Remove the dust at location (6, 5) using the grab_or_remove_item function with Robot40.', 'The dust at location (6, 5) has been removed by Robot40.')
----
-replanner:
-    plan:
-        Set Robot40's status to idle using the robot_status_change function.
-    current step:
-        Set Robot40's status to idle using the robot_status_change function.
----
-supervisor:
-   next agent: Controller
-   reason: Since the task is to set Robot40's status to idle using the robot_status_change function, the Controller is the appropriate worker for this job. The Controller is responsible for controlling robots and has access to the robot_status_change tool, which is needed to change the status of a robot.
----
-Controller:
-   past steps: ("Set Robot40's status to idle using the robot_status_change function.", "Robot40's status has been set to idle.")
+   past steps: ("Use the robot_selector's robot_selection_tool with the desired_robot_tool_property as 'vacuum' to identify the best-suited robot for cleaning dust at position (6, 5).", 'The best-suited robot to clean dust at position (6, 5) with the vacuum tool property is Robot50.')
+---
+replanner:
+    plan:
+        Move Robot50 to location (6, 5) using the Controller's move_robot function.
+        Use the Controller's grab_or_remove_item function to have Robot50 remove the dust from location (6, 5).
+        Set Robot50's status to 'idle' using the Controller's robot_status_change function after the dust removal is complete.
+    current step:
+        Move Robot50 to location (6, 5) using the Controller's move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving the movement of a robot to a specific position. The Controller is responsible for controlling the robots and has the 'move_robot' tool which is used to move the selected robot to a given position. Since the robot name 'Robot50' and the desired position (6, 5) are both provided, the Controller is the appropriate worker to carry out this action.
+---
+Controller:
+   past steps: ("Move Robot50 to location (6, 5) using the Controller's move_robot function.", 'Robot50 has been successfully moved to the location (6, 5).')
+---
+replanner:
+    plan:
+        Use the Controller's grab_or_remove_item function to have Robot50 remove the dust from location (6, 5).
+        Set Robot50's status to 'idle' using the Controller's robot_status_change function after the dust removal is complete.
+    current step:
+        Use the Controller's grab_or_remove_item function to have Robot50 remove the dust from location (6, 5).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a task for a particular robot, Robot50, to perform an action, which is to remove dust from a specific location (6, 5). Since the robot and the action are already specified, there is no need for the Robot_selector to be involved. The task involves using the grab_or_remove_item tool, which is within the Controller's capabilities. Therefore, the Controller is the appropriate worker to act next and perform the current_step using the grab_or_remove_item function.
+---
+Controller:
+   past steps: ("Use the Controller's grab_or_remove_item function to have Robot50 remove the dust from location (6, 5).", 'Robot50 has successfully removed the dust from location (6, 5).')
+---
+replanner:
+    plan:
+        Set Robot50's status to 'idle' using the Controller's robot_status_change function after the dust removal is complete.
+    current step:
+        Set Robot50's status to 'idle' using the Controller's robot_status_change function after the dust removal is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies an action (setting Robot50's status to 'idle') that falls under the responsibilities of the Controller, using the 'robot_status_change' function.
+---
+Controller:
+   past steps: ("Set Robot50's status to 'idle' using the Controller's robot_status_change function after the dust removal is complete.", "The status of Robot50 has been changed to 'idle'.")
 ---
 replanner:
     response:
-        The dust at location (6, 5) has been successfully removed by Robot40, which is now set to idle status.
+        The dust at location (6, 5) has been successfully removed and Robot50's status is set to 'idle'. The task is complete.
 ---
 </t>
         </is>
@@ -743,65 +727,65 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool with the 'lawnmower' tool property and the item_position (9, 5) to select the most suitable robot for grass removal.
-        Use the move_robot function with the robot selected in step 1 to move it to location (9, 5).
-        Use the grab_or_remove_item function with the robot from step 1 to remove the grass at location (9, 5).
-        Use the robot_status_change function with the robot from step 1 to set its status to 'idle' after the grass removal is complete.
-    current step:
-       Use the robot_selection_tool with the 'lawnmower' tool property and the item_position (9, 5) to select the most suitable robot for grass removal.
+        Use robot_selection_tool with the 'lawnmower' tool property and the position (9, 5) to select the best suited robot for the task.
+        Use move_robot with the selected robot's name and the position (9, 5) to move the robot to the desired location.
+        Use grab_or_remove_item with the selected robot's name and the item 'grass' to remove the grass from the location.
+        Use robot_status_change with the selected robot's name and set the status to 'idle' once the task is complete.
+    current step:
+       Use robot_selection_tool with the 'lawnmower' tool property and the position (9, 5) to select the best suited robot for the task.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the need to use the 'robot_selection_tool' with a specific tool property ('lawnmower') and a given item position (9, 5) to select the most suitable robot for the task of grass removal. The Robot_selector is the appropriate worker for this task as they are responsible for selecting the correct robot based on the required properties and position.
+   reason: The robot_selection_tool is a function of the Robot_selector, used to determine the best suited robot for a task when no specific robot is mentioned. In this case, the task requires selecting a robot with a 'lawnmower' tool property that can navigate to the position (9, 5). Therefore, the Robot_selector is the next appropriate worker to act.
 ---
 Robot_selector:
-   past steps: ("Use the robot_selection_tool with the 'lawnmower' tool property and the item_position (9, 5) to select the most suitable robot for grass removal.", 'The most suitable robot for grass removal at the position (9, 5) is Robot11, which is equipped with a lawnmower.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot11 to move it to location (9, 5).
-        Use the grab_or_remove_item function with Robot11 to remove the grass at location (9, 5).
-        Use the robot_status_change function with Robot11 to set its status to 'idle' after the grass removal is complete.
-    current step:
-        Use the move_robot function with Robot11 to move it to location (9, 5).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically mentions the use of the 'move_robot' function with 'Robot11' to move it to location (9, 5). The Controller is responsible for controlling the robots and has the tool 'move_robot' to perform this task. Since the robot name and desired position are provided, no robot selection is necessary, and the Controller is the correct worker to act next to execute the move operation.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot11 to move it to location (9, 5).', 'Robot11 has been successfully moved to the location (9, 5).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot11 to remove the grass at location (9, 5).
-        Use the robot_status_change function with Robot11 to set its status to 'idle' after the grass removal is complete.
-    current step:
-        Use the grab_or_remove_item function with Robot11 to remove the grass at location (9, 5).
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots' actions, including using tools like grab_or_remove_item. Since the user request specifically mentions the action of removing an item ('grass') at a certain location with a designated robot ('Robot11'), the Controller is the appropriate worker to carry out this task.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function with Robot11 to remove the grass at location (9, 5).', 'Robot11 has successfully removed the grass.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot11 to set its status to 'idle' after the grass removal is complete.
-    current step:
-        Use the robot_status_change function with Robot11 to set its status to 'idle' after the grass removal is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically mentions the use of the 'robot_status_change' function to set Robot11's status to 'idle' after completing a task. Since the Controller is responsible for controlling the robots and has access to the 'robot_status_change' tool, it is the appropriate worker to perform the current_step.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot11 to set its status to 'idle' after the grass removal is complete.", "Robot11's status has been successfully changed to idle after completing the grass removal task.")
+   past steps: ("Use robot_selection_tool with the 'lawnmower' tool property and the position (9, 5) to select the best suited robot for the task.", "Robot11 is the best suited robot to solve the task with the 'lawnmower' tool property at position (9, 5).")
+---
+replanner:
+    plan:
+        Use move_robot with Robot11's name and the position (9, 5) to move the robot to the desired location.
+        Use grab_or_remove_item with Robot11's name and the item 'grass' to remove the grass from the location.
+        Use robot_status_change with Robot11's name and set the status to 'idle' once the task is complete.
+    current step:
+        Use move_robot with Robot11's name and the position (9, 5) to move the robot to the desired location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving the movement of a robot to a particular position. The Controller is responsible for controlling the robots and has the 'move_robot' tool that is needed to move Robot11 to the desired position (9, 5). Therefore, the Controller is the appropriate worker to act next.
+---
+Controller:
+   past steps: ("Use move_robot with Robot11's name and the position (9, 5) to move the robot to the desired location.", 'Robot11 has been successfully moved to the position (9, 5).')
+---
+replanner:
+    plan:
+        Use grab_or_remove_item with Robot11's name and the item 'grass' to remove the grass from the location.
+        Use robot_status_change with Robot11's name and set the status to 'idle' once the task is complete.
+    current step:
+        Use grab_or_remove_item with Robot11's name and the item 'grass' to remove the grass from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user has specified a clear task that involves a robot interaction, more specifically using the 'grab_or_remove_item' tool to remove an item named 'grass' from a location. This tool is within the Controller's set of tools, hence the Controller is the appropriate worker to carry out this task.
+---
+Controller:
+   past steps: ("Use grab_or_remove_item with Robot11's name and the item 'grass' to remove the grass from the location.", 'Robot11 has successfully grabbed/removed the grass from the location.')
+---
+replanner:
+    plan:
+        Use robot_status_change with Robot11's name and set the status to 'idle' once the task is complete.
+    current step:
+        Use robot_status_change with Robot11's name and set the status to 'idle' once the task is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request is to use the tool 'robot_status_change' with a specific robot (Robot11) to set its status to 'idle' once the task is complete. The 'Controller' is responsible for controlling the robots with a set of tools, including the 'robot_status_change' tool. Therefore, the 'Controller' should perform the current_step, as it directly involves a control action on one of the robots.
+---
+Controller:
+   past steps: ("Use robot_status_change with Robot11's name and set the status to 'idle' once the task is complete.", "Robot11's status has been successfully changed to 'idle'.")
 ---
 replanner:
     response:
-        Robot11, equipped with a lawnmower, has successfully removed the grass at location (9, 5) and is now set to idle status.
+        Robot11 equipped with a lawnmower has successfully moved to position (9, 5) and removed the grass from the location. The robot's status is now set to 'idle'.
 ---
 </t>
         </is>
@@ -817,65 +801,65 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool to determine the best-suited robot with the tool property capable of removing small debris, such as a vacuum, broom, or front loader.
-        Move the selected robot to location (5, 12) using the move_robot tool.
-        Remove the small debris at location (5, 12) by using the grab_or_remove_item tool with the selected robot.
-        Change the robot's status to idle using the robot_status_change tool after the objective is complete.
-    current step:
-       Use the robot_selection_tool to determine the best-suited robot with the tool property capable of removing small debris, such as a vacuum, broom, or front loader.
+        Use the robot_selection_tool with the tool property 'vacuum' to determine the best suited robot to clean up the small debris at location (5, 12).
+        Move the selected robot to location (5, 12) using the move_robot function.
+        Remove the small debris at the location using the grab_or_remove_item function with the robot name and item name 'small debris'.
+        Change the robot's status to idle using the robot_status_change function once the task is complete.
+    current step:
+       Use the robot_selection_tool with the tool property 'vacuum' to determine the best suited robot to clean up the small debris at location (5, 12).
 ---
 supervisor:
    next agent: Robot_selector
-   reason: Since the user request specifies the need to determine the best-suited robot for a task (removing small debris) and no particular robot has been specified, the Robot_selector should be used. The 'robot_selection_tool' is designed to select the appropriate robot based on a desired tool property and the item position, which in this case relates to a tool that can handle small debris removal.
+   reason: The objective requires selecting a robot equipped with a 'vacuum' tool to clean up debris. The 'robot_selection_tool' from the Robot_selector is designed to determine the best suited robot based on the desired robot tool property, which in this case is 'vacuum', and the location of the item, which is at (5, 12).
 ---
 Robot_selector:
-   past steps: ('Use the robot_selection_tool to determine the best-suited robot with the tool property capable of removing small debris, such as a vacuum, broom, or front loader.', 'The best-suited robot for removing small debris using a vacuum is Robot40.')
----
-replanner:
-    plan:
-        Move Robot40 to location (5, 12) using the move_robot tool.
-        Remove the small debris at location (5, 12) by using the grab_or_remove_item tool with Robot40.
-        Change Robot40's status to idle using the robot_status_change tool after the small debris has been removed.
-    current step:
-        Move Robot40 to location (5, 12) using the move_robot tool.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action to move a particular robot, Robot40, to a specific location (5, 12). The Controller is responsible for controlling the robots with tools including 'move_robot'. Since the robot is specified and the desired action is directly related to controlling the robot's movement, the Controller is the correct worker to carry out this current_step.
----
-Controller:
-   past steps: ('Move Robot40 to location (5, 12) using the move_robot tool.', 'Robot40 has been successfully moved to the desired position (5, 12).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item tool with Robot40 to remove the small debris at location (5, 12).
-        Change Robot40's status to idle using the robot_status_change tool after the small debris has been removed.
-    current step:
-        Use the grab_or_remove_item tool with Robot40 to remove the small debris at location (5, 12).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a clear action involving a particular robot (Robot40) and a task (remove the small debris at location (5, 12)). The Controller is responsible for controlling the robots with tools like 'grab_or_remove_item', which is exactly the tool needed to perform the task. There is no need to select a robot as it has already been specified, and the task does not involve answering generic questions, so the misc_agent is not needed.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item tool with Robot40 to remove the small debris at location (5, 12).', 'Robot40 has successfully grabbed or removed the small debris.')
----
-replanner:
-    plan:
-        Change Robot40's status to idle using the robot_status_change tool after the small debris has been removed.
-    current step:
-        Change Robot40's status to idle using the robot_status_change tool after the small debris has been removed.
----
-supervisor:
-   next agent: Controller
-   reason: The user request involves using the 'robot_status_change' tool to change Robot40's status to idle after a task is completed. The 'robot_status_change' tool is within the Controller's set of tools, making the Controller the correct worker to perform this current_step.
----
-Controller:
-   past steps: ("Change Robot40's status to idle using the robot_status_change tool after the small debris has been removed.", 'Robot40 has removed the small debris and its status is now set to idle.')
+   past steps: ("Use the robot_selection_tool with the tool property 'vacuum' to determine the best suited robot to clean up the small debris at location (5, 12).", 'Robot50 is the best suited to clean up the small debris at location (5, 12) using its vacuum tool property.')
+---
+replanner:
+    plan:
+        Move Robot50 to location (5, 12) using the move_robot function.
+        Remove the small debris at location (5, 12) using the grab_or_remove_item function with the robot name 'Robot50' and item name 'small debris'.
+        Change Robot50's status to idle using the robot_status_change function once the task is complete.
+    current step:
+        Move Robot50 to location (5, 12) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifically identifies a robot (Robot50) and provides a clear action (move to location (5, 12)) which can be fulfilled by using the 'move_robot' function. Since the 'move_robot' function is a tool controlled by the Controller, the Controller is the appropriate worker to act next.
+---
+Controller:
+   past steps: ('Move Robot50 to location (5, 12) using the move_robot function.', 'Robot50 has been successfully moved to the position (5, 12).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with the robot name 'Robot50' and item name 'small debris' to remove the debris at location (5, 12).
+        Change Robot50's status to idle using the robot_status_change function once the task is complete.
+    current step:
+        Use the grab_or_remove_item function with the robot name 'Robot50' and item name 'small debris' to remove the debris at location (5, 12).
+---
+supervisor:
+   next agent: Controller
+   reason: The user has specifically requested the use of the 'grab_or_remove_item' function with a defined robot name 'Robot50' and an item name 'small debris'. The Controller is responsible for this function and can perform the action as instructed.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with the robot name 'Robot50' and item name 'small debris' to remove the debris at location (5, 12).", 'Robot50 has successfully moved to the position (5, 12) and has grabbed/removed the small debris.')
+---
+replanner:
+    plan:
+        Change Robot50's status to idle using the robot_status_change function.
+    current step:
+        Change Robot50's status to idle using the robot_status_change function.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots, which includes changing their status using the robot_status_change function. Since the user request is to change Robot50's status to idle, the Controller is the correct worker to perform this task.
+---
+Controller:
+   past steps: ("Change Robot50's status to idle using the robot_status_change function.", "Robot50's status has been changed to idle.")
 ---
 replanner:
     response:
-        The small debris at location (5, 12) has been successfully removed by Robot40, and its status has been set to idle. The task is now complete.
+        Robot50 has successfully removed the small debris at location (5, 12) and is now set to idle status.
 ---
 </t>
         </is>
@@ -891,65 +875,65 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool with the 'tow hook' tool property to determine the best-suited robot for removing a vehicle at location (11, 12).
-        Use the move_robot function to move the selected robot to location (11, 12).
-        Use the grab_or_remove_item function to remove the vehicle from location (11, 12).
-        Use the robot_status_change function to set the robot's status to idle after the removal of the vehicle is complete.
-    current step:
-       Use the robot_selection_tool with the 'tow hook' tool property to determine the best-suited robot for removing a vehicle at location (11, 12).
+        Use the robot_selection_tool with the 'tow hook' property to find the best suited robot for removing the vehicle at location (11, 12).
+        Move the selected robot to location (11, 12) using the move_robot function.
+        Remove the vehicle at the robot's location by using the grab_or_remove_item function with the robot's name and 'vehicle' as the item name.
+        Change the robot's status to 'idle' using the robot_status_change function once the task is complete.
+    current step:
+       Use the robot_selection_tool with the 'tow hook' property to find the best suited robot for removing the vehicle at location (11, 12).
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The request specifies the need to use the robot_selection_tool with the 'tow hook' tool property to determine the best-suited robot for a task. This falls under the responsibilities of the Robot_selector, who is equipped with the tools to select the correct robot based on the desired properties and the location of the item.
+   reason: The user request specifies the need to use the 'robot_selection_tool' with the 'tow hook' property to find the best suited robot for a task. Since the Robot_selector is responsible for selecting the correct robot and has access to the 'robot_selection_tool', it is the appropriate worker to act next to fulfill this request.
 ---
 Robot_selector:
-   past steps: ("Use the robot_selection_tool with the 'tow hook' tool property to determine the best-suited robot for removing a vehicle at location (11, 12).", 'The best-suited robot to remove a vehicle at location (11, 12) is Robot23, as it is equipped with a tow hook.')
----
-replanner:
-    plan:
-        Use the move_robot function to move Robot23 to location (11, 12).
-        Use the grab_or_remove_item function to remove the vehicle from location (11, 12) with Robot23.
-        Use the robot_status_change function to set Robot23's status to idle after the removal of the vehicle is complete.
-    current step:
-        Use the move_robot function to move Robot23 to location (11, 12).
----
-supervisor:
-   next agent: Controller
-   reason: The user has requested to move a specific robot, Robot23, to a new location. The Controller is responsible for controlling the robots and has the 'move_robot' tool that is needed to fulfill this request. Therefore, the Controller is the appropriate worker to act next to carry out the move_robot function.
----
-Controller:
-   past steps: ('Use the move_robot function to move Robot23 to location (11, 12).', 'Robot23 has been successfully moved to the location (11, 12).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function to have Robot23 remove the vehicle from location (11, 12).
-        Use the robot_status_change function to set Robot23's status to idle after the removal of the vehicle is complete.
-    current step:
-        Use the grab_or_remove_item function to have Robot23 remove the vehicle from location (11, 12).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the use of the 'grab_or_remove_item' function to have a specific robot, Robot23, remove the vehicle from a specific location. Since the Controller is responsible for controlling the robots with tools that include 'grab_or_remove_item', and the specific robot is already identified, the Controller is the correct worker to perform the current_step.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function to have Robot23 remove the vehicle from location (11, 12).', 'The vehicle at location (11, 12) has been removed by Robot23.')
----
-replanner:
-    plan:
-        Set Robot23's status to idle after the removal of the vehicle is complete.
-    current step:
-        Set Robot23's status to idle after the removal of the vehicle is complete.
----
-supervisor:
-   next agent: Controller
-   reason: Since the request explicitly mentions Robot23, which implies that the robot is already known, the Controller is responsible for performing actions on specified robots. The task involves setting the robot's status to 'idle', which is one of the functionalities of the Controller's 'robot_status_change' tool. Therefore, the Controller should act next to change Robot23's status to idle after it has completed the removal of the vehicle.
----
-Controller:
-   past steps: ("Set Robot23's status to idle after the removal of the vehicle is complete.", 'Robot23 has successfully grabbed/removed the vehicle and its status has been changed to idle.')
+   past steps: ("Use the robot_selection_tool with the 'tow hook' property to find the best suited robot for removing the vehicle at location (11, 12).", "The best suited robot to remove the vehicle at location (11, 12) with the 'tow hook' property is Robot23.")
+---
+replanner:
+    plan:
+        Move Robot23 to location (11, 12) using the move_robot function.
+        Remove the vehicle at Robot23's location by using the grab_or_remove_item function with Robot23's name and 'vehicle' as the item name.
+        Change Robot23's status to 'idle' using the robot_status_change function once the task is complete.
+    current step:
+        Move Robot23 to location (11, 12) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a robot by name (Robot23) and a desired action (move_robot to location (11, 12)). Since the Controller is responsible for controlling the robots with the set of specified tools, and 'move_robot' is one of those tools, the Controller should act next to fulfill the moving task.
+---
+Controller:
+   past steps: ('Move Robot23 to location (11, 12) using the move_robot function.', 'Robot23 has been successfully moved to the location (11, 12).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot23's name and 'vehicle' as the item name to remove the vehicle at Robot23's location.
+        Change Robot23's status to 'idle' using the robot_status_change function once the task is complete.
+    current step:
+        Use the grab_or_remove_item function with Robot23's name and 'vehicle' as the item name to remove the vehicle at Robot23's location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user has specified a direct action involving a specific robot (Robot23) and a specific task (grab_or_remove_item with 'vehicle' as the item name). Since the Controller is responsible for directly controlling the robots and their actions, and the grab_or_remove_item function falls under the Controller's set of tools, the Controller should be the one to execute this action.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot23's name and 'vehicle' as the item name to remove the vehicle at Robot23's location.", 'Robot23 has successfully grabbed or removed the vehicle.')
+---
+replanner:
+    plan:
+        Change Robot23's status to 'idle' using the robot_status_change function once the task is complete.
+    current step:
+        Change Robot23's status to 'idle' using the robot_status_change function once the task is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots, which includes using the robot_status_change function to adjust a robot's status. Since the task involves changing Robot23's status to 'idle' once the task is complete, the Controller is the appropriate worker to perform this action.
+---
+Controller:
+   past steps: ("Change Robot23's status to 'idle' using the robot_status_change function once the task is complete.", "The status of Robot23 has been changed to 'idle'.")
 ---
 replanner:
     response:
-        The vehicle at location (11, 12) has been successfully removed by Robot23.
+        All steps of the plan have been successfully executed. Robot23, equipped with a tow hook, has moved to location (11, 12) and removed the vehicle. Robot23's status has been set to 'idle'. The task is complete.
 ---
 </t>
         </is>
@@ -965,79 +949,65 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use robot_selection_tool to determine the best suited robot with the appropriate tool property, such as a front loader, to move to location (12, 1) and remove the construction materials.
+        Use the robot_selection_tool to determine the best suited robot to move to location (12, 1) and remove construction materials. Specify 'gripper' or 'front loader' as the desired robot tool property since these are suitable for handling construction materials.
         Move the selected robot to location (12, 1) using the move_robot function.
-        Remove the construction materials from the location using the grab_or_remove_item function.
-        Change the robot's status to idle using the robot_status_change function after the task is complete.
-    current step:
-       Use robot_selection_tool to determine the best suited robot with the appropriate tool property, such as a front loader, to move to location (12, 1) and remove the construction materials.
+        Use the grab_or_remove_item function to have the robot remove the construction materials from location (12, 1).
+        Set the robot's status to idle using the robot_status_change function once the task is complete.
+    current step:
+       Use the robot_selection_tool to determine the best suited robot to move to location (12, 1) and remove construction materials. Specify 'gripper' or 'front loader' as the desired robot tool property since these are suitable for handling construction materials.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The request involves selecting the best suited robot with the appropriate tool property, which is a task for the Robot_selector using the robot_selection_tool, as no specific robot has been mentioned in the objective.
+   reason: The user request specifies the need for a robot with a particular tool property ('gripper' or 'front loader') to handle a task involving construction materials at a specific location. Since no particular robot has been specified and we need to select the best-suited robot for the task, the Robot_selector should be used. The robot_selection_tool is the appropriate tool for this task, as it can determine the best suited robot based on the desired robot tool property and the item's position.
 ---
 Robot_selector:
-   past steps: ('Use robot_selection_tool to determine the best suited robot with the appropriate tool property, such as a front loader, to move to location (12, 1) and remove the construction materials.', 'The best suited robot to move to location (12, 1) and remove the construction materials with a front loader is Robot29.')
----
-replanner:
-    plan:
-        Move Robot29 to location (12, 1) using the move_robot function.
-        Remove the construction materials from location (12, 1) using the grab_or_remove_item function.
-        Change Robot29's status to idle using the robot_status_change function after the task is complete.
-    current step:
-        Move Robot29 to location (12, 1) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user has requested a specific action that involves moving a robot (Robot29) to a new position (12, 1). The Controller is responsible for controlling the robots with the tool 'move_robot', which is used to move a selected robot to a given position. Since the robot's name and the desired position are provided, the Controller is the appropriate worker to carry out this task.
----
-Controller:
-   past steps: ('Move Robot29 to location (12, 1) using the move_robot function.', 'Robot29 has been moved to the desired position (12, 1).')
----
-replanner:
-    plan:
-        Remove the construction materials from location (12, 1) using the grab_or_remove_item function.
-        Change Robot29's status to idle using the robot_status_change function after the task is complete.
-    current step:
-        Remove the construction materials from location (12, 1) using the grab_or_remove_item function.
----
-supervisor:
-   next agent: Robot_selector
-   reason: Since the user request specifies an action (remove construction materials) and a location ((12, 1)) but does not specify which robot to use, the Robot_selector should act next. The Robot_selector can use the robot_selection_tool to determine the best suited robot to perform the task of removing construction materials from the specified location.
----
-Robot_selector:
-   past steps: ('Remove the construction materials from location (12, 1) using the grab_or_remove_item function.', 'Robot32 with a gripper tool has been selected to remove the construction materials from location (12, 1).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot29 to remove the construction materials from location (12, 1).
-        Change Robot29's status to idle using the robot_status_change function after the task is complete.
-    current step:
-        Use the grab_or_remove_item function with Robot29 to remove the construction materials from location (12, 1).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the use of the 'grab_or_remove_item' function with a particular robot, Robot29, to remove construction materials from a specific location. The Controller is responsible for this action because the 'grab_or_remove_item' is one of the tools under the Controller's responsibility.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function with Robot29 to remove the construction materials from location (12, 1).', 'Robot29 has successfully removed the construction materials from location (12, 1).')
----
-replanner:
-    plan:
-        Change Robot29's status to idle using the robot_status_change function after the task is complete.
-    current step:
-        Change Robot29's status to idle using the robot_status_change function after the task is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots, which includes the capability to change a robot's status using the robot_status_change tool. The user request specifically asks to change Robot29's status to idle, which falls under the Controller's set of tools.
----
-Controller:
-   past steps: ("Change Robot29's status to idle using the robot_status_change function after the task is complete.", 'The status of Robot29 has been changed to idle.')
+   past steps: ("Use the robot_selection_tool to determine the best suited robot to move to location (12, 1) and remove construction materials. Specify 'gripper' or 'front loader' as the desired robot tool property since these are suitable for handling construction materials.", 'The best-suited robot to move to location (12, 1) and remove construction materials is Robot32, which is equipped with a gripper.')
+---
+replanner:
+    plan:
+        Move Robot32 to location (12, 1) using the move_robot function.
+        Use the grab_or_remove_item function to have Robot32 remove the construction materials from location (12, 1).
+        Set Robot32's status to idle using the robot_status_change function once the task is complete.
+    current step:
+        Move Robot32 to location (12, 1) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request is to move a specific robot (Robot32) to a specified location (12, 1), which falls under the responsibility of the Controller. The Controller has the 'move_robot' function that is designed to move a selected robot to a given position.
+---
+Controller:
+   past steps: ('Move Robot32 to location (12, 1) using the move_robot function.', 'Robot32 has been successfully moved to the location (12, 1).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function to have Robot32 remove the construction materials from location (12, 1).
+        Set Robot32's status to idle using the robot_status_change function once the task is complete.
+    current step:
+        Use the grab_or_remove_item function to have Robot32 remove the construction materials from location (12, 1).
+---
+supervisor:
+   next agent: Controller
+   reason: The user has specified an action that directly involves controlling a robot (Robot32) to perform a task (remove construction materials). The Controller is responsible for such actions and has the necessary tool (grab_or_remove_item) to execute this task.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function to have Robot32 remove the construction materials from location (12, 1).', 'Robot32 has successfully removed the construction materials from the location (12, 1).')
+---
+replanner:
+    plan:
+        Set Robot32's status to idle using the robot_status_change function once the task is complete.
+    current step:
+        Set Robot32's status to idle using the robot_status_change function once the task is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The task specified requires the use of the `robot_status_change` function to set Robot32's status to idle after its task is complete. The Controller is responsible for controlling the robots and has the `robot_status_change` tool, making it the appropriate worker to carry out this function.
+---
+Controller:
+   past steps: ("Set Robot32's status to idle using the robot_status_change function once the task is complete.", 'The status of Robot32 has been set to idle.')
 ---
 replanner:
     response:
-        The construction materials at location (12, 1) have been successfully removed and Robot29's status has been set to idle. The task is complete.
+        The task has been completed. Robot32 with a gripper has successfully moved to location (12, 1) and removed the construction materials. The robot's status is now set to idle.
 ---
 </t>
         </is>
@@ -1053,65 +1023,65 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use robot_selection_tool(desired_robot_tool_property='saw', item_position=(8, 12)) to select the best suited robot equipped with a saw for removing tree branches.
-        Use move_robot(robot_name, desired_position=(8, 12)) to move the selected robot to the location of the tree branches.
-        Use grab_or_remove_item(robot_name, item_name='tree branches') to remove the tree branches from the location.
-        Use robot_status_change(robot_name, status='idle') to set the robot's status to idle after the tree branches are removed.
-    current step:
-       Use robot_selection_tool(desired_robot_tool_property='saw', item_position=(8, 12)) to select the best suited robot equipped with a saw for removing tree branches.
+        Select the robot with the appropriate tool property for the task using the robot_selection_tool(desired_robot_tool_property, item_position). In this case, 'saw' is a suitable tool property for removing tree branches and the item position is (8, 12).
+        Move the selected robot to the designated location using move_robot(robot_name, desired_position), where the desired_position is (8, 12).
+        Remove the tree branches using grab_or_remove_item(robot_name, item_name), where the item_name is 'tree branches'.
+        Change the robot's status to 'idle' after the completion of the task using robot_status_change(robot_name, status), where the status is 'idle'.
+    current step:
+       Select the robot with the appropriate tool property for the task using the robot_selection_tool(desired_robot_tool_property, item_position). In this case, 'saw' is a suitable tool property for removing tree branches and the item position is (8, 12).
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The Robot_selector is responsible for selecting the correct robot for the task. Since the objective specifies the need for a robot with a saw to remove tree branches and the position of the item, the robot_selection_tool should be used to determine the best suited robot for this task.
+   reason: The Robot_selector should act next because the user request involves selecting the appropriate robot for a task, which requires the use of the robot_selection_tool to determine the best suited robot based on the desired tool property ('saw') and the item position ((8, 12)).
 ---
 Robot_selector:
-   past steps: ("Use robot_selection_tool(desired_robot_tool_property='saw', item_position=(8, 12)) to select the best suited robot equipped with a saw for removing tree branches.", 'The best suited robot equipped with a saw for removing tree branches at position (8, 12) is Robot14.')
----
-replanner:
-    plan:
-        Use move_robot(robot_name='Robot14', desired_position=(8, 12)) to move Robot14 to the location of the tree branches.
-        Use grab_or_remove_item(robot_name='Robot14', item_name='tree branches') to remove the tree branches from the location.
-        Use robot_status_change(robot_name='Robot14', status='idle') to set Robot14's status to idle after the tree branches are removed.
-    current step:
-        Use move_robot(robot_name='Robot14', desired_position=(8, 12)) to move Robot14 to the location of the tree branches.
----
-supervisor:
-   next agent: Controller
-   reason: The user requested a specific action to move a robot, which falls under the responsibility of the Controller. The 'move_robot' tool is used to move a specified robot to a given position, and the user has provided both the robot name ('Robot14') and the desired position ((8, 12)). Therefore, the Controller is the correct worker to carry out this action.
----
-Controller:
-   past steps: ("Use move_robot(robot_name='Robot14', desired_position=(8, 12)) to move Robot14 to the location of the tree branches.", 'Robot14 has been successfully moved to the location at coordinates (8, 12).')
----
-replanner:
-    plan:
-        Use grab_or_remove_item(robot_name='Robot14', item_name='tree branches') to remove the tree branches from the location.
-        Use robot_status_change(robot_name='Robot14', status='idle') to set Robot14's status to idle after the tree branches are removed.
-    current step:
-        Use grab_or_remove_item(robot_name='Robot14', item_name='tree branches') to remove the tree branches from the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user has specified a direct action involving a specific robot, Robot14, and an item, 'tree branches'. Since the Controller is responsible for controlling the robots and their interactions with items, and the action 'grab_or_remove_item' is one of the tools the Controller has, the Controller should perform the current step of removing the tree branches using Robot14.
----
-Controller:
-   past steps: ("Use grab_or_remove_item(robot_name='Robot14', item_name='tree branches') to remove the tree branches from the location.", 'The tree branches have been successfully removed from the location by Robot14.')
----
-replanner:
-    plan:
-        Use robot_status_change(robot_name='Robot14', status='idle') to set Robot14's status to idle after the tree branches are removed.
-    current step:
-        Use robot_status_change(robot_name='Robot14', status='idle') to set Robot14's status to idle after the tree branches are removed.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots with tools including 'robot_status_change'. Since the request involves setting Robot14's status to 'idle' after completing a task, the Controller is the appropriate worker to perform this current_step.
----
-Controller:
-   past steps: ("Use robot_status_change(robot_name='Robot14', status='idle') to set Robot14's status to idle after the tree branches are removed.", 'Robot14 has successfully removed the tree branches and is now set to idle status.')
+   past steps: ("Select the robot with the appropriate tool property for the task using the robot_selection_tool(desired_robot_tool_property, item_position). In this case, 'saw' is a suitable tool property for removing tree branches and the item position is (8, 12).", 'The best suited robot to remove tree branches at position (8, 12) with a saw is Robot14.')
+---
+replanner:
+    plan:
+        Move Robot14 to the designated location using move_robot(robot_name, desired_position), where the desired_position is (8, 12).
+        Remove the tree branches using grab_or_remove_item(robot_name, item_name), where the robot_name is 'Robot14' and the item_name is 'tree branches'.
+        Change Robot14's status to 'idle' after the completion of the task using robot_status_change(robot_name, status), where the robot_name is 'Robot14' and the status is 'idle'.
+    current step:
+        Move Robot14 to the designated location using move_robot(robot_name, desired_position), where the desired_position is (8, 12).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request is to move a specific robot, Robot14, to a designated location with coordinates (8, 12). The Controller is responsible for controlling the robots with tools including move_robot. Since the specific robot is mentioned and the action to be performed is within the Controller's domain, the Controller is the correct worker to act next.
+---
+Controller:
+   past steps: ('Move Robot14 to the designated location using move_robot(robot_name, desired_position), where the desired_position is (8, 12).', 'Robot14 has been successfully moved to the designated position at coordinates (8, 12).')
+---
+replanner:
+    plan:
+        Remove the tree branches using grab_or_remove_item(robot_name, item_name), where the robot_name is 'Robot14' and the item_name is 'tree branches'.
+        Change Robot14's status to 'idle' after the completion of the task using robot_status_change(robot_name, status), where the robot_name is 'Robot14' and the status is 'idle'.
+    current step:
+        Remove the tree branches using grab_or_remove_item(robot_name, item_name), where the robot_name is 'Robot14' and the item_name is 'tree branches'.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots with a set of tools, and one of those tools is grab_or_remove_item. Since the user request specifies the exact robot name 'Robot14' and the item to be removed 'tree branches', the Controller is the appropriate worker to perform the current_step using the grab_or_remove_item tool.
+---
+Controller:
+   past steps: ("Remove the tree branches using grab_or_remove_item(robot_name, item_name), where the robot_name is 'Robot14' and the item_name is 'tree branches'.", 'Robot14 has successfully grabbed or removed the tree branches.')
+---
+replanner:
+    plan:
+        Change Robot14's status to 'idle' after the completion of the task using robot_status_change(robot_name, status), where the robot_name is 'Robot14' and the status is 'idle'.
+    current step:
+        Change Robot14's status to 'idle' after the completion of the task using robot_status_change(robot_name, status), where the robot_name is 'Robot14' and the status is 'idle'.
+---
+supervisor:
+   next agent: Controller
+   reason: The task specifies the use of the 'robot_status_change' tool to change the status of a specified robot, which is 'Robot14', to 'idle'. This tool is within the Controller's set of tools, and the robot name and the desired status are both provided, making the Controller the appropriate worker to perform the current_step.
+---
+Controller:
+   past steps: ("Change Robot14's status to 'idle' after the completion of the task using robot_status_change(robot_name, status), where the robot_name is 'Robot14' and the status is 'idle'.", "Robot14's status has been changed to 'idle'.")
 ---
 replanner:
     response:
-        The tree branches at location (8, 12) have been successfully removed by Robot14 equipped with a saw. Robot14 is now set to idle status.
+        The tree branches at location (8, 12) have been successfully removed by Robot14, which is now set to 'idle' status. The task is complete.
 ---
 </t>
         </is>
@@ -1127,65 +1097,65 @@
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Select a robot equipped with a screwdriver using robot_selection_tool('screwdriver', (3, 5)).
-        Move the selected robot to location (3, 5) using move_robot(robot_name, (3, 5)).
-        Remove the screws using grab_or_remove_item(robot_name, 'screws').
-        Set the robot status to idle using robot_status_change(robot_name, 'idle').
-    current step:
-       Select a robot equipped with a screwdriver using robot_selection_tool('screwdriver', (3, 5)).
+        Use the 'robot_selection_tool' to determine the best suited robot equipped with a 'screwdriver' to go to location (3, 5).
+        Use the 'move_robot' function to move the selected robot to location (3, 5).
+        Use the 'grab_or_remove_item' function to remove the screws at location (3, 5).
+        Use the 'robot_status_change' function to set the robot's status to 'idle' after the screws have been removed.
+    current step:
+       Use the 'robot_selection_tool' to determine the best suited robot equipped with a 'screwdriver' to go to location (3, 5).
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request requires the selection of a robot that is equipped with a screwdriver and is needed at the position (3, 5). The Robot_selector is responsible for selecting the correct robot with the desired properties, in this case using the tool robot_selection_tool. Since the request is to find the appropriate robot with a specific tool property (screwdriver) and not to control an already selected robot, the Robot_selector is the suitable worker to act next.
+   reason: The 'robot_selection_tool' mentioned in the user request is a tool available to the Robot_selector. The objective is to determine the best suited robot equipped with a 'screwdriver' to go to a specific location, which is the task that the Robot_selector is responsible for using the robot_selection_tool.
 ---
 Robot_selector:
-   past steps: ("Select a robot equipped with a screwdriver using robot_selection_tool('screwdriver', (3, 5)).", 'The best-suited robot to solve the task, equipped with a screwdriver and located at position (3, 5), is Robot45.')
----
-replanner:
-    plan:
-        Move Robot45 to location (3, 5) using move_robot('Robot45', (3, 5)).
-        Remove the screws using grab_or_remove_item('Robot45', 'screws').
-        Set Robot45 status to idle using robot_status_change('Robot45', 'idle').
-    current step:
-        Move Robot45 to location (3, 5) using move_robot('Robot45', (3, 5)).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action to move a specific robot, Robot45, to a new location. Since the Controller is responsible for controlling robots and the move_robot tool is specifically designed to move a selected robot to a given position, the Controller is the appropriate worker to carry out this action.
----
-Controller:
-   past steps: ("Move Robot45 to location (3, 5) using move_robot('Robot45', (3, 5)).", 'Robot45 has been successfully moved to the location (3, 5).')
----
-replanner:
-    plan:
-        Remove the screws using grab_or_remove_item('Robot45', 'screws').
-        Set Robot45 status to idle using robot_status_change('Robot45', 'idle').
-    current step:
-        Remove the screws using grab_or_remove_item('Robot45', 'screws').
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action to remove screws using the tool 'grab_or_remove_item' and identifies the robot 'Robot45' to perform the action. The Controller is responsible for controlling the robots and using the tools 'move_robot', 'grab_or_remove_item', and 'robot_status_change'. Since the tool and robot are specified, the Controller is the appropriate worker to execute the current_step.
----
-Controller:
-   past steps: ("Remove the screws using grab_or_remove_item('Robot45', 'screws').", 'The screws have been successfully grabbed/removed by Robot45.')
----
-replanner:
-    plan:
-        Set Robot45 status to idle using robot_status_change('Robot45', 'idle').
-    current step:
-        Set Robot45 status to idle using robot_status_change('Robot45', 'idle').
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to set the status of a specific robot (Robot45) to idle. This task falls under the responsibilities of the Controller, who has the tool 'robot_status_change' to change the current status of the robot. Therefore, the Controller is the correct worker to perform the current_step of setting Robot45's status to idle.
----
-Controller:
-   past steps: ("Set Robot45 status to idle using robot_status_change('Robot45', 'idle').", "Robot45's status has been successfully changed to idle.")
+   past steps: ("Use the 'robot_selection_tool' to determine the best suited robot equipped with a 'screwdriver' to go to location (3, 5).", "The best suited robot equipped with a 'screwdriver' to go to location (3, 5) is Robot45.")
+---
+replanner:
+    plan:
+        Use the 'move_robot' function to move Robot45 to location (3, 5).
+        Use the 'grab_or_remove_item' function to remove the screws at location (3, 5).
+        Use the 'robot_status_change' function to set Robot45's status to 'idle' after the screws have been removed.
+    current step:
+        Use the 'move_robot' function to move Robot45 to location (3, 5).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifically asks for the use of the 'move_robot' function to move Robot45 to a designated location. The 'move_robot' function is a tool that is within the Controller's set of tools, thus making the Controller the appropriate worker to perform the current_step.
+---
+Controller:
+   past steps: ("Use the 'move_robot' function to move Robot45 to location (3, 5).", 'Robot45 has been successfully moved to the location (3, 5).')
+---
+replanner:
+    plan:
+        Use the 'grab_or_remove_item' function to remove the screws at location (3, 5) with Robot45.
+        Use the 'robot_status_change' function to set Robot45's status to 'idle' after the screws have been removed.
+    current step:
+        Use the 'grab_or_remove_item' function to remove the screws at location (3, 5) with Robot45.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action to be performed ('grab_or_remove_item') and the robot to perform it (Robot45). The Controller is responsible for controlling the robots and using the tools provided, which includes the 'grab_or_remove_item' function. Therefore, the Controller should act next to execute the specified function with Robot45 to remove the screws at the given location.
+---
+Controller:
+   past steps: ("Use the 'grab_or_remove_item' function to remove the screws at location (3, 5) with Robot45.", 'Robot45 has successfully grabbed or removed the screws.')
+---
+replanner:
+    plan:
+        Use the 'robot_status_change' function to set Robot45's status to 'idle' after the screws have been removed.
+    current step:
+        Use the 'robot_status_change' function to set Robot45's status to 'idle' after the screws have been removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The 'robot_status_change' function is one of the tools that the Controller is responsible for. The user request specifically asks to use this function to set Robot45's status to 'idle', which is within the domain of the Controller's responsibilities.
+---
+Controller:
+   past steps: ("Use the 'robot_status_change' function to set Robot45's status to 'idle' after the screws have been removed.", "Robot45's status has been successfully changed to 'idle'.")
 ---
 replanner:
     response:
-        The screws at location (3, 5) have been successfully removed by Robot45, which is now set to idle status.
+        The screws at location (3, 5) have been successfully removed by Robot45, and the robot's status is now set to 'idle'. The task is complete.
 ---
 </t>
         </is>

--- a/Results/Raw_output/output_Medium_react.xlsx
+++ b/Results/Raw_output/output_Medium_react.xlsx
@@ -424,72 +424,72 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Move to location (9, 5) and remove the toolkit.</t>
+          <t>Move to location (11, 8) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool with the 'gripper' property and the item position (9, 5) to select the best suited robot for the task.
-        Move the selected robot to location (9, 5) using the move_robot tool.
-        Use the grab_or_remove_item tool to remove the toolkit at the robot's location.
-        Change the robot's status to idle using the robot_status_change tool.
-    current step:
-       Use the robot_selection_tool with the 'gripper' property and the item position (9, 5) to select the best suited robot for the task.
+        Use the robot_selection_tool with the 'gripper' tool property and the item position (11, 8) to select the best suited robot for the task.
+        Move the selected robot to location (11, 8) using the move_robot function.
+        Grab or remove the toolkit at location (11, 8) using the grab_or_remove_item function.
+        Change the robot's status to 'idle' using the robot_status_change function after the toolkit has been removed.
+    current step:
+       Use the robot_selection_tool with the 'gripper' tool property and the item position (11, 8) to select the best suited robot for the task.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the need to use the 'robot_selection_tool' with a specific property ('gripper') and an item position (9, 5), which is a task that falls under the responsibilities of the Robot_selector. The Robot_selector has the necessary tools to select the best suited robot for the task based on the given criteria.
+   reason: The user request specifies the need to use the robot_selection_tool with a particular tool property ('gripper') and an item position (11, 8). The Robot_selector is responsible for selecting the correct robot using the robot_selection_tool, which makes it the appropriate worker to act next in order to fulfill the user's request.
 ---
 Robot_selector:
-   past steps: ("Use the robot_selection_tool with the 'gripper' property and the item position (9, 5) to select the best suited robot for the task.", "The best suited robot to solve the task with the 'gripper' tool property at the item position (9, 5) is Robot42.")
----
-replanner:
-    plan:
-        Move Robot42 to location (9, 5) using the move_robot tool.
-        Use the grab_or_remove_item tool to remove the toolkit at Robot42's location.
-        Change Robot42's status to idle using the robot_status_change tool.
-    current step:
-        Move Robot42 to location (9, 5) using the move_robot tool.
----
-supervisor:
-   next agent: Controller
-   reason: The user has specified a robot by name (Robot42) and provided a specific task (move to location (9, 5)) that falls within the Controller's responsibility and requires the use of the 'move_robot' tool.
----
-Controller:
-   past steps: ('Move Robot42 to location (9, 5) using the move_robot tool.', 'Robot42 has been moved to the desired position (9, 5).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item tool to remove the toolkit at Robot42's location.
-        Change Robot42's status to idle using the robot_status_change tool.
-    current step:
-        Use the grab_or_remove_item tool to remove the toolkit at Robot42's location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically mentions the use of the 'grab_or_remove_item' tool to remove the toolkit at a robot's location. The Controller is responsible for controlling the robots with a set of tools including 'grab_or_remove_item'. Therefore, the Controller is the correct worker to perform the current step of removing the toolkit.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item tool to remove the toolkit at Robot42's location.", "The toolkit at Robot42's location has been removed.")
----
-replanner:
-    plan:
-        Change Robot42's status to idle using the robot_status_change tool.
-    current step:
-        Change Robot42's status to idle using the robot_status_change tool.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically mentions the need to change a robot's status to idle using the robot_status_change tool, which is a tool controlled by the Controller. Therefore, the Controller is the appropriate worker to perform the current_step, as they are responsible for using this tool to adjust the robot's status.
----
-Controller:
-   past steps: ("Change Robot42's status to idle using the robot_status_change tool.", "Robot42's status has been changed to idle.")
+   past steps: ("Use the robot_selection_tool with the 'gripper' tool property and the item position (11, 8) to select the best suited robot for the task.", "The best suited robot to solve the task with the 'gripper' tool property at the position (11, 8) is Robot32.")
+---
+replanner:
+    plan:
+        Move Robot32 to location (11, 8) using the move_robot function.
+        Grab or remove the toolkit at location (11, 8) using the grab_or_remove_item function.
+        Change Robot32's status to 'idle' using the robot_status_change function after the toolkit has been removed.
+    current step:
+        Move Robot32 to location (11, 8) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving moving a robot to a desired position. The Controller is responsible for controlling the robots and has the 'move_robot' tool which is needed to perform this task. Since the specific robot (Robot32) and the desired position ((11, 8)) are both provided, there is no need for the Robot_selector to intervene.
+---
+Controller:
+   past steps: ('Move Robot32 to location (11, 8) using the move_robot function.', 'Robot32 has been successfully moved to the location (11, 8).')
+---
+replanner:
+    plan:
+        Grab or remove the toolkit at location (11, 8) using the grab_or_remove_item function.
+        Change Robot32's status to 'idle' using the robot_status_change function after the toolkit has been removed.
+    current step:
+        Grab or remove the toolkit at location (11, 8) using the grab_or_remove_item function.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action of grabbing or removing an item, which is a task that falls under the responsibilities of the Controller. The Controller has the tool 'grab_or_remove_item' which is designed for this exact purpose. Therefore, the Controller is the correct worker to perform the current_step of grabbing or removing the toolkit at the specified location.
+---
+Controller:
+   past steps: ('Grab or remove the toolkit at location (11, 8) using the grab_or_remove_item function.', 'The toolkit at location (11, 8) has been successfully grabbed/removed.')
+---
+replanner:
+    plan:
+        Change Robot32's status to 'idle' using the robot_status_change function after the toolkit has been removed.
+    current step:
+        Change Robot32's status to 'idle' using the robot_status_change function after the toolkit has been removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots with a set of tools, including the robot_status_change function. Since the user request is to change Robot32's status to 'idle' after the toolkit has been removed, the Controller is the appropriate worker to perform this task using the robot_status_change tool.
+---
+Controller:
+   past steps: ("Change Robot32's status to 'idle' using the robot_status_change function after the toolkit has been removed.", "Robot32 has successfully removed the toolkit and its status has been changed to 'idle'.")
 ---
 replanner:
     response:
-        The toolkit at location (9, 5) has been successfully removed by Robot42 equipped with a gripper. Robot42's status is now set to idle.
+        The toolkit at location (11, 8) has been successfully removed by Robot32, which is now set to 'idle' status. The task is complete.
 ---
 </t>
         </is>
@@ -498,72 +498,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move to location (3, 8) and remove the liquid spill.</t>
+          <t>Move to location (7, 5) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool with the 'mop' or 'vacuum' tool property and the item position (3, 8) to select the most suitable robot for cleaning the liquid spill.
-        Use the move_robot function with the selected robot name and the position (3, 8) to move it to the location of the liquid spill.
-        Use the grab_or_remove_item function with the selected robot name and the item name 'liquid spill' to clean up the spill.
-        Use the robot_status_change function with the selected robot name and the status 'idle' to set the robot's status after the task is complete.
-    current step:
-       Use the robot_selection_tool with the 'mop' or 'vacuum' tool property and the item position (3, 8) to select the most suitable robot for cleaning the liquid spill.
+        Use the robot_selection_tool with the 'mop' or 'vacuum' tool property to find the best suited robot for cleaning a liquid spill, and the item position (7, 5).
+        Use the move_robot function to move the selected robot to location (7, 5).
+        Use the grab_or_remove_item function with the selected robot's name to remove the liquid spill at location (7, 5).
+        Use the robot_status_change function to set the robot's status to 'idle' after the liquid spill has been removed.
+    current step:
+       Use the robot_selection_tool with the 'mop' or 'vacuum' tool property to find the best suited robot for cleaning a liquid spill, and the item position (7, 5).
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request requires the selection of the most suitable robot for cleaning a liquid spill at a specific location (3, 8), and requires a robot with either a 'mop' or 'vacuum' tool property. This task falls under the responsibilities of the Robot_selector, who uses the robot_selection_tool to determine the best suited robot for the objective when no specific robot is named.
+   reason: The user request specifies the need to select the best suited robot for cleaning a liquid spill, which requires a robot with either a 'mop' or 'vacuum' tool property. The Robot_selector is responsible for selecting the correct robot using the robot_selection_tool, which is the appropriate tool to use in this scenario given the desired robot tool property and the item position provided.
 ---
 Robot_selector:
-   past steps: ("Use the robot_selection_tool with the 'mop' or 'vacuum' tool property and the item position (3, 8) to select the most suitable robot for cleaning the liquid spill.", "The most suitable robot to clean the liquid spill at position (3, 8) with the 'mop' tool property is Robot6.")
----
-replanner:
-    plan:
-        Use the move_robot function with Robot6 and the position (3, 8) to move it to the location of the liquid spill.
-        Use the grab_or_remove_item function with Robot6 and the item name 'liquid spill' to clean up the spill.
-        Use the robot_status_change function with Robot6 and the status 'idle' to set the robot's status after the task is complete.
-    current step:
-        Use the move_robot function with Robot6 and the position (3, 8) to move it to the location of the liquid spill.
----
-supervisor:
-   next agent: Controller
-   reason: The user has specified a clear action for a specific robot, Robot6, to move to a certain position (3, 8), which is related to the liquid spill location. The Controller is responsible for controlling robots and has the 'move_robot' function needed to perform this task. Therefore, the Controller should be the one to act next to execute the movement of Robot6 to the designated position.
----
-Controller:
-   past steps: ('Use the move_robot function with Robot6 and the position (3, 8) to move it to the location of the liquid spill.', 'Robot6 is now at the location of the liquid spill.')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot6 and the item name 'liquid spill' to clean up the spill.
-        Use the robot_status_change function with Robot6 and the status 'idle' to set the robot's status after the task is complete.
-    current step:
-        Use the grab_or_remove_item function with Robot6 and the item name 'liquid spill' to clean up the spill.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically mentions using the 'grab_or_remove_item' function with 'Robot6' to clean up a 'liquid spill'. The Controller is responsible for directly controlling the robots with a set of tools, which includes 'grab_or_remove_item'. Since the specific robot (Robot6) and the item ('liquid spill') are both identified, the Controller is the appropriate worker to carry out this action.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot6 and the item name 'liquid spill' to clean up the spill.", 'Robot6 has successfully handled the liquid spill.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot6 and the status 'idle' to set the robot's status after the task is complete.
-    current step:
-        Use the robot_status_change function with Robot6 and the status 'idle' to set the robot's status after the task is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the use of the 'robot_status_change' function to set Robot6's status to 'idle', which is a function within the Controller's set of tools. Therefore, the Controller is the appropriate worker to perform the current_step.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot6 and the status 'idle' to set the robot's status after the task is complete.", "Robot6's status has been successfully changed to idle.")
+   past steps: ("Use the robot_selection_tool with the 'mop' or 'vacuum' tool property to find the best suited robot for cleaning a liquid spill, and the item position (7, 5).", 'The best suited robot to clean a liquid spill at position (7, 5) is Robot6, which is equipped with a mop.')
+---
+replanner:
+    plan:
+        Use the move_robot function to move Robot6 to location (7, 5).
+        Use the grab_or_remove_item function with Robot6 to remove the liquid spill at location (7, 5).
+        Use the robot_status_change function to set Robot6's status to 'idle' after the liquid spill has been removed.
+    current step:
+        Use the move_robot function to move Robot6 to location (7, 5).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifically asks to use the 'move_robot' function to move Robot6 to a certain location. The 'move_robot' function is a tool that is within the Controller's set of tools. Therefore, the Controller is the appropriate worker to act next to fulfill this request.
+---
+Controller:
+   past steps: ('Use the move_robot function to move Robot6 to location (7, 5).', 'Robot6 has been successfully moved to the location (7, 5).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot6 to remove the liquid spill at location (7, 5).
+        Use the robot_status_change function to set Robot6's status to 'idle' after the liquid spill has been removed.
+    current step:
+        Use the grab_or_remove_item function with Robot6 to remove the liquid spill at location (7, 5).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving a robot (Robot6) and an item (liquid spill). The Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to remove the item at the specified location. Therefore, the Controller is the appropriate worker to perform the current_step.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function with Robot6 to remove the liquid spill at location (7, 5).', 'Robot6 has successfully removed the liquid spill.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function to set Robot6's status to 'idle' after the liquid spill has been removed.
+    current step:
+        Use the robot_status_change function to set Robot6's status to 'idle' after the liquid spill has been removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to set Robot6's status to 'idle' after completing the task of removing the liquid spill.
+---
+Controller:
+   past steps: ("Use the robot_status_change function to set Robot6's status to 'idle' after the liquid spill has been removed.", "Robot6's status has been successfully changed to 'idle'.")
 ---
 replanner:
     response:
-        The liquid spill at location (3, 8) has been successfully cleaned by Robot6, which is now set to idle status. The task is complete.
+        The liquid spill at location (7, 5) has been successfully removed by Robot6, which is equipped with a mop. Robot6's status is now set to 'idle'. The task is complete.
 ---
 </t>
         </is>
@@ -572,72 +572,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move to location (1, 4) and remove the large debris.</t>
+          <t>Move to location (8, 6) and remove the large debris.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool to select the best suited robot with a 'front loader' or 'gripper' tool property to remove large debris at location (1, 4).
-        Move the selected robot to location (1, 4) using the move_robot function.
-        Use the grab_or_remove_item function to have the robot remove the large debris at its current location.
-        Set the robot's status to 'idle' using the robot_status_change function after the removal of the large debris is complete.
-    current step:
-       Use the robot_selection_tool to select the best suited robot with a 'front loader' or 'gripper' tool property to remove large debris at location (1, 4).
+        Use the robot_selection_tool with the 'front loader' tool property and the item position (8, 6) to select the best suited robot for removing large debris.
+        Move the selected robot to location (8, 6) using the move_robot function.
+        Grab or remove the large debris at location (8, 6) using the grab_or_remove_item function.
+        Change the robot's status to 'idle' using the robot_status_change function after the removal of the debris is complete.
+    current step:
+       Use the robot_selection_tool with the 'front loader' tool property and the item position (8, 6) to select the best suited robot for removing large debris.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the need to select the best suited robot with a certain tool property ('front loader' or 'gripper') to perform a task (remove large debris) at a specific location ((1, 4)). This task directly aligns with the responsibility of the Robot_selector, who uses the robot_selection_tool to determine the best suited robot for a given objective when no robot is specified.
+   reason: The user request involves selecting the best suited robot for a specific task, which in this case is removing large debris. The robot_selection_tool with the 'front loader' tool property and the item position (8, 6) needs to be used to determine the best robot for the job. The Robot_selector is responsible for selecting the correct robot using the robot_selection_tool, making it the appropriate worker to act next.
 ---
 Robot_selector:
-   past steps: ("Use the robot_selection_tool to select the best suited robot with a 'front loader' or 'gripper' tool property to remove large debris at location (1, 4).", 'The best-suited robots for removing large debris at location (1, 4) are Robot39 with a front loader and Robot2 with a gripper.')
----
-replanner:
-    plan:
-        Move Robot39 with a front loader to location (1, 4) using the move_robot function.
-        Use the grab_or_remove_item function to have Robot39 remove the large debris at location (1, 4).
-        Set Robot39's status to 'idle' using the robot_status_change function after the removal of the large debris is complete.
-    current step:
-        Move Robot39 with a front loader to location (1, 4) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a particular robot (Robot39) equipped with a specific tool (front loader) and an action to be performed (move to location (1, 4)). Since the robot and its required equipment are already identified, the Controller is the appropriate worker to carry out the action using the move_robot function.
----
-Controller:
-   past steps: ('Move Robot39 with a front loader to location (1, 4) using the move_robot function.', 'Robot39 has been moved to the desired position (1, 4).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function to have Robot39 remove the large debris at location (1, 4).
-        Set Robot39's status to 'idle' using the robot_status_change function after the removal of the large debris is complete.
-    current step:
-        Use the grab_or_remove_item function to have Robot39 remove the large debris at location (1, 4).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies an action to be performed by a specific robot, Robot39, and the action to be taken is to remove an item, which is a functionality of the Controller. Since the robot is already specified, there is no need for the Robot_selector to intervene, and the nature of the task is not a generic question, so the misc_agent is not required. The Controller should use the grab_or_remove_item function to have Robot39 remove the large debris at the specified location.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function to have Robot39 remove the large debris at location (1, 4).', 'Robot39 has successfully grabbed or removed the large debris.')
----
-replanner:
-    plan:
-        Set Robot39's status to 'idle' using the robot_status_change function after the removal of the large debris is complete.
-    current step:
-        Set Robot39's status to 'idle' using the robot_status_change function after the removal of the large debris is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The task involves using the 'robot_status_change' function to set Robot39's status to 'idle' after completing a specific task (removal of large debris). The Controller is responsible for controlling the robots and using the set of tools provided, one of which is 'robot_status_change'. Therefore, the Controller is the correct worker to act next to carry out this specific instruction.
----
-Controller:
-   past steps: ("Set Robot39's status to 'idle' using the robot_status_change function after the removal of the large debris is complete.", "Robot39's status is now set to 'idle' after the completion of the large debris removal.")
+   past steps: ("Use the robot_selection_tool with the 'front loader' tool property and the item position (8, 6) to select the best suited robot for removing large debris.", "Robot29 is the best suited to solve the task of removing large debris at the position (8, 6) with its 'front loader' tool property.")
+---
+replanner:
+    plan:
+        Move Robot29 to location (8, 6) using the move_robot function.
+        Grab or remove the large debris at location (8, 6) using the grab_or_remove_item function.
+        Change Robot29's status to 'idle' using the robot_status_change function after the removal of the debris is complete.
+    current step:
+        Move Robot29 to location (8, 6) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving moving a robot to a specific location. The Controller is responsible for controlling the robots and has the 'move_robot' tool which is needed to carry out this task.
+---
+Controller:
+   past steps: ('Move Robot29 to location (8, 6) using the move_robot function.', 'Robot29 has been successfully moved to the location (8, 6).')
+---
+replanner:
+    plan:
+        Grab or remove the large debris at location (8, 6) using the grab_or_remove_item function with Robot29.
+        Change Robot29's status to 'idle' using the robot_status_change function after the removal of the debris is complete.
+    current step:
+        Grab or remove the large debris at location (8, 6) using the grab_or_remove_item function with Robot29.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action to grab or remove an item and also identifies the specific robot (Robot29) to perform the task. Since the Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to execute this task, the Controller is the correct worker to act next.
+---
+Controller:
+   past steps: ('Grab or remove the large debris at location (8, 6) using the grab_or_remove_item function with Robot29.', 'Robot29 has successfully grabbed or removed the large debris.')
+---
+replanner:
+    plan:
+        Change Robot29's status to 'idle' using the robot_status_change function after the removal of the debris is complete.
+    current step:
+        Change Robot29's status to 'idle' using the robot_status_change function after the removal of the debris is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to change Robot29's status to 'idle' after the completion of the task.
+---
+Controller:
+   past steps: ("Change Robot29's status to 'idle' using the robot_status_change function after the removal of the debris is complete.", "The status of Robot29 has been changed to 'idle' after the completion of the debris removal task.")
 ---
 replanner:
     response:
-        The large debris at location (1, 4) has been successfully removed by Robot39 equipped with a front loader. Robot39's status is now set to 'idle' after the completion of the task.
+        The task has been successfully completed. Robot29, equipped with a front loader, has moved to location (8, 6), removed the large debris, and is now set to 'idle' status.
 ---
 </t>
         </is>
@@ -646,72 +646,72 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move to location (6, 5) and remove the dust.</t>
+          <t>Move to location (2, 4) and remove the dust.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selector's robot_selection_tool with the desired_robot_tool_property as 'vacuum' to identify the best-suited robot for cleaning dust at position (6, 5).
-        Use the Controller's move_robot function to move the selected robot to location (6, 5).
-        Use the Controller's grab_or_remove_item function to have the robot remove the dust from location (6, 5).
-        Use the Controller's robot_status_change function to set the robot's status to 'idle' after the dust removal is complete.
-    current step:
-       Use the robot_selector's robot_selection_tool with the desired_robot_tool_property as 'vacuum' to identify the best-suited robot for cleaning dust at position (6, 5).
+        Use the robot_selection_tool to determine the best suited robot to move to location (2, 4) and remove the dust. The robot should have a vacuum tool property to handle dust removal.
+        Move the selected robot to location (2, 4) using the move_robot function.
+        Use the grab_or_remove_item function to remove the dust from location (2, 4) with the robot equipped with the vacuum tool property.
+        Change the robot's status to idle using the robot_status_change function after the dust has been removed.
+    current step:
+       Use the robot_selection_tool to determine the best suited robot to move to location (2, 4) and remove the dust. The robot should have a vacuum tool property to handle dust removal.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the need to identify a robot with a 'vacuum' tool property to clean dust at a specific position. The Robot_selector is responsible for selecting the correct robot and has the 'robot_selection_tool' which is required for this task. Therefore, the Robot_selector should act next using the 'robot_selection_tool' with the desired property 'vacuum' to find the best-suited robot for the cleaning objective at position (6, 5).
+   reason: The user request specifies the need to determine the best suited robot to move to a location and remove dust, requiring a vacuum tool property. Since no specific robot is mentioned, the robot_selection_tool provided by the Robot_selector is the appropriate tool to use for selecting the correct robot based on the desired robot tool property and the item's position.
 ---
 Robot_selector:
-   past steps: ("Use the robot_selector's robot_selection_tool with the desired_robot_tool_property as 'vacuum' to identify the best-suited robot for cleaning dust at position (6, 5).", 'The best-suited robot to clean dust at position (6, 5) with the vacuum tool property is Robot50.')
----
-replanner:
-    plan:
-        Move Robot50 to location (6, 5) using the Controller's move_robot function.
-        Use the Controller's grab_or_remove_item function to have Robot50 remove the dust from location (6, 5).
-        Set Robot50's status to 'idle' using the Controller's robot_status_change function after the dust removal is complete.
-    current step:
-        Move Robot50 to location (6, 5) using the Controller's move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving the movement of a robot to a specific position. The Controller is responsible for controlling the robots and has the 'move_robot' tool which is used to move the selected robot to a given position. Since the robot name 'Robot50' and the desired position (6, 5) are both provided, the Controller is the appropriate worker to carry out this action.
----
-Controller:
-   past steps: ("Move Robot50 to location (6, 5) using the Controller's move_robot function.", 'Robot50 has been successfully moved to the location (6, 5).')
----
-replanner:
-    plan:
-        Use the Controller's grab_or_remove_item function to have Robot50 remove the dust from location (6, 5).
-        Set Robot50's status to 'idle' using the Controller's robot_status_change function after the dust removal is complete.
-    current step:
-        Use the Controller's grab_or_remove_item function to have Robot50 remove the dust from location (6, 5).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a task for a particular robot, Robot50, to perform an action, which is to remove dust from a specific location (6, 5). Since the robot and the action are already specified, there is no need for the Robot_selector to be involved. The task involves using the grab_or_remove_item tool, which is within the Controller's capabilities. Therefore, the Controller is the appropriate worker to act next and perform the current_step using the grab_or_remove_item function.
----
-Controller:
-   past steps: ("Use the Controller's grab_or_remove_item function to have Robot50 remove the dust from location (6, 5).", 'Robot50 has successfully removed the dust from location (6, 5).')
----
-replanner:
-    plan:
-        Set Robot50's status to 'idle' using the Controller's robot_status_change function after the dust removal is complete.
-    current step:
-        Set Robot50's status to 'idle' using the Controller's robot_status_change function after the dust removal is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies an action (setting Robot50's status to 'idle') that falls under the responsibilities of the Controller, using the 'robot_status_change' function.
----
-Controller:
-   past steps: ("Set Robot50's status to 'idle' using the Controller's robot_status_change function after the dust removal is complete.", "The status of Robot50 has been changed to 'idle'.")
+   past steps: ('Use the robot_selection_tool to determine the best suited robot to move to location (2, 4) and remove the dust. The robot should have a vacuum tool property to handle dust removal.', 'Robot50 is the best suited to move to location (2, 4) and remove the dust, as it has the vacuum tool property required for dust removal.')
+---
+replanner:
+    plan:
+        Move Robot50 to location (2, 4) using the move_robot function.
+        Use the grab_or_remove_item function to remove the dust from location (2, 4) with Robot50 equipped with the vacuum tool property.
+        Change Robot50's status to idle using the robot_status_change function after the dust has been removed.
+    current step:
+        Move Robot50 to location (2, 4) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request is to move a specific robot, Robot50, to a new location (2, 4). The Controller is responsible for controlling the robots and has the tool 'move_robot' which is used to move a selected robot to a given position. Since the robot name and desired position are provided, the Controller is the appropriate worker to carry out this task.
+---
+Controller:
+   past steps: ('Move Robot50 to location (2, 4) using the move_robot function.', 'Robot50 has been successfully moved to the location (2, 4).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function to remove the dust from location (2, 4) with Robot50 equipped with the vacuum tool property.
+        Change Robot50's status to idle using the robot_status_change function after the dust has been removed.
+    current step:
+        Use the grab_or_remove_item function to remove the dust from location (2, 4) with Robot50 equipped with the vacuum tool property.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action to be performed (grab_or_remove_item), the robot to perform the action (Robot50), and the item to be interacted with (dust). Since the Controller is responsible for controlling the robots and using the tools such as grab_or_remove_item, and the robot and item are already specified, the Controller is the correct worker to act next to execute the task.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function to remove the dust from location (2, 4) with Robot50 equipped with the vacuum tool property.', 'Robot50 has successfully removed the dust from the location (2, 4).')
+---
+replanner:
+    plan:
+        Change Robot50's status to idle using the robot_status_change function after the dust has been removed.
+    current step:
+        Change Robot50's status to idle using the robot_status_change function after the dust has been removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to change Robot50's status to idle after the dust has been removed. Since the task specifically mentions using the 'robot_status_change' function, the Controller is the correct worker to act next.
+---
+Controller:
+   past steps: ("Change Robot50's status to idle using the robot_status_change function after the dust has been removed.", 'Robot50 has successfully removed the dust and its status is now set to idle.')
 ---
 replanner:
     response:
-        The dust at location (6, 5) has been successfully removed and Robot50's status is set to 'idle'. The task is complete.
+        Robot50 equipped with a vacuum has successfully removed the dust from location (2, 4) and is now set to idle.
 ---
 </t>
         </is>
@@ -720,72 +720,72 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move to location (9, 5) and remove the grass.</t>
+          <t>Move to location (5, 2) and remove the grass.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use robot_selection_tool with the 'lawnmower' tool property and the position (9, 5) to select the best suited robot for the task.
-        Use move_robot with the selected robot's name and the position (9, 5) to move the robot to the desired location.
-        Use grab_or_remove_item with the selected robot's name and the item 'grass' to remove the grass from the location.
-        Use robot_status_change with the selected robot's name and set the status to 'idle' once the task is complete.
-    current step:
-       Use robot_selection_tool with the 'lawnmower' tool property and the position (9, 5) to select the best suited robot for the task.
+        Use the robot_selection_tool to determine the best suited robot with the lawnmower tool property to remove grass at location (5, 2).
+        Move the selected robot to location (5, 2) using the move_robot function.
+        Remove the grass at location (5, 2) by using the grab_or_remove_item function with the selected robot.
+        Change the robot's status to idle using the robot_status_change function after the grass removal is complete.
+    current step:
+       Use the robot_selection_tool to determine the best suited robot with the lawnmower tool property to remove grass at location (5, 2).
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The robot_selection_tool is a function of the Robot_selector, used to determine the best suited robot for a task when no specific robot is mentioned. In this case, the task requires selecting a robot with a 'lawnmower' tool property that can navigate to the position (9, 5). Therefore, the Robot_selector is the next appropriate worker to act.
+   reason: The user request specifies the need to determine the best suited robot with a specific tool property (lawnmower) for a task at a given location. The Robot_selector is responsible for selecting the correct robot, and the robot_selection_tool is specifically designed to find the best suited robot based on a desired robot tool property and item position. Therefore, the Robot_selector should act next using the robot_selection_tool to fulfill the user's request.
 ---
 Robot_selector:
-   past steps: ("Use robot_selection_tool with the 'lawnmower' tool property and the position (9, 5) to select the best suited robot for the task.", "Robot11 is the best suited robot to solve the task with the 'lawnmower' tool property at position (9, 5).")
----
-replanner:
-    plan:
-        Use move_robot with Robot11's name and the position (9, 5) to move the robot to the desired location.
-        Use grab_or_remove_item with Robot11's name and the item 'grass' to remove the grass from the location.
-        Use robot_status_change with Robot11's name and set the status to 'idle' once the task is complete.
-    current step:
-        Use move_robot with Robot11's name and the position (9, 5) to move the robot to the desired location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving the movement of a robot to a particular position. The Controller is responsible for controlling the robots and has the 'move_robot' tool that is needed to move Robot11 to the desired position (9, 5). Therefore, the Controller is the appropriate worker to act next.
----
-Controller:
-   past steps: ("Use move_robot with Robot11's name and the position (9, 5) to move the robot to the desired location.", 'Robot11 has been successfully moved to the position (9, 5).')
----
-replanner:
-    plan:
-        Use grab_or_remove_item with Robot11's name and the item 'grass' to remove the grass from the location.
-        Use robot_status_change with Robot11's name and set the status to 'idle' once the task is complete.
-    current step:
-        Use grab_or_remove_item with Robot11's name and the item 'grass' to remove the grass from the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user has specified a clear task that involves a robot interaction, more specifically using the 'grab_or_remove_item' tool to remove an item named 'grass' from a location. This tool is within the Controller's set of tools, hence the Controller is the appropriate worker to carry out this task.
----
-Controller:
-   past steps: ("Use grab_or_remove_item with Robot11's name and the item 'grass' to remove the grass from the location.", 'Robot11 has successfully grabbed/removed the grass from the location.')
----
-replanner:
-    plan:
-        Use robot_status_change with Robot11's name and set the status to 'idle' once the task is complete.
-    current step:
-        Use robot_status_change with Robot11's name and set the status to 'idle' once the task is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to use the tool 'robot_status_change' with a specific robot (Robot11) to set its status to 'idle' once the task is complete. The 'Controller' is responsible for controlling the robots with a set of tools, including the 'robot_status_change' tool. Therefore, the 'Controller' should perform the current_step, as it directly involves a control action on one of the robots.
----
-Controller:
-   past steps: ("Use robot_status_change with Robot11's name and set the status to 'idle' once the task is complete.", "Robot11's status has been successfully changed to 'idle'.")
+   past steps: ('Use the robot_selection_tool to determine the best suited robot with the lawnmower tool property to remove grass at location (5, 2).', 'Robot41 is the best suited to remove grass at location (5, 2) with the lawnmower tool property.')
+---
+replanner:
+    plan:
+        Move Robot41 to location (5, 2) using the move_robot function.
+        Remove the grass at location (5, 2) by using the grab_or_remove_item function with Robot41.
+        Change Robot41's status to idle using the robot_status_change function after the grass removal is complete.
+    current step:
+        Move Robot41 to location (5, 2) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request is to move a specific robot, Robot41, to a new location (5, 2). The Controller is responsible for controlling the robots and has the 'move_robot' function, which is used to move a selected robot to a given position. Since the robot name and desired position are provided, the Controller is the appropriate worker to carry out this task.
+---
+Controller:
+   past steps: ('Move Robot41 to location (5, 2) using the move_robot function.', 'Robot41 has been successfully moved to the location (5, 2).')
+---
+replanner:
+    plan:
+        Remove the grass at location (5, 2) by using the grab_or_remove_item function with Robot41.
+        Change Robot41's status to idle using the robot_status_change function after the grass removal is complete.
+    current step:
+        Remove the grass at location (5, 2) by using the grab_or_remove_item function with Robot41.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action to remove grass at a specific location using the 'grab_or_remove_item' function and identifies Robot41 as the robot to perform the task. Since the Controller is responsible for controlling the robots and using tools such as 'grab_or_remove_item', it is the appropriate worker to carry out this action.
+---
+Controller:
+   past steps: ('Remove the grass at location (5, 2) by using the grab_or_remove_item function with Robot41.', 'The grass at location (5, 2) has been removed by Robot41.')
+---
+replanner:
+    plan:
+        Change Robot41's status to idle using the robot_status_change function after the grass removal is complete.
+    current step:
+        Change Robot41's status to idle using the robot_status_change function after the grass removal is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action to be taken on a known robot, Robot41, which involves changing its status to idle after completing a task. The Controller is responsible for controlling the robots and has the tool 'robot_status_change' needed to change the robot's status. Therefore, the Controller is the appropriate worker to perform the current_step.
+---
+Controller:
+   past steps: ("Change Robot41's status to idle using the robot_status_change function after the grass removal is complete.", "Robot41's status has been changed to idle.")
 ---
 replanner:
     response:
-        Robot11 equipped with a lawnmower has successfully moved to position (9, 5) and removed the grass from the location. The robot's status is now set to 'idle'.
+        The grass at location (5, 2) has been successfully removed and Robot41's status has been set to idle. The task is complete.
 ---
 </t>
         </is>
@@ -794,72 +794,72 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move to location (5, 12) and remove the small debris.</t>
+          <t>Move to location (6, 7) and remove the small debris.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool with the tool property 'vacuum' to determine the best suited robot to clean up the small debris at location (5, 12).
-        Move the selected robot to location (5, 12) using the move_robot function.
-        Remove the small debris at the location using the grab_or_remove_item function with the robot name and item name 'small debris'.
-        Change the robot's status to idle using the robot_status_change function once the task is complete.
-    current step:
-       Use the robot_selection_tool with the tool property 'vacuum' to determine the best suited robot to clean up the small debris at location (5, 12).
+        Use the robot_selection_tool to determine the best suited robot to remove small debris at location (6, 7).
+        Move the selected robot to location (6, 7) using the move_robot function.
+        Grab or remove the small debris using the grab_or_remove_item function with the selected robot.
+        Change the robot's status to idle using the robot_status_change function after the task is complete.
+    current step:
+       Use the robot_selection_tool to determine the best suited robot to remove small debris at location (6, 7).
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The objective requires selecting a robot equipped with a 'vacuum' tool to clean up debris. The 'robot_selection_tool' from the Robot_selector is designed to determine the best suited robot based on the desired robot tool property, which in this case is 'vacuum', and the location of the item, which is at (5, 12).
+   reason: The user request specifies the need to determine the best suited robot to remove small debris at a specific location. Since no robot is specified, the robot_selection_tool provided by the Robot_selector is the appropriate tool to use for selecting the correct robot based on the desired robot tool property and the item's position.
 ---
 Robot_selector:
-   past steps: ("Use the robot_selection_tool with the tool property 'vacuum' to determine the best suited robot to clean up the small debris at location (5, 12).", 'Robot50 is the best suited to clean up the small debris at location (5, 12) using its vacuum tool property.')
----
-replanner:
-    plan:
-        Move Robot50 to location (5, 12) using the move_robot function.
-        Remove the small debris at location (5, 12) using the grab_or_remove_item function with the robot name 'Robot50' and item name 'small debris'.
-        Change Robot50's status to idle using the robot_status_change function once the task is complete.
-    current step:
-        Move Robot50 to location (5, 12) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically identifies a robot (Robot50) and provides a clear action (move to location (5, 12)) which can be fulfilled by using the 'move_robot' function. Since the 'move_robot' function is a tool controlled by the Controller, the Controller is the appropriate worker to act next.
----
-Controller:
-   past steps: ('Move Robot50 to location (5, 12) using the move_robot function.', 'Robot50 has been successfully moved to the position (5, 12).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with the robot name 'Robot50' and item name 'small debris' to remove the debris at location (5, 12).
-        Change Robot50's status to idle using the robot_status_change function once the task is complete.
-    current step:
-        Use the grab_or_remove_item function with the robot name 'Robot50' and item name 'small debris' to remove the debris at location (5, 12).
----
-supervisor:
-   next agent: Controller
-   reason: The user has specifically requested the use of the 'grab_or_remove_item' function with a defined robot name 'Robot50' and an item name 'small debris'. The Controller is responsible for this function and can perform the action as instructed.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with the robot name 'Robot50' and item name 'small debris' to remove the debris at location (5, 12).", 'Robot50 has successfully moved to the position (5, 12) and has grabbed/removed the small debris.')
----
-replanner:
-    plan:
-        Change Robot50's status to idle using the robot_status_change function.
-    current step:
-        Change Robot50's status to idle using the robot_status_change function.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots, which includes changing their status using the robot_status_change function. Since the user request is to change Robot50's status to idle, the Controller is the correct worker to perform this task.
----
-Controller:
-   past steps: ("Change Robot50's status to idle using the robot_status_change function.", "Robot50's status has been changed to idle.")
+   past steps: ('Use the robot_selection_tool to determine the best suited robot to remove small debris at location (6, 7).', 'The best suited robot to remove small debris at location (6, 7) is Robot50, equipped with a vacuum.')
+---
+replanner:
+    plan:
+        Move Robot50 to location (6, 7) using the move_robot function.
+        Grab or remove the small debris using the grab_or_remove_item function with Robot50.
+        Change Robot50's status to idle using the robot_status_change function after the task is complete.
+    current step:
+        Move Robot50 to location (6, 7) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving moving a robot to a specific location. The Controller is responsible for controlling the robots and has the 'move_robot' tool, which is needed to carry out this task. Therefore, the Controller is the appropriate worker to act next.
+---
+Controller:
+   past steps: ('Move Robot50 to location (6, 7) using the move_robot function.', 'Robot50 has been successfully moved to the location (6, 7).')
+---
+replanner:
+    plan:
+        Grab or remove the small debris using the grab_or_remove_item function with Robot50.
+        Change Robot50's status to idle using the robot_status_change function after the task is complete.
+    current step:
+        Grab or remove the small debris using the grab_or_remove_item function with Robot50.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action to be taken (grab or remove item) and the robot to perform the task (Robot50). Since the Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to execute this task, the Controller should be the next to act.
+---
+Controller:
+   past steps: ('Grab or remove the small debris using the grab_or_remove_item function with Robot50.', 'Robot50 has successfully grabbed or removed the small debris.')
+---
+replanner:
+    plan:
+        Change Robot50's status to idle using the robot_status_change function after the task is complete.
+    current step:
+        Change Robot50's status to idle using the robot_status_change function after the task is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to change Robot50's status to idle after the task is complete.
+---
+Controller:
+   past steps: ("Change Robot50's status to idle using the robot_status_change function after the task is complete.", 'The status of Robot50 has been changed to idle.')
 ---
 replanner:
     response:
-        Robot50 has successfully removed the small debris at location (5, 12) and is now set to idle status.
+        The small debris at location (6, 7) has been successfully removed by Robot50, which is equipped with a vacuum. Robot50's status is now set to idle, and the task is complete.
 ---
 </t>
         </is>
@@ -868,72 +868,72 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move to location (11, 12) and remove the vehicle.</t>
+          <t>Move to location (3, 6) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool with the 'tow hook' property to find the best suited robot for removing the vehicle at location (11, 12).
-        Move the selected robot to location (11, 12) using the move_robot function.
-        Remove the vehicle at the robot's location by using the grab_or_remove_item function with the robot's name and 'vehicle' as the item name.
-        Change the robot's status to 'idle' using the robot_status_change function once the task is complete.
-    current step:
-       Use the robot_selection_tool with the 'tow hook' property to find the best suited robot for removing the vehicle at location (11, 12).
+        Use the robot_selection_tool with the 'tow hook' property and the item position (3, 6) to select the best suited robot for removing a vehicle.
+        Move the selected robot to location (3, 6) using the move_robot function.
+        Grab or remove the vehicle at location (3, 6) using the grab_or_remove_item function.
+        Change the robot's status to 'idle' using the robot_status_change function after the vehicle has been removed.
+    current step:
+       Use the robot_selection_tool with the 'tow hook' property and the item position (3, 6) to select the best suited robot for removing a vehicle.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the need to use the 'robot_selection_tool' with the 'tow hook' property to find the best suited robot for a task. Since the Robot_selector is responsible for selecting the correct robot and has access to the 'robot_selection_tool', it is the appropriate worker to act next to fulfill this request.
+   reason: The user request involves selecting the best suited robot for a specific task, which in this case is removing a vehicle at a given position. The Robot_selector is responsible for selecting the correct robot using the robot_selection_tool, which is needed here to determine the best suited robot with the 'tow hook' property for the item position (3, 6).
 ---
 Robot_selector:
-   past steps: ("Use the robot_selection_tool with the 'tow hook' property to find the best suited robot for removing the vehicle at location (11, 12).", "The best suited robot to remove the vehicle at location (11, 12) with the 'tow hook' property is Robot23.")
----
-replanner:
-    plan:
-        Move Robot23 to location (11, 12) using the move_robot function.
-        Remove the vehicle at Robot23's location by using the grab_or_remove_item function with Robot23's name and 'vehicle' as the item name.
-        Change Robot23's status to 'idle' using the robot_status_change function once the task is complete.
-    current step:
-        Move Robot23 to location (11, 12) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a robot by name (Robot23) and a desired action (move_robot to location (11, 12)). Since the Controller is responsible for controlling the robots with the set of specified tools, and 'move_robot' is one of those tools, the Controller should act next to fulfill the moving task.
----
-Controller:
-   past steps: ('Move Robot23 to location (11, 12) using the move_robot function.', 'Robot23 has been successfully moved to the location (11, 12).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot23's name and 'vehicle' as the item name to remove the vehicle at Robot23's location.
-        Change Robot23's status to 'idle' using the robot_status_change function once the task is complete.
-    current step:
-        Use the grab_or_remove_item function with Robot23's name and 'vehicle' as the item name to remove the vehicle at Robot23's location.
----
-supervisor:
-   next agent: Controller
-   reason: The user has specified a direct action involving a specific robot (Robot23) and a specific task (grab_or_remove_item with 'vehicle' as the item name). Since the Controller is responsible for directly controlling the robots and their actions, and the grab_or_remove_item function falls under the Controller's set of tools, the Controller should be the one to execute this action.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot23's name and 'vehicle' as the item name to remove the vehicle at Robot23's location.", 'Robot23 has successfully grabbed or removed the vehicle.')
----
-replanner:
-    plan:
-        Change Robot23's status to 'idle' using the robot_status_change function once the task is complete.
-    current step:
-        Change Robot23's status to 'idle' using the robot_status_change function once the task is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots, which includes using the robot_status_change function to adjust a robot's status. Since the task involves changing Robot23's status to 'idle' once the task is complete, the Controller is the appropriate worker to perform this action.
----
-Controller:
-   past steps: ("Change Robot23's status to 'idle' using the robot_status_change function once the task is complete.", "The status of Robot23 has been changed to 'idle'.")
+   past steps: ("Use the robot_selection_tool with the 'tow hook' property and the item position (3, 6) to select the best suited robot for removing a vehicle.", 'The best suited robot to remove a vehicle at position (3, 6) is Robot13, which is equipped with a tow hook.')
+---
+replanner:
+    plan:
+        Move Robot13 to location (3, 6) using the move_robot function.
+        Grab or remove the vehicle at location (3, 6) using the grab_or_remove_item function.
+        Change Robot13's status to 'idle' using the robot_status_change function after the vehicle has been removed.
+    current step:
+        Move Robot13 to location (3, 6) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving the movement of a robot to a specific location. The Controller is responsible for controlling the robots and has the 'move_robot' tool, which is needed to move Robot13 to the desired position (3, 6). Therefore, the Controller is the correct worker to perform the current_step.
+---
+Controller:
+   past steps: ('Move Robot13 to location (3, 6) using the move_robot function.', 'Robot13 has been successfully moved to the location (3, 6).')
+---
+replanner:
+    plan:
+        Grab or remove the vehicle at location (3, 6) using the grab_or_remove_item function with Robot13.
+        Change Robot13's status to 'idle' using the robot_status_change function after the vehicle has been removed.
+    current step:
+        Grab or remove the vehicle at location (3, 6) using the grab_or_remove_item function with Robot13.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action to grab or remove an item at a specific location using a specific robot (Robot13). The Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to perform this task. Therefore, the Controller should act next to execute the function with Robot13.
+---
+Controller:
+   past steps: ('Grab or remove the vehicle at location (3, 6) using the grab_or_remove_item function with Robot13.', 'Robot13 has successfully grabbed or removed the vehicle at location (3, 6).')
+---
+replanner:
+    plan:
+        Change Robot13's status to 'idle' using the robot_status_change function after the vehicle has been removed.
+    current step:
+        Change Robot13's status to 'idle' using the robot_status_change function after the vehicle has been removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to change Robot13's status to 'idle'. Since the task specifically mentions using the 'robot_status_change' function, the Controller is the correct worker to perform this current_step.
+---
+Controller:
+   past steps: ("Change Robot13's status to 'idle' using the robot_status_change function after the vehicle has been removed.", "Robot13 has successfully removed the vehicle and its status has been changed to 'idle'.")
 ---
 replanner:
     response:
-        All steps of the plan have been successfully executed. Robot23, equipped with a tow hook, has moved to location (11, 12) and removed the vehicle. Robot23's status has been set to 'idle'. The task is complete.
+        The vehicle at location (3, 6) has been successfully removed by Robot13, which is equipped with a tow hook. The robot's status is now set to 'idle'. No further action is required.
 ---
 </t>
         </is>
@@ -942,72 +942,72 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move to location (12, 1) and remove the construction materials.</t>
+          <t>Move to location (6, 6) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool to determine the best suited robot to move to location (12, 1) and remove construction materials. Specify 'gripper' or 'front loader' as the desired robot tool property since these are suitable for handling construction materials.
-        Move the selected robot to location (12, 1) using the move_robot function.
-        Use the grab_or_remove_item function to have the robot remove the construction materials from location (12, 1).
-        Set the robot's status to idle using the robot_status_change function once the task is complete.
-    current step:
-       Use the robot_selection_tool to determine the best suited robot to move to location (12, 1) and remove construction materials. Specify 'gripper' or 'front loader' as the desired robot tool property since these are suitable for handling construction materials.
+        Use the robot_selection_tool to determine the best suited robot to move to location (6, 6) and remove the construction materials.
+        Move the selected robot to location (6, 6) using the move_robot function.
+        Use the grab_or_remove_item function to remove the construction materials from location (6, 6).
+        Set the robot's status to idle using the robot_status_change function after the construction materials have been removed.
+    current step:
+       Use the robot_selection_tool to determine the best suited robot to move to location (6, 6) and remove the construction materials.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the need for a robot with a particular tool property ('gripper' or 'front loader') to handle a task involving construction materials at a specific location. Since no particular robot has been specified and we need to select the best-suited robot for the task, the Robot_selector should be used. The robot_selection_tool is the appropriate tool for this task, as it can determine the best suited robot based on the desired robot tool property and the item's position.
+   reason: The user request specifies the need to determine the best suited robot to move to a location and remove construction materials, but does not specify which robot to use. Therefore, the Robot_selector should use the robot_selection_tool to determine the best robot for the task based on the desired robot tool property and the item's position.
 ---
 Robot_selector:
-   past steps: ("Use the robot_selection_tool to determine the best suited robot to move to location (12, 1) and remove construction materials. Specify 'gripper' or 'front loader' as the desired robot tool property since these are suitable for handling construction materials.", 'The best-suited robot to move to location (12, 1) and remove construction materials is Robot32, which is equipped with a gripper.')
----
-replanner:
-    plan:
-        Move Robot32 to location (12, 1) using the move_robot function.
-        Use the grab_or_remove_item function to have Robot32 remove the construction materials from location (12, 1).
-        Set Robot32's status to idle using the robot_status_change function once the task is complete.
-    current step:
-        Move Robot32 to location (12, 1) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to move a specific robot (Robot32) to a specified location (12, 1), which falls under the responsibility of the Controller. The Controller has the 'move_robot' function that is designed to move a selected robot to a given position.
----
-Controller:
-   past steps: ('Move Robot32 to location (12, 1) using the move_robot function.', 'Robot32 has been successfully moved to the location (12, 1).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function to have Robot32 remove the construction materials from location (12, 1).
-        Set Robot32's status to idle using the robot_status_change function once the task is complete.
-    current step:
-        Use the grab_or_remove_item function to have Robot32 remove the construction materials from location (12, 1).
----
-supervisor:
-   next agent: Controller
-   reason: The user has specified an action that directly involves controlling a robot (Robot32) to perform a task (remove construction materials). The Controller is responsible for such actions and has the necessary tool (grab_or_remove_item) to execute this task.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function to have Robot32 remove the construction materials from location (12, 1).', 'Robot32 has successfully removed the construction materials from the location (12, 1).')
----
-replanner:
-    plan:
-        Set Robot32's status to idle using the robot_status_change function once the task is complete.
-    current step:
-        Set Robot32's status to idle using the robot_status_change function once the task is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The task specified requires the use of the `robot_status_change` function to set Robot32's status to idle after its task is complete. The Controller is responsible for controlling the robots and has the `robot_status_change` tool, making it the appropriate worker to carry out this function.
----
-Controller:
-   past steps: ("Set Robot32's status to idle using the robot_status_change function once the task is complete.", 'The status of Robot32 has been set to idle.')
+   past steps: ('Use the robot_selection_tool to determine the best suited robot to move to location (6, 6) and remove the construction materials.', 'Robot2 is the best suited to move to location (6, 6) and remove the construction materials.')
+---
+replanner:
+    plan:
+        Move Robot2 to location (6, 6) using the move_robot function.
+        Use the grab_or_remove_item function to remove the construction materials from location (6, 6).
+        Set Robot2's status to idle using the robot_status_change function after the construction materials have been removed.
+    current step:
+        Move Robot2 to location (6, 6) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving moving a robot to a specific location. The Controller is responsible for controlling the robots and has the 'move_robot' tool which is needed to carry out this task. Therefore, the Controller is the correct worker to act next.
+---
+Controller:
+   past steps: ('Move Robot2 to location (6, 6) using the move_robot function.', 'Robot2 has been successfully moved to the location (6, 6).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function to remove the construction materials from location (6, 6).
+        Set Robot2's status to idle using the robot_status_change function after the construction materials have been removed.
+    current step:
+        Use the grab_or_remove_item function to remove the construction materials from location (6, 6).
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the use of the 'grab_or_remove_item' function, which is a tool controlled by the Controller. The Controller is responsible for directly controlling the robots, including using tools to manipulate items. Therefore, the Controller is the appropriate worker to perform the current_step of removing construction materials from the specified location.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function to remove the construction materials from location (6, 6).', 'The construction materials at location (6, 6) have been removed.')
+---
+replanner:
+    plan:
+        Set Robot2's status to idle using the robot_status_change function after the construction materials have been removed.
+    current step:
+        Set Robot2's status to idle using the robot_status_change function after the construction materials have been removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to set Robot2's status to idle after the construction materials have been removed.
+---
+Controller:
+   past steps: ("Set Robot2's status to idle using the robot_status_change function after the construction materials have been removed.", 'Robot2 has successfully removed the construction materials and its status is now set to idle.')
 ---
 replanner:
     response:
-        The task has been completed. Robot32 with a gripper has successfully moved to location (12, 1) and removed the construction materials. The robot's status is now set to idle.
+        Robot2, equipped with a gripper, has successfully moved to location (6, 6), removed the construction materials, and its status is now set to idle.
 ---
 </t>
         </is>
@@ -1016,72 +1016,72 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move to location (8, 12) and remove the tree branches.</t>
+          <t>Move to location (3, 9) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Select the robot with the appropriate tool property for the task using the robot_selection_tool(desired_robot_tool_property, item_position). In this case, 'saw' is a suitable tool property for removing tree branches and the item position is (8, 12).
-        Move the selected robot to the designated location using move_robot(robot_name, desired_position), where the desired_position is (8, 12).
-        Remove the tree branches using grab_or_remove_item(robot_name, item_name), where the item_name is 'tree branches'.
-        Change the robot's status to 'idle' after the completion of the task using robot_status_change(robot_name, status), where the status is 'idle'.
-    current step:
-       Select the robot with the appropriate tool property for the task using the robot_selection_tool(desired_robot_tool_property, item_position). In this case, 'saw' is a suitable tool property for removing tree branches and the item position is (8, 12).
+        Use the robot_selection_tool with the 'saw' tool property and the item position (3, 9) to select the best suited robot for removing tree branches.
+        Use the move_robot function with the selected robot's name and the desired position (3, 9) to move the robot to the location of the tree branches.
+        Use the grab_or_remove_item function with the selected robot's name and the item name 'tree branches' to remove the branches from the location.
+        Use the robot_status_change function with the selected robot's name and the status 'idle' to set the robot's status after the task is complete.
+    current step:
+       Use the robot_selection_tool with the 'saw' tool property and the item position (3, 9) to select the best suited robot for removing tree branches.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The Robot_selector should act next because the user request involves selecting the appropriate robot for a task, which requires the use of the robot_selection_tool to determine the best suited robot based on the desired tool property ('saw') and the item position ((8, 12)).
+   reason: The user request involves selecting the best suited robot for a specific task, which in this case is removing tree branches. The robot_selection_tool with the 'saw' tool property and the item position (3, 9) needs to be used to determine the best robot for the job. The Robot_selector is responsible for selecting the correct robot using the robot_selection_tool, making it the appropriate worker to act next.
 ---
 Robot_selector:
-   past steps: ("Select the robot with the appropriate tool property for the task using the robot_selection_tool(desired_robot_tool_property, item_position). In this case, 'saw' is a suitable tool property for removing tree branches and the item position is (8, 12).", 'The best suited robot to remove tree branches at position (8, 12) with a saw is Robot14.')
----
-replanner:
-    plan:
-        Move Robot14 to the designated location using move_robot(robot_name, desired_position), where the desired_position is (8, 12).
-        Remove the tree branches using grab_or_remove_item(robot_name, item_name), where the robot_name is 'Robot14' and the item_name is 'tree branches'.
-        Change Robot14's status to 'idle' after the completion of the task using robot_status_change(robot_name, status), where the robot_name is 'Robot14' and the status is 'idle'.
-    current step:
-        Move Robot14 to the designated location using move_robot(robot_name, desired_position), where the desired_position is (8, 12).
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to move a specific robot, Robot14, to a designated location with coordinates (8, 12). The Controller is responsible for controlling the robots with tools including move_robot. Since the specific robot is mentioned and the action to be performed is within the Controller's domain, the Controller is the correct worker to act next.
----
-Controller:
-   past steps: ('Move Robot14 to the designated location using move_robot(robot_name, desired_position), where the desired_position is (8, 12).', 'Robot14 has been successfully moved to the designated position at coordinates (8, 12).')
----
-replanner:
-    plan:
-        Remove the tree branches using grab_or_remove_item(robot_name, item_name), where the robot_name is 'Robot14' and the item_name is 'tree branches'.
-        Change Robot14's status to 'idle' after the completion of the task using robot_status_change(robot_name, status), where the robot_name is 'Robot14' and the status is 'idle'.
-    current step:
-        Remove the tree branches using grab_or_remove_item(robot_name, item_name), where the robot_name is 'Robot14' and the item_name is 'tree branches'.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots with a set of tools, and one of those tools is grab_or_remove_item. Since the user request specifies the exact robot name 'Robot14' and the item to be removed 'tree branches', the Controller is the appropriate worker to perform the current_step using the grab_or_remove_item tool.
----
-Controller:
-   past steps: ("Remove the tree branches using grab_or_remove_item(robot_name, item_name), where the robot_name is 'Robot14' and the item_name is 'tree branches'.", 'Robot14 has successfully grabbed or removed the tree branches.')
----
-replanner:
-    plan:
-        Change Robot14's status to 'idle' after the completion of the task using robot_status_change(robot_name, status), where the robot_name is 'Robot14' and the status is 'idle'.
-    current step:
-        Change Robot14's status to 'idle' after the completion of the task using robot_status_change(robot_name, status), where the robot_name is 'Robot14' and the status is 'idle'.
----
-supervisor:
-   next agent: Controller
-   reason: The task specifies the use of the 'robot_status_change' tool to change the status of a specified robot, which is 'Robot14', to 'idle'. This tool is within the Controller's set of tools, and the robot name and the desired status are both provided, making the Controller the appropriate worker to perform the current_step.
----
-Controller:
-   past steps: ("Change Robot14's status to 'idle' after the completion of the task using robot_status_change(robot_name, status), where the robot_name is 'Robot14' and the status is 'idle'.", "Robot14's status has been changed to 'idle'.")
+   past steps: ("Use the robot_selection_tool with the 'saw' tool property and the item position (3, 9) to select the best suited robot for removing tree branches.", 'The best suited robot to remove tree branches at position (3, 9) is Robot14, which is equipped with a saw tool property.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot14's name and the desired position (3, 9) to move Robot14 to the location of the tree branches.
+        Use the grab_or_remove_item function with Robot14's name and the item name 'tree branches' to remove the branches from the location.
+        Use the robot_status_change function with Robot14's name and the status 'idle' to set Robot14's status after the task is complete.
+    current step:
+        Use the move_robot function with Robot14's name and the desired position (3, 9) to move Robot14 to the location of the tree branches.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving the movement of a robot to a particular location. The Controller is responsible for controlling the robots and has the 'move_robot' tool, which is needed to move Robot14 to the desired position (3, 9). Therefore, the Controller is the appropriate worker to act next to fulfill this request.
+---
+Controller:
+   past steps: ("Use the move_robot function with Robot14's name and the desired position (3, 9) to move Robot14 to the location of the tree branches.", 'Robot14 has been successfully moved to the position (3, 9).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot14's name and the item name 'tree branches' to remove the branches from the location.
+        Use the robot_status_change function with Robot14's name and the status 'idle' to set Robot14's status after the task is complete.
+    current step:
+        Use the grab_or_remove_item function with Robot14's name and the item name 'tree branches' to remove the branches from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving a robot ('Robot14') and an item ('tree branches'). The Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to grab the item from the robot's location and add it to the robot's inventory. Therefore, the Controller is the appropriate worker to perform the current_step.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot14's name and the item name 'tree branches' to remove the branches from the location.", 'Robot14 has successfully grabbed and removed the tree branches from the location.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot14's name and the status 'idle' to set Robot14's status after the task is complete.
+    current step:
+        Use the robot_status_change function with Robot14's name and the status 'idle' to set Robot14's status after the task is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the use of the 'robot_status_change' function, which is a tool controlled by the Controller. The task is to change Robot14's status to 'idle' after the task is complete, which falls under the Controller's responsibilities.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot14's name and the status 'idle' to set Robot14's status after the task is complete.", "Robot14's status has been successfully changed to idle.")
 ---
 replanner:
     response:
-        The tree branches at location (8, 12) have been successfully removed by Robot14, which is now set to 'idle' status. The task is complete.
+        Robot14 equipped with a saw has successfully moved to location (3, 9), removed the tree branches, and is now set to idle status.
 ---
 </t>
         </is>
@@ -1090,72 +1090,72 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move to location (3, 5) and remove the screws.</t>
+          <t>Move to location (6, 6) and remove the screws.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the 'robot_selection_tool' to determine the best suited robot equipped with a 'screwdriver' to go to location (3, 5).
-        Use the 'move_robot' function to move the selected robot to location (3, 5).
-        Use the 'grab_or_remove_item' function to remove the screws at location (3, 5).
-        Use the 'robot_status_change' function to set the robot's status to 'idle' after the screws have been removed.
-    current step:
-       Use the 'robot_selection_tool' to determine the best suited robot equipped with a 'screwdriver' to go to location (3, 5).
+        Use the robot_selection_tool with the 'screwdriver' tool property to determine the best suited robot to remove screws at location (6, 6).
+        Move the selected robot to location (6, 6) using the move_robot function.
+        Use the grab_or_remove_item function to remove the screws with the selected robot.
+        Change the robot's status to 'idle' using the robot_status_change function after the screws have been removed.
+    current step:
+       Use the robot_selection_tool with the 'screwdriver' tool property to determine the best suited robot to remove screws at location (6, 6).
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The 'robot_selection_tool' mentioned in the user request is a tool available to the Robot_selector. The objective is to determine the best suited robot equipped with a 'screwdriver' to go to a specific location, which is the task that the Robot_selector is responsible for using the robot_selection_tool.
+   reason: The user request involves selecting the correct robot with a specific tool property ('screwdriver') to perform a task at a specific location (6, 6). The Robot_selector is responsible for selecting the correct robot using the robot_selection_tool, which is the appropriate action for this request.
 ---
 Robot_selector:
-   past steps: ("Use the 'robot_selection_tool' to determine the best suited robot equipped with a 'screwdriver' to go to location (3, 5).", "The best suited robot equipped with a 'screwdriver' to go to location (3, 5) is Robot45.")
----
-replanner:
-    plan:
-        Use the 'move_robot' function to move Robot45 to location (3, 5).
-        Use the 'grab_or_remove_item' function to remove the screws at location (3, 5).
-        Use the 'robot_status_change' function to set Robot45's status to 'idle' after the screws have been removed.
-    current step:
-        Use the 'move_robot' function to move Robot45 to location (3, 5).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically asks for the use of the 'move_robot' function to move Robot45 to a designated location. The 'move_robot' function is a tool that is within the Controller's set of tools, thus making the Controller the appropriate worker to perform the current_step.
----
-Controller:
-   past steps: ("Use the 'move_robot' function to move Robot45 to location (3, 5).", 'Robot45 has been successfully moved to the location (3, 5).')
----
-replanner:
-    plan:
-        Use the 'grab_or_remove_item' function to remove the screws at location (3, 5) with Robot45.
-        Use the 'robot_status_change' function to set Robot45's status to 'idle' after the screws have been removed.
-    current step:
-        Use the 'grab_or_remove_item' function to remove the screws at location (3, 5) with Robot45.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action to be performed ('grab_or_remove_item') and the robot to perform it (Robot45). The Controller is responsible for controlling the robots and using the tools provided, which includes the 'grab_or_remove_item' function. Therefore, the Controller should act next to execute the specified function with Robot45 to remove the screws at the given location.
----
-Controller:
-   past steps: ("Use the 'grab_or_remove_item' function to remove the screws at location (3, 5) with Robot45.", 'Robot45 has successfully grabbed or removed the screws.')
----
-replanner:
-    plan:
-        Use the 'robot_status_change' function to set Robot45's status to 'idle' after the screws have been removed.
-    current step:
-        Use the 'robot_status_change' function to set Robot45's status to 'idle' after the screws have been removed.
----
-supervisor:
-   next agent: Controller
-   reason: The 'robot_status_change' function is one of the tools that the Controller is responsible for. The user request specifically asks to use this function to set Robot45's status to 'idle', which is within the domain of the Controller's responsibilities.
----
-Controller:
-   past steps: ("Use the 'robot_status_change' function to set Robot45's status to 'idle' after the screws have been removed.", "Robot45's status has been successfully changed to 'idle'.")
+   past steps: ("Use the robot_selection_tool with the 'screwdriver' tool property to determine the best suited robot to remove screws at location (6, 6).", 'The best suited robot to remove screws at location (6, 6) is Robot15, which is equipped with a screwdriver tool property.')
+---
+replanner:
+    plan:
+        Move Robot15 to location (6, 6) using the move_robot function.
+        Use the grab_or_remove_item function to remove the screws with Robot15.
+        Change Robot15's status to 'idle' using the robot_status_change function after the screws have been removed.
+    current step:
+        Move Robot15 to location (6, 6) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies a direct action involving the movement of a robot to a specific location. The Controller is responsible for controlling the robots and has the 'move_robot' tool, which is needed to move Robot15 to the desired position (6, 6). Therefore, the Controller is the correct worker to act next to fulfill this request.
+---
+Controller:
+   past steps: ('Move Robot15 to location (6, 6) using the move_robot function.', 'Robot15 has been successfully moved to the location (6, 6).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function to remove the screws with Robot15.
+        Change Robot15's status to 'idle' using the robot_status_change function after the screws have been removed.
+    current step:
+        Use the grab_or_remove_item function to remove the screws with Robot15.
+---
+supervisor:
+   next agent: Controller
+   reason: The user request specifies the action to be performed (grab_or_remove_item) and the robot to perform it (Robot15). Since the Controller is responsible for controlling the robots and using the tools such as grab_or_remove_item, it is the appropriate worker to act next to execute the given task.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function to remove the screws with Robot15.', 'Robot15 has successfully grabbed/removed the screws.')
+---
+replanner:
+    plan:
+        Change Robot15's status to 'idle' using the robot_status_change function after the screws have been removed.
+    current step:
+        Change Robot15's status to 'idle' using the robot_status_change function after the screws have been removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to change Robot15's status to 'idle' after the screws have been removed. Since the task specifically mentions using the 'robot_status_change' function, the Controller is the correct worker to perform the current_step.
+---
+Controller:
+   past steps: ("Change Robot15's status to 'idle' using the robot_status_change function after the screws have been removed.", "Robot15 has successfully removed the screws and its status has been changed to 'idle'.")
 ---
 replanner:
     response:
-        The screws at location (3, 5) have been successfully removed by Robot45, and the robot's status is now set to 'idle'. The task is complete.
+        The screws at location (6, 6) have been successfully removed by Robot15, which is equipped with a screwdriver tool property. The robot has been set to 'idle' status, completing the task.
 ---
 </t>
         </is>

--- a/Results/Raw_output/output_Medium_react.xlsx
+++ b/Results/Raw_output/output_Medium_react.xlsx
@@ -424,72 +424,72 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Move to location (11, 8) and remove the toolkit.</t>
+          <t>Move to location (12, 6) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool with the 'gripper' tool property and the item position (11, 8) to select the best suited robot for the task.
-        Move the selected robot to location (11, 8) using the move_robot function.
-        Grab or remove the toolkit at location (11, 8) using the grab_or_remove_item function.
-        Change the robot's status to 'idle' using the robot_status_change function after the toolkit has been removed.
-    current step:
-       Use the robot_selection_tool with the 'gripper' tool property and the item position (11, 8) to select the best suited robot for the task.
+        Use the select_known_robot_tool to verify if the specified robot has a gripper tool property, which is required to remove the toolkit.
+        Use the move_robot function to move the specified robot to location (12, 6).
+        Use the grab_or_remove_item function to remove the toolkit from location (12, 6).
+        Use the robot_status_change function to set the robot's status to idle after the toolkit has been removed.
+    current step:
+       Use the select_known_robot_tool to verify if the specified robot has a gripper tool property, which is required to remove the toolkit.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the need to use the robot_selection_tool with a particular tool property ('gripper') and an item position (11, 8). The Robot_selector is responsible for selecting the correct robot using the robot_selection_tool, which makes it the appropriate worker to act next in order to fulfill the user's request.
+   reason: The Robot_selector should act next to use the select_known_robot_tool to verify if the specified robot has a gripper tool property, which is required to remove the toolkit.
 ---
 Robot_selector:
-   past steps: ("Use the robot_selection_tool with the 'gripper' tool property and the item position (11, 8) to select the best suited robot for the task.", "The best suited robot to solve the task with the 'gripper' tool property at the position (11, 8) is Robot32.")
----
-replanner:
-    plan:
-        Move Robot32 to location (11, 8) using the move_robot function.
-        Grab or remove the toolkit at location (11, 8) using the grab_or_remove_item function.
-        Change Robot32's status to 'idle' using the robot_status_change function after the toolkit has been removed.
-    current step:
-        Move Robot32 to location (11, 8) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving moving a robot to a desired position. The Controller is responsible for controlling the robots and has the 'move_robot' tool which is needed to perform this task. Since the specific robot (Robot32) and the desired position ((11, 8)) are both provided, there is no need for the Robot_selector to intervene.
----
-Controller:
-   past steps: ('Move Robot32 to location (11, 8) using the move_robot function.', 'Robot32 has been successfully moved to the location (11, 8).')
----
-replanner:
-    plan:
-        Grab or remove the toolkit at location (11, 8) using the grab_or_remove_item function.
-        Change Robot32's status to 'idle' using the robot_status_change function after the toolkit has been removed.
-    current step:
-        Grab or remove the toolkit at location (11, 8) using the grab_or_remove_item function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action of grabbing or removing an item, which is a task that falls under the responsibilities of the Controller. The Controller has the tool 'grab_or_remove_item' which is designed for this exact purpose. Therefore, the Controller is the correct worker to perform the current_step of grabbing or removing the toolkit at the specified location.
----
-Controller:
-   past steps: ('Grab or remove the toolkit at location (11, 8) using the grab_or_remove_item function.', 'The toolkit at location (11, 8) has been successfully grabbed/removed.')
----
-replanner:
-    plan:
-        Change Robot32's status to 'idle' using the robot_status_change function after the toolkit has been removed.
-    current step:
-        Change Robot32's status to 'idle' using the robot_status_change function after the toolkit has been removed.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots with a set of tools, including the robot_status_change function. Since the user request is to change Robot32's status to 'idle' after the toolkit has been removed, the Controller is the appropriate worker to perform this task using the robot_status_change tool.
----
-Controller:
-   past steps: ("Change Robot32's status to 'idle' using the robot_status_change function after the toolkit has been removed.", "Robot32 has successfully removed the toolkit and its status has been changed to 'idle'.")
+   past steps: ('Use the select_known_robot_tool to verify if the specified robot has a gripper tool property, which is required to remove the toolkit.', 'The robot "Robot22" has a gripper tool property and is best suited to solve the task.')
+---
+replanner:
+    plan:
+        Use the move_robot function to move Robot22 to location (12, 6).
+        Use the grab_or_remove_item function to remove the toolkit from location (12, 6).
+        Use the robot_status_change function to set Robot22's status to idle after the toolkit has been removed.
+    current step:
+        Use the move_robot function to move Robot22 to location (12, 6).
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller because the task requires using the move_robot function to move Robot22 to a specific location.
+---
+Controller:
+   past steps: ('Use the move_robot function to move Robot22 to location (12, 6).', 'The robot has been successfully moved to the specified location.')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function to remove the toolkit from location (12, 6).
+        Use the robot_status_change function to set Robot22's status to idle after the toolkit has been removed.
+    current step:
+        Use the grab_or_remove_item function to remove the toolkit from location (12, 6).
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller should act next because the task involves using the grab_or_remove_item function, which falls under the responsibility of the Controller. This function is used to remove an item from a specific location, and the Controller is responsible for controlling the robots and their tools, including the grab_or_remove_item function.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function to remove the toolkit from location (12, 6).', 'The toolkit has been successfully removed from location (12, 6) by robot1.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function to set Robot22's status to idle after the toolkit has been removed.
+    current step:
+        Use the robot_status_change function to set Robot22's status to idle after the toolkit has been removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller should act next to use the robot_status_change function to set Robot22's status to idle after the toolkit has been removed.
+---
+Controller:
+   past steps: ("Use the robot_status_change function to set Robot22's status to idle after the toolkit has been removed.", 'The status of Robot22 has been successfully changed to idle after the toolkit has been removed.')
 ---
 replanner:
     response:
-        The toolkit at location (11, 8) has been successfully removed by Robot32, which is now set to 'idle' status. The task is complete.
+        The toolkit has been successfully removed from location (12, 6) by Robot22, and its status has been set to idle after completing the task.
 ---
 </t>
         </is>
@@ -498,72 +498,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move to location (7, 5) and remove the liquid spill.</t>
+          <t>Move to location (2, 10) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool with the 'mop' or 'vacuum' tool property to find the best suited robot for cleaning a liquid spill, and the item position (7, 5).
-        Use the move_robot function to move the selected robot to location (7, 5).
-        Use the grab_or_remove_item function with the selected robot's name to remove the liquid spill at location (7, 5).
-        Use the robot_status_change function to set the robot's status to 'idle' after the liquid spill has been removed.
-    current step:
-       Use the robot_selection_tool with the 'mop' or 'vacuum' tool property to find the best suited robot for cleaning a liquid spill, and the item position (7, 5).
+        Use the robot_selection_tool with the 'mop' or 'vacuum' tool property to find the best suited robot for cleaning a liquid spill at location (2, 10).
+        Move the selected robot to location (2, 10) using the move_robot function.
+        Use the grab_or_remove_item function to remove the liquid spill at the robot's location.
+        Change the robot's status to 'idle' using the robot_status_change function after the liquid spill is removed.
+    current step:
+       Use the robot_selection_tool with the 'mop' or 'vacuum' tool property to find the best suited robot for cleaning a liquid spill at location (2, 10).
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the need to select the best suited robot for cleaning a liquid spill, which requires a robot with either a 'mop' or 'vacuum' tool property. The Robot_selector is responsible for selecting the correct robot using the robot_selection_tool, which is the appropriate tool to use in this scenario given the desired robot tool property and the item position provided.
+   reason: The Robot_selector should act next to use the robot_selection_tool to find the best suited robot for cleaning the liquid spill.
 ---
 Robot_selector:
-   past steps: ("Use the robot_selection_tool with the 'mop' or 'vacuum' tool property to find the best suited robot for cleaning a liquid spill, and the item position (7, 5).", 'The best suited robot to clean a liquid spill at position (7, 5) is Robot6, which is equipped with a mop.')
----
-replanner:
-    plan:
-        Use the move_robot function to move Robot6 to location (7, 5).
-        Use the grab_or_remove_item function with Robot6 to remove the liquid spill at location (7, 5).
-        Use the robot_status_change function to set Robot6's status to 'idle' after the liquid spill has been removed.
-    current step:
-        Use the move_robot function to move Robot6 to location (7, 5).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifically asks to use the 'move_robot' function to move Robot6 to a certain location. The 'move_robot' function is a tool that is within the Controller's set of tools. Therefore, the Controller is the appropriate worker to act next to fulfill this request.
----
-Controller:
-   past steps: ('Use the move_robot function to move Robot6 to location (7, 5).', 'Robot6 has been successfully moved to the location (7, 5).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot6 to remove the liquid spill at location (7, 5).
-        Use the robot_status_change function to set Robot6's status to 'idle' after the liquid spill has been removed.
-    current step:
-        Use the grab_or_remove_item function with Robot6 to remove the liquid spill at location (7, 5).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving a robot (Robot6) and an item (liquid spill). The Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to remove the item at the specified location. Therefore, the Controller is the appropriate worker to perform the current_step.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function with Robot6 to remove the liquid spill at location (7, 5).', 'Robot6 has successfully removed the liquid spill.')
----
-replanner:
-    plan:
-        Use the robot_status_change function to set Robot6's status to 'idle' after the liquid spill has been removed.
-    current step:
-        Use the robot_status_change function to set Robot6's status to 'idle' after the liquid spill has been removed.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to set Robot6's status to 'idle' after completing the task of removing the liquid spill.
----
-Controller:
-   past steps: ("Use the robot_status_change function to set Robot6's status to 'idle' after the liquid spill has been removed.", "Robot6's status has been successfully changed to 'idle'.")
+   past steps: ("Use the robot_selection_tool with the 'mop' or 'vacuum' tool property to find the best suited robot for cleaning a liquid spill at location (2, 10).", 'Two robots have been selected for the task:\n1. Robot6 with the tool property "mop" for cleaning the liquid spill at location (2, 10).\n2. Robot50 with the tool property "vacuum" for cleaning the liquid spill at location (2, 10).')
+---
+replanner:
+    plan:
+        Move Robot6 to location (2, 10) using the move_robot function.
+        Use the grab_or_remove_item function with Robot6 to remove the liquid spill at location (2, 10).
+        Change Robot6's status to 'idle' using the robot_status_change function after the liquid spill is removed.
+    current step:
+        Move Robot6 to location (2, 10) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller should act next because it is responsible for controlling the robots and has the tool 'move_robot' to perform the requested action of moving Robot6 to a specific location.
+---
+Controller:
+   past steps: ('Move Robot6 to location (2, 10) using the move_robot function.', 'Robot6 has been moved to the desired position (2, 10).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot6 to remove the liquid spill at location (2, 10).
+        Change Robot6's status to 'idle' using the robot_status_change function after the liquid spill is removed.
+    current step:
+        Use the grab_or_remove_item function with Robot6 to remove the liquid spill at location (2, 10).
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller should act next because the task involves using the grab_or_remove_item function to remove the liquid spill, which falls under the responsibility of controlling the robots and their tools.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function with Robot6 to remove the liquid spill at location (2, 10).', 'The liquid spill at location (2, 10) has been successfully removed by Robot6.')
+---
+replanner:
+    plan:
+        Change Robot6's status to 'idle' using the robot_status_change function after the liquid spill is removed.
+    current step:
+        Change Robot6's status to 'idle' using the robot_status_change function after the liquid spill is removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller should act next because it is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to change Robot6's status to 'idle'.
+---
+Controller:
+   past steps: ("Change Robot6's status to 'idle' using the robot_status_change function after the liquid spill is removed.", "Robot6's status has been changed to 'idle' after the liquid spill has been removed.")
 ---
 replanner:
     response:
-        The liquid spill at location (7, 5) has been successfully removed by Robot6, which is equipped with a mop. Robot6's status is now set to 'idle'. The task is complete.
+        The liquid spill at location (2, 10) has been successfully removed by Robot6, and its status has been set to 'idle'. The task is now complete.
 ---
 </t>
         </is>
@@ -572,72 +572,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move to location (8, 6) and remove the large debris.</t>
+          <t>Move to location (12, 6) and remove the large debris.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool with the 'front loader' tool property and the item position (8, 6) to select the best suited robot for removing large debris.
-        Move the selected robot to location (8, 6) using the move_robot function.
-        Grab or remove the large debris at location (8, 6) using the grab_or_remove_item function.
-        Change the robot's status to 'idle' using the robot_status_change function after the removal of the debris is complete.
-    current step:
-       Use the robot_selection_tool with the 'front loader' tool property and the item position (8, 6) to select the best suited robot for removing large debris.
+        Use the robot_selection_tool with the 'front loader' property and the item position (12, 6) to select the best suited robot for removing large debris.
+        Use the move_robot function with the selected robot's name and the desired position (12, 6) to move the robot to the location of the large debris.
+        Use the grab_or_remove_item function with the selected robot's name and the item name 'large debris' to remove the debris from the location.
+        Use the robot_status_change function with the selected robot's name and the status 'idle' to set the robot's status after the task is complete.
+    current step:
+       Use the robot_selection_tool with the 'front loader' property and the item position (12, 6) to select the best suited robot for removing large debris.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request involves selecting the best suited robot for a specific task, which in this case is removing large debris. The robot_selection_tool with the 'front loader' tool property and the item position (8, 6) needs to be used to determine the best robot for the job. The Robot_selector is responsible for selecting the correct robot using the robot_selection_tool, making it the appropriate worker to act next.
+   reason: The Robot_selector should act next to use the robot_selection_tool to determine the best suited robot for removing large debris based on the 'front loader' property and item position.
 ---
 Robot_selector:
-   past steps: ("Use the robot_selection_tool with the 'front loader' tool property and the item position (8, 6) to select the best suited robot for removing large debris.", "Robot29 is the best suited to solve the task of removing large debris at the position (8, 6) with its 'front loader' tool property.")
----
-replanner:
-    plan:
-        Move Robot29 to location (8, 6) using the move_robot function.
-        Grab or remove the large debris at location (8, 6) using the grab_or_remove_item function.
-        Change Robot29's status to 'idle' using the robot_status_change function after the removal of the debris is complete.
-    current step:
-        Move Robot29 to location (8, 6) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving moving a robot to a specific location. The Controller is responsible for controlling the robots and has the 'move_robot' tool which is needed to carry out this task.
----
-Controller:
-   past steps: ('Move Robot29 to location (8, 6) using the move_robot function.', 'Robot29 has been successfully moved to the location (8, 6).')
----
-replanner:
-    plan:
-        Grab or remove the large debris at location (8, 6) using the grab_or_remove_item function with Robot29.
-        Change Robot29's status to 'idle' using the robot_status_change function after the removal of the debris is complete.
-    current step:
-        Grab or remove the large debris at location (8, 6) using the grab_or_remove_item function with Robot29.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action to grab or remove an item and also identifies the specific robot (Robot29) to perform the task. Since the Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to execute this task, the Controller is the correct worker to act next.
----
-Controller:
-   past steps: ('Grab or remove the large debris at location (8, 6) using the grab_or_remove_item function with Robot29.', 'Robot29 has successfully grabbed or removed the large debris.')
----
-replanner:
-    plan:
-        Change Robot29's status to 'idle' using the robot_status_change function after the removal of the debris is complete.
-    current step:
-        Change Robot29's status to 'idle' using the robot_status_change function after the removal of the debris is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to change Robot29's status to 'idle' after the completion of the task.
----
-Controller:
-   past steps: ("Change Robot29's status to 'idle' using the robot_status_change function after the removal of the debris is complete.", "The status of Robot29 has been changed to 'idle' after the completion of the debris removal task.")
+   past steps: ("Use the robot_selection_tool with the 'front loader' property and the item position (12, 6) to select the best suited robot for removing large debris.", 'The best suited robot for removing large debris at position (12, 6) is Robot29, which has the front loader tool property.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot29's name and the desired position (12, 6) to move Robot29 to the location of the large debris.
+        Use the grab_or_remove_item function with Robot29's name and the item name 'large debris' to remove the debris from the location.
+        Use the robot_status_change function with Robot29's name and the status 'idle' to set Robot29's status after the task is complete.
+    current step:
+        Use the move_robot function with Robot29's name and the desired position (12, 6) to move Robot29 to the location of the large debris.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step requires using the move_robot tool to move Robot29 to a specific position. This falls under the responsibility of the Controller, who is in charge of controlling the robots and their movements.
+---
+Controller:
+   past steps: ("Use the move_robot function with Robot29's name and the desired position (12, 6) to move Robot29 to the location of the large debris.", 'Robot29 has been successfully moved to the location of the large debris.')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot29's name and the item name 'large debris' to remove the debris from the location.
+        Use the robot_status_change function with Robot29's name and the status 'idle' to set Robot29's status after the task is complete.
+    current step:
+        Use the grab_or_remove_item function with Robot29's name and the item name 'large debris' to remove the debris from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller should act next to use the grab_or_remove_item function with Robot29's name and the item name 'large debris' to remove the debris from the location.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot29's name and the item name 'large debris' to remove the debris from the location.", 'The large debris has been successfully removed by Robot29.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot29's name and the status 'idle' to set Robot29's status after the task is complete.
+    current step:
+        Use the robot_status_change function with Robot29's name and the status 'idle' to set Robot29's status after the task is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller because it involves changing the status of a robot, which falls under the responsibility of the Controller.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot29's name and the status 'idle' to set Robot29's status after the task is complete.", 'The status of Robot29 has been successfully changed to "idle" after completing the task.')
 ---
 replanner:
     response:
-        The task has been successfully completed. Robot29, equipped with a front loader, has moved to location (8, 6), removed the large debris, and is now set to 'idle' status.
+        The large debris at location (12, 6) has been successfully removed by Robot29, which is equipped with a front loader. Robot29's status is now set to 'idle'. The task is complete.
 ---
 </t>
         </is>
@@ -646,72 +646,72 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move to location (2, 4) and remove the dust.</t>
+          <t>Move to location (1, 11) and remove the dust.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool to determine the best suited robot to move to location (2, 4) and remove the dust. The robot should have a vacuum tool property to handle dust removal.
-        Move the selected robot to location (2, 4) using the move_robot function.
-        Use the grab_or_remove_item function to remove the dust from location (2, 4) with the robot equipped with the vacuum tool property.
-        Change the robot's status to idle using the robot_status_change function after the dust has been removed.
-    current step:
-       Use the robot_selection_tool to determine the best suited robot to move to location (2, 4) and remove the dust. The robot should have a vacuum tool property to handle dust removal.
+        Use the robot_selection_tool with the desired_robot_tool_property 'vacuum' to determine the best suited robot to solve the objective of removing dust at location (1, 11).
+        Move the selected robot to location (1, 11) using the move_robot function.
+        Use the grab_or_remove_item function to remove the dust from location (1, 11) with the selected robot.
+        Change the robot's status to 'idle' using the robot_status_change function after the dust has been removed.
+    current step:
+       Use the robot_selection_tool with the desired_robot_tool_property 'vacuum' to determine the best suited robot to solve the objective of removing dust at location (1, 11).
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the need to determine the best suited robot to move to a location and remove dust, requiring a vacuum tool property. Since no specific robot is mentioned, the robot_selection_tool provided by the Robot_selector is the appropriate tool to use for selecting the correct robot based on the desired robot tool property and the item's position.
+   reason: The Robot_selector should act next to use the robot_selection_tool to determine the best suited robot for the objective.
 ---
 Robot_selector:
-   past steps: ('Use the robot_selection_tool to determine the best suited robot to move to location (2, 4) and remove the dust. The robot should have a vacuum tool property to handle dust removal.', 'Robot50 is the best suited to move to location (2, 4) and remove the dust, as it has the vacuum tool property required for dust removal.')
----
-replanner:
-    plan:
-        Move Robot50 to location (2, 4) using the move_robot function.
-        Use the grab_or_remove_item function to remove the dust from location (2, 4) with Robot50 equipped with the vacuum tool property.
-        Change Robot50's status to idle using the robot_status_change function after the dust has been removed.
-    current step:
-        Move Robot50 to location (2, 4) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to move a specific robot, Robot50, to a new location (2, 4). The Controller is responsible for controlling the robots and has the tool 'move_robot' which is used to move a selected robot to a given position. Since the robot name and desired position are provided, the Controller is the appropriate worker to carry out this task.
----
-Controller:
-   past steps: ('Move Robot50 to location (2, 4) using the move_robot function.', 'Robot50 has been successfully moved to the location (2, 4).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function to remove the dust from location (2, 4) with Robot50 equipped with the vacuum tool property.
-        Change Robot50's status to idle using the robot_status_change function after the dust has been removed.
-    current step:
-        Use the grab_or_remove_item function to remove the dust from location (2, 4) with Robot50 equipped with the vacuum tool property.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action to be performed (grab_or_remove_item), the robot to perform the action (Robot50), and the item to be interacted with (dust). Since the Controller is responsible for controlling the robots and using the tools such as grab_or_remove_item, and the robot and item are already specified, the Controller is the correct worker to act next to execute the task.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function to remove the dust from location (2, 4) with Robot50 equipped with the vacuum tool property.', 'Robot50 has successfully removed the dust from the location (2, 4).')
----
-replanner:
-    plan:
-        Change Robot50's status to idle using the robot_status_change function after the dust has been removed.
-    current step:
-        Change Robot50's status to idle using the robot_status_change function after the dust has been removed.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to change Robot50's status to idle after the dust has been removed. Since the task specifically mentions using the 'robot_status_change' function, the Controller is the correct worker to act next.
----
-Controller:
-   past steps: ("Change Robot50's status to idle using the robot_status_change function after the dust has been removed.", 'Robot50 has successfully removed the dust and its status is now set to idle.')
+   past steps: ("Use the robot_selection_tool with the desired_robot_tool_property 'vacuum' to determine the best suited robot to solve the objective of removing dust at location (1, 11).", 'The best suited robot to remove dust at location (1, 11) is Robot50.')
+---
+replanner:
+    plan:
+        Move Robot50 to location (1, 11) using the move_robot function.
+        Use the grab_or_remove_item function to remove the dust from location (1, 11) with Robot50.
+        Change Robot50's status to 'idle' using the robot_status_change function after the dust has been removed.
+    current step:
+        Move Robot50 to location (1, 11) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller should act next because it is responsible for controlling the robots and has the tool 'move_robot' to perform the requested action of moving Robot50 to location (1, 11).
+---
+Controller:
+   past steps: ('Move Robot50 to location (1, 11) using the move_robot function.', 'The robot has been successfully moved to the specified location.')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function to remove the dust from location (1, 11) with Robot50.
+        Change Robot50's status to 'idle' using the robot_status_change function after the dust has been removed.
+    current step:
+        Use the grab_or_remove_item function to remove the dust from location (1, 11) with Robot50.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller should act next because the task involves using the grab_or_remove_item function, which falls under the responsibility of the Controller to control the robots and their tools.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function to remove the dust from location (1, 11) with Robot50.', 'The dust has been successfully removed from location (1, 11) by Robot50.')
+---
+replanner:
+    plan:
+        Change Robot50's status to 'idle' using the robot_status_change function after the dust has been removed.
+    current step:
+        Change Robot50's status to 'idle' using the robot_status_change function after the dust has been removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller should act next because the task involves changing the status of a robot, which falls under the responsibility of the Controller. The robot_status_change function is used to change the status of the robot to 'idle' after the dust has been removed.
+---
+Controller:
+   past steps: ("Change Robot50's status to 'idle' using the robot_status_change function after the dust has been removed.", "Robot50's status has been changed to 'idle' after the dust has been removed, and Robot50 has been moved to the desired position (0, 0).")
 ---
 replanner:
     response:
-        Robot50 equipped with a vacuum has successfully removed the dust from location (2, 4) and is now set to idle.
+        The dust at location (1, 11) has been successfully removed by Robot50, which is now set to 'idle' and moved to the desired position (0, 0). The task is complete.
 ---
 </t>
         </is>
@@ -720,72 +720,72 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move to location (5, 2) and remove the grass.</t>
+          <t>Move to location (4, 2) and remove the grass.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool to determine the best suited robot with the lawnmower tool property to remove grass at location (5, 2).
-        Move the selected robot to location (5, 2) using the move_robot function.
-        Remove the grass at location (5, 2) by using the grab_or_remove_item function with the selected robot.
-        Change the robot's status to idle using the robot_status_change function after the grass removal is complete.
-    current step:
-       Use the robot_selection_tool to determine the best suited robot with the lawnmower tool property to remove grass at location (5, 2).
+        Use the robot_selection_tool with the 'lawnmower' tool property and the item position (4, 2) to select the best suited robot for the grass removal task.
+        Use the move_robot function with the selected robot's name and the desired position (4, 2) to move the robot to the location of the grass.
+        Use the grab_or_remove_item function with the selected robot's name and the item name 'grass' to remove the grass from the location.
+        Use the robot_status_change function with the selected robot's name and the status 'idle' to set the robot's status to idle after the grass removal is complete.
+    current step:
+       Use the robot_selection_tool with the 'lawnmower' tool property and the item position (4, 2) to select the best suited robot for the grass removal task.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the need to determine the best suited robot with a specific tool property (lawnmower) for a task at a given location. The Robot_selector is responsible for selecting the correct robot, and the robot_selection_tool is specifically designed to find the best suited robot based on a desired robot tool property and item position. Therefore, the Robot_selector should act next using the robot_selection_tool to fulfill the user's request.
+   reason: The Robot_selector should act next to use the robot_selection_tool to determine the best suited robot for the grass removal task based on the 'lawnmower' tool property and the item position (4, 2).
 ---
 Robot_selector:
-   past steps: ('Use the robot_selection_tool to determine the best suited robot with the lawnmower tool property to remove grass at location (5, 2).', 'Robot41 is the best suited to remove grass at location (5, 2) with the lawnmower tool property.')
----
-replanner:
-    plan:
-        Move Robot41 to location (5, 2) using the move_robot function.
-        Remove the grass at location (5, 2) by using the grab_or_remove_item function with Robot41.
-        Change Robot41's status to idle using the robot_status_change function after the grass removal is complete.
-    current step:
-        Move Robot41 to location (5, 2) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request is to move a specific robot, Robot41, to a new location (5, 2). The Controller is responsible for controlling the robots and has the 'move_robot' function, which is used to move a selected robot to a given position. Since the robot name and desired position are provided, the Controller is the appropriate worker to carry out this task.
----
-Controller:
-   past steps: ('Move Robot41 to location (5, 2) using the move_robot function.', 'Robot41 has been successfully moved to the location (5, 2).')
----
-replanner:
-    plan:
-        Remove the grass at location (5, 2) by using the grab_or_remove_item function with Robot41.
-        Change Robot41's status to idle using the robot_status_change function after the grass removal is complete.
-    current step:
-        Remove the grass at location (5, 2) by using the grab_or_remove_item function with Robot41.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action to remove grass at a specific location using the 'grab_or_remove_item' function and identifies Robot41 as the robot to perform the task. Since the Controller is responsible for controlling the robots and using tools such as 'grab_or_remove_item', it is the appropriate worker to carry out this action.
----
-Controller:
-   past steps: ('Remove the grass at location (5, 2) by using the grab_or_remove_item function with Robot41.', 'The grass at location (5, 2) has been removed by Robot41.')
----
-replanner:
-    plan:
-        Change Robot41's status to idle using the robot_status_change function after the grass removal is complete.
-    current step:
-        Change Robot41's status to idle using the robot_status_change function after the grass removal is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action to be taken on a known robot, Robot41, which involves changing its status to idle after completing a task. The Controller is responsible for controlling the robots and has the tool 'robot_status_change' needed to change the robot's status. Therefore, the Controller is the appropriate worker to perform the current_step.
----
-Controller:
-   past steps: ("Change Robot41's status to idle using the robot_status_change function after the grass removal is complete.", "Robot41's status has been changed to idle.")
+   past steps: ("Use the robot_selection_tool with the 'lawnmower' tool property and the item position (4, 2) to select the best suited robot for the grass removal task.", 'The best suited robot for the grass removal task with the lawnmower tool property at position (4, 2) is Robot41.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot41's name and the desired position (4, 2) to move the robot to the location of the grass.
+        Use the grab_or_remove_item function with Robot41's name and the item name 'grass' to remove the grass from the location.
+        Use the robot_status_change function with Robot41's name and the status 'idle' to set the robot's status to idle after the grass removal is complete.
+    current step:
+        Use the move_robot function with Robot41's name and the desired position (4, 2) to move the robot to the location of the grass.
+---
+supervisor:
+   next agent: Controller
+   reason: The next worker should be the Controller because the task requires using the move_robot function to move Robot41 to a specific position, which falls under the responsibility of the Controller.
+---
+Controller:
+   past steps: ("Use the move_robot function with Robot41's name and the desired position (4, 2) to move the robot to the location of the grass.", 'The robot has been successfully moved to the location of the grass.')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot41's name and the item name 'grass' to remove the grass from the location.
+        Use the robot_status_change function with Robot41's name and the status 'idle' to set the robot's status to idle after the grass removal is complete.
+    current step:
+        Use the grab_or_remove_item function with Robot41's name and the item name 'grass' to remove the grass from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller because it involves using the grab_or_remove_item tool to remove the grass from Robot41's location.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot41's name and the item name 'grass' to remove the grass from the location.", 'The grass has been successfully removed by Robot41.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot41's name and the status 'idle' to set the robot's status to idle after the grass removal is complete.
+    current step:
+        Use the robot_status_change function with Robot41's name and the status 'idle' to set the robot's status to idle after the grass removal is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller, as it involves changing the status of the robot to 'idle' after completing the grass removal task.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot41's name and the status 'idle' to set the robot's status to idle after the grass removal is complete.", 'The status of Robot41 has been successfully changed to "idle."')
 ---
 replanner:
     response:
-        The grass at location (5, 2) has been successfully removed and Robot41's status has been set to idle. The task is complete.
+        The grass at location (4, 2) has been successfully removed by Robot41, which is now set to idle status.
 ---
 </t>
         </is>
@@ -794,72 +794,30 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move to location (6, 7) and remove the small debris.</t>
+          <t>Move to location (9, 9) and remove the small debris.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool to determine the best suited robot to remove small debris at location (6, 7).
-        Move the selected robot to location (6, 7) using the move_robot function.
-        Grab or remove the small debris using the grab_or_remove_item function with the selected robot.
-        Change the robot's status to idle using the robot_status_change function after the task is complete.
-    current step:
-       Use the robot_selection_tool to determine the best suited robot to remove small debris at location (6, 7).
+        Use the robot_selection_tool to determine the best suited robot to move to location (9, 9) and remove the small debris. The robot should have a tool property such as a vacuum or broom.
+        Move the selected robot to location (9, 9) using the move_robot function.
+        Use the grab_or_remove_item function to remove the small debris from location (9, 9).
+        Change the robot's status to idle using the robot_status_change function after the removal of the small debris is complete.
+    current step:
+       Use the robot_selection_tool to determine the best suited robot to move to location (9, 9) and remove the small debris. The robot should have a tool property such as a vacuum or broom.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the need to determine the best suited robot to remove small debris at a specific location. Since no robot is specified, the robot_selection_tool provided by the Robot_selector is the appropriate tool to use for selecting the correct robot based on the desired robot tool property and the item's position.
+   reason: The Robot_selector should act next to determine the best suited robot for the objective based on the tool property required.
 ---
 Robot_selector:
-   past steps: ('Use the robot_selection_tool to determine the best suited robot to remove small debris at location (6, 7).', 'The best suited robot to remove small debris at location (6, 7) is Robot50, equipped with a vacuum.')
----
-replanner:
-    plan:
-        Move Robot50 to location (6, 7) using the move_robot function.
-        Grab or remove the small debris using the grab_or_remove_item function with Robot50.
-        Change Robot50's status to idle using the robot_status_change function after the task is complete.
-    current step:
-        Move Robot50 to location (6, 7) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving moving a robot to a specific location. The Controller is responsible for controlling the robots and has the 'move_robot' tool, which is needed to carry out this task. Therefore, the Controller is the appropriate worker to act next.
----
-Controller:
-   past steps: ('Move Robot50 to location (6, 7) using the move_robot function.', 'Robot50 has been successfully moved to the location (6, 7).')
----
-replanner:
-    plan:
-        Grab or remove the small debris using the grab_or_remove_item function with Robot50.
-        Change Robot50's status to idle using the robot_status_change function after the task is complete.
-    current step:
-        Grab or remove the small debris using the grab_or_remove_item function with Robot50.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action to be taken (grab or remove item) and the robot to perform the task (Robot50). Since the Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to execute this task, the Controller should be the next to act.
----
-Controller:
-   past steps: ('Grab or remove the small debris using the grab_or_remove_item function with Robot50.', 'Robot50 has successfully grabbed or removed the small debris.')
----
-replanner:
-    plan:
-        Change Robot50's status to idle using the robot_status_change function after the task is complete.
-    current step:
-        Change Robot50's status to idle using the robot_status_change function after the task is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to change Robot50's status to idle after the task is complete.
----
-Controller:
-   past steps: ("Change Robot50's status to idle using the robot_status_change function after the task is complete.", 'The status of Robot50 has been changed to idle.')
+   past steps: ('Use the robot_selection_tool to determine the best suited robot to move to location (9, 9) and remove the small debris. The robot should have a tool property such as a vacuum or broom.', 'It appears that "robot4" is also not a valid robot. It seems that there are no valid robots available with the specified tool property to solve the task.')
 ---
 replanner:
     response:
-        The small debris at location (6, 7) has been successfully removed by Robot50, which is equipped with a vacuum. Robot50's status is now set to idle, and the task is complete.
+        It appears that there are no valid robots available with the specified tool property to solve the task at location (9, 9).
 ---
 </t>
         </is>
@@ -868,72 +826,72 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move to location (3, 6) and remove the vehicle.</t>
+          <t>Move to location (5, 3) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool with the 'tow hook' property and the item position (3, 6) to select the best suited robot for removing a vehicle.
-        Move the selected robot to location (3, 6) using the move_robot function.
-        Grab or remove the vehicle at location (3, 6) using the grab_or_remove_item function.
-        Change the robot's status to 'idle' using the robot_status_change function after the vehicle has been removed.
-    current step:
-       Use the robot_selection_tool with the 'tow hook' property and the item position (3, 6) to select the best suited robot for removing a vehicle.
+        Use the robot_selection_tool with the desired_robot_tool_property 'tow hook' to select the best suited robot for removing a vehicle, and provide the item position (5, 3).
+        Use the move_robot function to move the selected robot to location (5, 3).
+        Use the grab_or_remove_item function with the selected robot to remove the vehicle at location (5, 3).
+        Use the robot_status_change function to set the robot's status to 'idle' after the removal of the vehicle is complete.
+    current step:
+       Use the robot_selection_tool with the desired_robot_tool_property 'tow hook' to select the best suited robot for removing a vehicle, and provide the item position (5, 3).
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request involves selecting the best suited robot for a specific task, which in this case is removing a vehicle at a given position. The Robot_selector is responsible for selecting the correct robot using the robot_selection_tool, which is needed here to determine the best suited robot with the 'tow hook' property for the item position (3, 6).
+   reason: The Robot_selector should act next to use the robot_selection_tool to determine the best suited robot for the task based on the desired_robot_tool_property 'tow hook'.
 ---
 Robot_selector:
-   past steps: ("Use the robot_selection_tool with the 'tow hook' property and the item position (3, 6) to select the best suited robot for removing a vehicle.", 'The best suited robot to remove a vehicle at position (3, 6) is Robot13, which is equipped with a tow hook.')
----
-replanner:
-    plan:
-        Move Robot13 to location (3, 6) using the move_robot function.
-        Grab or remove the vehicle at location (3, 6) using the grab_or_remove_item function.
-        Change Robot13's status to 'idle' using the robot_status_change function after the vehicle has been removed.
-    current step:
-        Move Robot13 to location (3, 6) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving the movement of a robot to a specific location. The Controller is responsible for controlling the robots and has the 'move_robot' tool, which is needed to move Robot13 to the desired position (3, 6). Therefore, the Controller is the correct worker to perform the current_step.
----
-Controller:
-   past steps: ('Move Robot13 to location (3, 6) using the move_robot function.', 'Robot13 has been successfully moved to the location (3, 6).')
----
-replanner:
-    plan:
-        Grab or remove the vehicle at location (3, 6) using the grab_or_remove_item function with Robot13.
-        Change Robot13's status to 'idle' using the robot_status_change function after the vehicle has been removed.
-    current step:
-        Grab or remove the vehicle at location (3, 6) using the grab_or_remove_item function with Robot13.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action to grab or remove an item at a specific location using a specific robot (Robot13). The Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to perform this task. Therefore, the Controller should act next to execute the function with Robot13.
----
-Controller:
-   past steps: ('Grab or remove the vehicle at location (3, 6) using the grab_or_remove_item function with Robot13.', 'Robot13 has successfully grabbed or removed the vehicle at location (3, 6).')
----
-replanner:
-    plan:
-        Change Robot13's status to 'idle' using the robot_status_change function after the vehicle has been removed.
-    current step:
-        Change Robot13's status to 'idle' using the robot_status_change function after the vehicle has been removed.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to change Robot13's status to 'idle'. Since the task specifically mentions using the 'robot_status_change' function, the Controller is the correct worker to perform this current_step.
----
-Controller:
-   past steps: ("Change Robot13's status to 'idle' using the robot_status_change function after the vehicle has been removed.", "Robot13 has successfully removed the vehicle and its status has been changed to 'idle'.")
+   past steps: ("Use the robot_selection_tool with the desired_robot_tool_property 'tow hook' to select the best suited robot for removing a vehicle, and provide the item position (5, 3).", 'The best suited robot for removing a vehicle with a tow hook at position (5, 3) is Robot13.')
+---
+replanner:
+    plan:
+        Use the move_robot function to move Robot13 to location (5, 3).
+        Use the grab_or_remove_item function with Robot13 to remove the vehicle at location (5, 3).
+        Use the robot_status_change function to set Robot13's status to 'idle' after the removal of the vehicle is complete.
+    current step:
+        Use the move_robot function to move Robot13 to location (5, 3).
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller should act next because the task requires using the move_robot function to move Robot13 to a specific location.
+---
+Controller:
+   past steps: ('Use the move_robot function to move Robot13 to location (5, 3).', 'The robot has been successfully moved to location (5, 3).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot13 to remove the vehicle at location (5, 3).
+        Use the robot_status_change function to set Robot13's status to 'idle' after the removal of the vehicle is complete.
+    current step:
+        Use the grab_or_remove_item function with Robot13 to remove the vehicle at location (5, 3).
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller because it involves using the grab_or_remove_item tool to remove an item with a specific robot (Robot13) at a given location. This falls under the responsibility of the Controller in controlling the robots and their actions.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function with Robot13 to remove the vehicle at location (5, 3).', 'The vehicle at location (5, 3) has been successfully removed by Robot13.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function to set Robot13's status to 'idle' after the removal of the vehicle is complete.
+    current step:
+        Use the robot_status_change function to set Robot13's status to 'idle' after the removal of the vehicle is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller should act next to use the robot_status_change function to set Robot13's status to 'idle' after the removal of the vehicle is complete.
+---
+Controller:
+   past steps: ("Use the robot_status_change function to set Robot13's status to 'idle' after the removal of the vehicle is complete.", "The status of Robot13 has been successfully changed to 'idle' after the removal of the vehicle.")
 ---
 replanner:
     response:
-        The vehicle at location (3, 6) has been successfully removed by Robot13, which is equipped with a tow hook. The robot's status is now set to 'idle'. No further action is required.
+        The vehicle at location (5, 3) has been successfully removed by Robot13, and its status has been set to 'idle'. The task is complete.
 ---
 </t>
         </is>
@@ -942,72 +900,72 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move to location (6, 6) and remove the construction materials.</t>
+          <t>Move to location (1, 5) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool to determine the best suited robot to move to location (6, 6) and remove the construction materials.
-        Move the selected robot to location (6, 6) using the move_robot function.
-        Use the grab_or_remove_item function to remove the construction materials from location (6, 6).
-        Set the robot's status to idle using the robot_status_change function after the construction materials have been removed.
-    current step:
-       Use the robot_selection_tool to determine the best suited robot to move to location (6, 6) and remove the construction materials.
+        Use the robot_selection_tool with the desired_robot_tool_property 'front loader' to determine the best suited robot to move to location (1, 5) and remove the construction materials.
+        Use the move_robot function with the robot name obtained from the previous step to move the selected robot to location (1, 5).
+        Use the grab_or_remove_item function with the robot name obtained from the first step and the item_name 'construction materials' to remove the construction materials from location (1, 5).
+        Use the robot_status_change function with the robot name obtained from the first step to set the robot's status to 'idle' after the construction materials have been removed.
+    current step:
+       Use the robot_selection_tool with the desired_robot_tool_property 'front loader' to determine the best suited robot to move to location (1, 5) and remove the construction materials.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request specifies the need to determine the best suited robot to move to a location and remove construction materials, but does not specify which robot to use. Therefore, the Robot_selector should use the robot_selection_tool to determine the best robot for the task based on the desired robot tool property and the item's position.
+   reason: The Robot_selector should act next to determine the best suited robot for the given objective using the robot_selection_tool.
 ---
 Robot_selector:
-   past steps: ('Use the robot_selection_tool to determine the best suited robot to move to location (6, 6) and remove the construction materials.', 'Robot2 is the best suited to move to location (6, 6) and remove the construction materials.')
----
-replanner:
-    plan:
-        Move Robot2 to location (6, 6) using the move_robot function.
-        Use the grab_or_remove_item function to remove the construction materials from location (6, 6).
-        Set Robot2's status to idle using the robot_status_change function after the construction materials have been removed.
-    current step:
-        Move Robot2 to location (6, 6) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving moving a robot to a specific location. The Controller is responsible for controlling the robots and has the 'move_robot' tool which is needed to carry out this task. Therefore, the Controller is the correct worker to act next.
----
-Controller:
-   past steps: ('Move Robot2 to location (6, 6) using the move_robot function.', 'Robot2 has been successfully moved to the location (6, 6).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function to remove the construction materials from location (6, 6).
-        Set Robot2's status to idle using the robot_status_change function after the construction materials have been removed.
-    current step:
-        Use the grab_or_remove_item function to remove the construction materials from location (6, 6).
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the use of the 'grab_or_remove_item' function, which is a tool controlled by the Controller. The Controller is responsible for directly controlling the robots, including using tools to manipulate items. Therefore, the Controller is the appropriate worker to perform the current_step of removing construction materials from the specified location.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function to remove the construction materials from location (6, 6).', 'The construction materials at location (6, 6) have been removed.')
----
-replanner:
-    plan:
-        Set Robot2's status to idle using the robot_status_change function after the construction materials have been removed.
-    current step:
-        Set Robot2's status to idle using the robot_status_change function after the construction materials have been removed.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to set Robot2's status to idle after the construction materials have been removed.
----
-Controller:
-   past steps: ("Set Robot2's status to idle using the robot_status_change function after the construction materials have been removed.", 'Robot2 has successfully removed the construction materials and its status is now set to idle.')
+   past steps: ("Use the robot_selection_tool with the desired_robot_tool_property 'front loader' to determine the best suited robot to move to location (1, 5) and remove the construction materials.", 'The best suited robot to move to location (1, 5) and remove the construction materials is Robot39, as it has the front loader tool property.')
+---
+replanner:
+    plan:
+        Use the move_robot function with the robot name 'Robot39' to move to location (1, 5).
+        Use the grab_or_remove_item function with the robot name 'Robot39' and the item_name 'construction materials' to remove the construction materials from location (1, 5).
+        Use the robot_status_change function with the robot name 'Robot39' to set the robot's status to 'idle' after the construction materials have been removed.
+    current step:
+        Use the move_robot function with the robot name 'Robot39' to move to location (1, 5).
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller, as the task involves controlling the robot to move to a specific location using the move_robot function.
+---
+Controller:
+   past steps: ("Use the move_robot function with the robot name 'Robot39' to move to location (1, 5).", "The robot 'Robot39' has been successfully moved to the location (1, 5).")
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with the robot name 'Robot39' and the item_name 'construction materials' to remove the construction materials from location (1, 5).
+        Use the robot_status_change function with the robot name 'Robot39' to set the robot's status to 'idle' after the construction materials have been removed.
+    current step:
+        Use the grab_or_remove_item function with the robot name 'Robot39' and the item_name 'construction materials' to remove the construction materials from location (1, 5).
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller, as it involves using the grab_or_remove_item function to remove the construction materials from a specific location using the robot 'Robot39'.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with the robot name 'Robot39' and the item_name 'construction materials' to remove the construction materials from location (1, 5).", 'The construction materials have been successfully removed by Robot39.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with the robot name 'Robot39' to set the robot's status to 'idle' after the construction materials have been removed.
+    current step:
+        Use the robot_status_change function with the robot name 'Robot39' to set the robot's status to 'idle' after the construction materials have been removed.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step requires using the robot_status_change function to set the robot's status to 'idle' after the construction materials have been removed. This falls under the responsibility of the Controller, who is in charge of controlling the robots and their status changes.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with the robot name 'Robot39' to set the robot's status to 'idle' after the construction materials have been removed.", "The robot 'Robot39' has been set to the 'idle' status after the construction materials have been removed.")
 ---
 replanner:
     response:
-        Robot2, equipped with a gripper, has successfully moved to location (6, 6), removed the construction materials, and its status is now set to idle.
+        The construction materials at location (1, 5) have been successfully removed by Robot39, which is equipped with a front loader. Robot39's status is now set to 'idle'. The task is complete.
 ---
 </t>
         </is>
@@ -1016,72 +974,72 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move to location (3, 9) and remove the tree branches.</t>
+          <t>Move to location (11, 4) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool with the 'saw' tool property and the item position (3, 9) to select the best suited robot for removing tree branches.
-        Use the move_robot function with the selected robot's name and the desired position (3, 9) to move the robot to the location of the tree branches.
+        Use the robot_selection_tool with the 'saw' tool property and the item position (11, 4) to select the best suited robot for removing tree branches.
+        Use the move_robot function with the selected robot's name and the desired position (11, 4) to move the robot to the location of the tree branches.
         Use the grab_or_remove_item function with the selected robot's name and the item name 'tree branches' to remove the branches from the location.
-        Use the robot_status_change function with the selected robot's name and the status 'idle' to set the robot's status after the task is complete.
-    current step:
-       Use the robot_selection_tool with the 'saw' tool property and the item position (3, 9) to select the best suited robot for removing tree branches.
+        Use the robot_status_change function with the selected robot's name and the status 'idle' to set the robot's status to idle after the task is complete.
+    current step:
+       Use the robot_selection_tool with the 'saw' tool property and the item position (11, 4) to select the best suited robot for removing tree branches.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request involves selecting the best suited robot for a specific task, which in this case is removing tree branches. The robot_selection_tool with the 'saw' tool property and the item position (3, 9) needs to be used to determine the best robot for the job. The Robot_selector is responsible for selecting the correct robot using the robot_selection_tool, making it the appropriate worker to act next.
+   reason: The Robot_selector should act next to use the robot_selection_tool to determine the best suited robot for removing tree branches.
 ---
 Robot_selector:
-   past steps: ("Use the robot_selection_tool with the 'saw' tool property and the item position (3, 9) to select the best suited robot for removing tree branches.", 'The best suited robot to remove tree branches at position (3, 9) is Robot14, which is equipped with a saw tool property.')
----
-replanner:
-    plan:
-        Use the move_robot function with Robot14's name and the desired position (3, 9) to move Robot14 to the location of the tree branches.
-        Use the grab_or_remove_item function with Robot14's name and the item name 'tree branches' to remove the branches from the location.
-        Use the robot_status_change function with Robot14's name and the status 'idle' to set Robot14's status after the task is complete.
-    current step:
-        Use the move_robot function with Robot14's name and the desired position (3, 9) to move Robot14 to the location of the tree branches.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving the movement of a robot to a particular location. The Controller is responsible for controlling the robots and has the 'move_robot' tool, which is needed to move Robot14 to the desired position (3, 9). Therefore, the Controller is the appropriate worker to act next to fulfill this request.
----
-Controller:
-   past steps: ("Use the move_robot function with Robot14's name and the desired position (3, 9) to move Robot14 to the location of the tree branches.", 'Robot14 has been successfully moved to the position (3, 9).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function with Robot14's name and the item name 'tree branches' to remove the branches from the location.
-        Use the robot_status_change function with Robot14's name and the status 'idle' to set Robot14's status after the task is complete.
-    current step:
-        Use the grab_or_remove_item function with Robot14's name and the item name 'tree branches' to remove the branches from the location.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving a robot ('Robot14') and an item ('tree branches'). The Controller is responsible for controlling the robots and has the tool 'grab_or_remove_item' which is needed to grab the item from the robot's location and add it to the robot's inventory. Therefore, the Controller is the appropriate worker to perform the current_step.
----
-Controller:
-   past steps: ("Use the grab_or_remove_item function with Robot14's name and the item name 'tree branches' to remove the branches from the location.", 'Robot14 has successfully grabbed and removed the tree branches from the location.')
----
-replanner:
-    plan:
-        Use the robot_status_change function with Robot14's name and the status 'idle' to set Robot14's status after the task is complete.
-    current step:
-        Use the robot_status_change function with Robot14's name and the status 'idle' to set Robot14's status after the task is complete.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the use of the 'robot_status_change' function, which is a tool controlled by the Controller. The task is to change Robot14's status to 'idle' after the task is complete, which falls under the Controller's responsibilities.
----
-Controller:
-   past steps: ("Use the robot_status_change function with Robot14's name and the status 'idle' to set Robot14's status after the task is complete.", "Robot14's status has been successfully changed to idle.")
+   past steps: ("Use the robot_selection_tool with the 'saw' tool property and the item position (11, 4) to select the best suited robot for removing tree branches.", 'The best suited robot for removing tree branches at position (11, 4) is Robot24, which has the saw tool property.')
+---
+replanner:
+    plan:
+        Use the move_robot function with Robot24's name and the desired position (11, 4) to move Robot24 to the location of the tree branches.
+        Use the grab_or_remove_item function with Robot24's name and the item name 'tree branches' to remove the branches from the location.
+        Use the robot_status_change function with Robot24's name and the status 'idle' to set Robot24's status to idle after the task is complete.
+    current step:
+        Use the move_robot function with Robot24's name and the desired position (11, 4) to move Robot24 to the location of the tree branches.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller, as it involves controlling the robots and using the move_robot function to move Robot24 to the desired position.
+---
+Controller:
+   past steps: ("Use the move_robot function with Robot24's name and the desired position (11, 4) to move Robot24 to the location of the tree branches.", 'Robot24 has been successfully moved to the location of the tree branches.')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function with Robot24's name and the item name 'tree branches' to remove the branches from the location.
+        Use the robot_status_change function with Robot24's name and the status 'idle' to set Robot24's status to idle after the task is complete.
+    current step:
+        Use the grab_or_remove_item function with Robot24's name and the item name 'tree branches' to remove the branches from the location.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller, as the task involves using the grab_or_remove_item function to remove the branches from Robot24's location, which falls under the control and manipulation of robot tools.
+---
+Controller:
+   past steps: ("Use the grab_or_remove_item function with Robot24's name and the item name 'tree branches' to remove the branches from the location.", 'The branches have been successfully removed by Robot24.')
+---
+replanner:
+    plan:
+        Use the robot_status_change function with Robot24's name and the status 'idle' to set Robot24's status to idle after the task is complete.
+    current step:
+        Use the robot_status_change function with Robot24's name and the status 'idle' to set Robot24's status to idle after the task is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller, as it is responsible for controlling the robots and has the tool 'robot_status_change' needed to set Robot24's status to idle after the task is complete.
+---
+Controller:
+   past steps: ("Use the robot_status_change function with Robot24's name and the status 'idle' to set Robot24's status to idle after the task is complete.", 'The status of Robot24 has been successfully changed to "idle" after completing the task.')
 ---
 replanner:
     response:
-        Robot14 equipped with a saw has successfully moved to location (3, 9), removed the tree branches, and is now set to idle status.
+        The tree branches at location (11, 4) have been successfully removed by Robot24, which is equipped with a saw tool property. Robot24's status is now set to 'idle'. The task is complete.
 ---
 </t>
         </is>
@@ -1090,72 +1048,72 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move to location (6, 6) and remove the screws.</t>
+          <t>Move to location (10, 9) and remove the screws.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">planner:
     plan:
-        Use the robot_selection_tool with the 'screwdriver' tool property to determine the best suited robot to remove screws at location (6, 6).
-        Move the selected robot to location (6, 6) using the move_robot function.
-        Use the grab_or_remove_item function to remove the screws with the selected robot.
-        Change the robot's status to 'idle' using the robot_status_change function after the screws have been removed.
-    current step:
-       Use the robot_selection_tool with the 'screwdriver' tool property to determine the best suited robot to remove screws at location (6, 6).
+        Use the robot_selection_tool with the 'screwdriver' tool property to determine the best suited robot to solve the objective, since the task involves removing screws and no specific robot is mentioned.
+        Move the selected robot to location (10, 9) using the move_robot function.
+        Use the grab_or_remove_item function to remove the screws with the selected robot, which should have a screwdriver tool property to perform the task.
+        Set the robot's status to idle using the robot_status_change function after the objective is complete.
+    current step:
+       Use the robot_selection_tool with the 'screwdriver' tool property to determine the best suited robot to solve the objective, since the task involves removing screws and no specific robot is mentioned.
 ---
 supervisor:
    next agent: Robot_selector
-   reason: The user request involves selecting the correct robot with a specific tool property ('screwdriver') to perform a task at a specific location (6, 6). The Robot_selector is responsible for selecting the correct robot using the robot_selection_tool, which is the appropriate action for this request.
+   reason: The Robot_selector should act next to use the robot_selection_tool to determine the best suited robot for the task based on the 'screwdriver' tool property.
 ---
 Robot_selector:
-   past steps: ("Use the robot_selection_tool with the 'screwdriver' tool property to determine the best suited robot to remove screws at location (6, 6).", 'The best suited robot to remove screws at location (6, 6) is Robot15, which is equipped with a screwdriver tool property.')
----
-replanner:
-    plan:
-        Move Robot15 to location (6, 6) using the move_robot function.
-        Use the grab_or_remove_item function to remove the screws with Robot15.
-        Change Robot15's status to 'idle' using the robot_status_change function after the screws have been removed.
-    current step:
-        Move Robot15 to location (6, 6) using the move_robot function.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies a direct action involving the movement of a robot to a specific location. The Controller is responsible for controlling the robots and has the 'move_robot' tool, which is needed to move Robot15 to the desired position (6, 6). Therefore, the Controller is the correct worker to act next to fulfill this request.
----
-Controller:
-   past steps: ('Move Robot15 to location (6, 6) using the move_robot function.', 'Robot15 has been successfully moved to the location (6, 6).')
----
-replanner:
-    plan:
-        Use the grab_or_remove_item function to remove the screws with Robot15.
-        Change Robot15's status to 'idle' using the robot_status_change function after the screws have been removed.
-    current step:
-        Use the grab_or_remove_item function to remove the screws with Robot15.
----
-supervisor:
-   next agent: Controller
-   reason: The user request specifies the action to be performed (grab_or_remove_item) and the robot to perform it (Robot15). Since the Controller is responsible for controlling the robots and using the tools such as grab_or_remove_item, it is the appropriate worker to act next to execute the given task.
----
-Controller:
-   past steps: ('Use the grab_or_remove_item function to remove the screws with Robot15.', 'Robot15 has successfully grabbed/removed the screws.')
----
-replanner:
-    plan:
-        Change Robot15's status to 'idle' using the robot_status_change function after the screws have been removed.
-    current step:
-        Change Robot15's status to 'idle' using the robot_status_change function after the screws have been removed.
----
-supervisor:
-   next agent: Controller
-   reason: The Controller is responsible for controlling the robots and has the tool 'robot_status_change' which is needed to change Robot15's status to 'idle' after the screws have been removed. Since the task specifically mentions using the 'robot_status_change' function, the Controller is the correct worker to perform the current_step.
----
-Controller:
-   past steps: ("Change Robot15's status to 'idle' using the robot_status_change function after the screws have been removed.", "Robot15 has successfully removed the screws and its status has been changed to 'idle'.")
+   past steps: ("Use the robot_selection_tool with the 'screwdriver' tool property to determine the best suited robot to solve the objective, since the task involves removing screws and no specific robot is mentioned.", 'Robot35 with the screwdriver tool property has been selected to solve the task.')
+---
+replanner:
+    plan:
+        Move Robot35 to location (10, 9) using the move_robot function.
+        Use the grab_or_remove_item function to remove the screws with Robot35, which has a screwdriver tool property to perform the task.
+        Set Robot35's status to idle using the robot_status_change function after the objective is complete.
+    current step:
+        Move Robot35 to location (10, 9) using the move_robot function.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller should act next because it is responsible for controlling the robots and has the tool 'move_robot' to perform the requested action of moving Robot35 to a specific location.
+---
+Controller:
+   past steps: ('Move Robot35 to location (10, 9) using the move_robot function.', 'Robot35 has been successfully moved to the desired location (10, 9).')
+---
+replanner:
+    plan:
+        Use the grab_or_remove_item function to remove the screws with Robot35, which has a screwdriver tool property to perform the task.
+        Set Robot35's status to idle using the robot_status_change function after the objective is complete.
+    current step:
+        Use the grab_or_remove_item function to remove the screws with Robot35, which has a screwdriver tool property to perform the task.
+---
+supervisor:
+   next agent: Controller
+   reason: The Controller should act next because it is responsible for controlling the robots and has the tool functionality to perform the grab_or_remove_item action with Robot35.
+---
+Controller:
+   past steps: ('Use the grab_or_remove_item function to remove the screws with Robot35, which has a screwdriver tool property to perform the task.', 'The screws have been successfully removed by Robot35 using the screwdriver tool property.')
+---
+replanner:
+    plan:
+        Set Robot35's status to idle using the robot_status_change function after the objective is complete.
+    current step:
+        Set Robot35's status to idle using the robot_status_change function after the objective is complete.
+---
+supervisor:
+   next agent: Controller
+   reason: The next step should be handled by the Controller, as it involves using the robot_status_change function to set Robot35's status to idle after the objective is complete.
+---
+Controller:
+   past steps: ("Set Robot35's status to idle using the robot_status_change function after the objective is complete.", 'The items "lawnmower" and "saw" have been successfully grabbed/removed by Robot35. The robot\'s status has been set to idle, and it has been moved to the position (0, 0).')
 ---
 replanner:
     response:
-        The screws at location (6, 6) have been successfully removed by Robot15, which is equipped with a screwdriver tool property. The robot has been set to 'idle' status, completing the task.
+        The screws at location (10, 9) have been successfully removed by Robot35, which is equipped with a screwdriver tool property. The robot's status has been set to idle, and the task is complete.
 ---
 </t>
         </is>
